--- a/artfynd/A 32706-2023.xlsx
+++ b/artfynd/A 32706-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112081019</v>
+        <v>112080973</v>
       </c>
       <c r="B2" t="n">
-        <v>78512</v>
+        <v>86223</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6456</v>
+        <v>4412</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>838202.4607568587</v>
+        <v>838235.7197854484</v>
       </c>
       <c r="R2" t="n">
-        <v>7446426.176092405</v>
+        <v>7446397.890292814</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112081069</v>
+        <v>112081003</v>
       </c>
       <c r="B3" t="n">
-        <v>81248</v>
+        <v>90710</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1312</v>
+        <v>5449</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>838124.5467092539</v>
+        <v>837859.4066977841</v>
       </c>
       <c r="R3" t="n">
-        <v>7446412.455444188</v>
+        <v>7446270.806576692</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -886,7 +886,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -905,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112081061</v>
+        <v>112081048</v>
       </c>
       <c r="B4" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -917,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -945,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>837896.2735834711</v>
+        <v>837845.8492312706</v>
       </c>
       <c r="R4" t="n">
-        <v>7446210.512227563</v>
+        <v>7446312.645483467</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -975,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -985,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -999,7 +998,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1018,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112081073</v>
+        <v>112080977</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>86223</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1030,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>4412</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1058,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>837933.8191019511</v>
+        <v>838168.87489863</v>
       </c>
       <c r="R5" t="n">
-        <v>7446223.92043284</v>
+        <v>7446374.869614611</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1130,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112081055</v>
+        <v>112081028</v>
       </c>
       <c r="B6" t="n">
-        <v>89401</v>
+        <v>90678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1142,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1170,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>837800.6454340136</v>
+        <v>837840.4844978931</v>
       </c>
       <c r="R6" t="n">
-        <v>7446411.074956991</v>
+        <v>7446336.51211754</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1242,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112081044</v>
+        <v>112081068</v>
       </c>
       <c r="B7" t="n">
-        <v>95539</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1254,23 +1252,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>224358</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1278,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>837845.3110504418</v>
+        <v>837976.7121195621</v>
       </c>
       <c r="R7" t="n">
-        <v>7446348.593773925</v>
+        <v>7446400.26994763</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1332,7 +1334,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1351,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112080966</v>
+        <v>112081074</v>
       </c>
       <c r="B8" t="n">
-        <v>86223</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1363,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4412</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1391,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>838113.4904383065</v>
+        <v>837919.6774084561</v>
       </c>
       <c r="R8" t="n">
-        <v>7446333.101353128</v>
+        <v>7446235.606810712</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1463,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112081091</v>
+        <v>112081024</v>
       </c>
       <c r="B9" t="n">
         <v>90678</v>
@@ -1503,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>838214.7539574907</v>
+        <v>837897.2001234535</v>
       </c>
       <c r="R9" t="n">
-        <v>7446394.471189934</v>
+        <v>7446209.440837428</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1557,7 +1558,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112081054</v>
+        <v>112080980</v>
       </c>
       <c r="B10" t="n">
-        <v>55611</v>
+        <v>86223</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1592,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102612</v>
+        <v>4412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>837801.3791507571</v>
+        <v>837988.3060418679</v>
       </c>
       <c r="R10" t="n">
-        <v>7446348.23971172</v>
+        <v>7446497.49711983</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112081028</v>
+        <v>112081023</v>
       </c>
       <c r="B11" t="n">
         <v>90678</v>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>837840.4844978931</v>
+        <v>837916.1136804298</v>
       </c>
       <c r="R11" t="n">
-        <v>7446336.51211754</v>
+        <v>7446292.549982841</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112080998</v>
+        <v>112081086</v>
       </c>
       <c r="B12" t="n">
-        <v>90709</v>
+        <v>90660</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>837838.7822586626</v>
+        <v>837868.6233662561</v>
       </c>
       <c r="R12" t="n">
-        <v>7446242.498689905</v>
+        <v>7446254.149947886</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112081010</v>
+        <v>112080991</v>
       </c>
       <c r="B13" t="n">
-        <v>78605</v>
+        <v>56543</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6462</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>838039.184184861</v>
+        <v>837924.4046179331</v>
       </c>
       <c r="R13" t="n">
-        <v>7446300.04609861</v>
+        <v>7446270.632447951</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112081012</v>
+        <v>112081069</v>
       </c>
       <c r="B14" t="n">
-        <v>78605</v>
+        <v>81248</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2036,25 +2036,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6462</v>
+        <v>1312</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>838034.1642038801</v>
+        <v>838124.5467092539</v>
       </c>
       <c r="R14" t="n">
-        <v>7446280.023652854</v>
+        <v>7446412.455444188</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2118,6 +2118,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2136,10 +2137,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112081029</v>
+        <v>112081084</v>
       </c>
       <c r="B15" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,25 +2149,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2177,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>837875.2086852583</v>
+        <v>837946.2911426609</v>
       </c>
       <c r="R15" t="n">
-        <v>7446207.875133445</v>
+        <v>7446352.133688311</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2248,10 +2249,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112081043</v>
+        <v>112081010</v>
       </c>
       <c r="B16" t="n">
-        <v>95538</v>
+        <v>78605</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2264,21 +2265,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221941</v>
+        <v>6462</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2288,10 +2289,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>837846.7757205146</v>
+        <v>838039.184184861</v>
       </c>
       <c r="R16" t="n">
-        <v>7446311.574124073</v>
+        <v>7446300.04609861</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2318,7 +2319,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2328,7 +2329,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2360,10 +2361,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112080968</v>
+        <v>112081025</v>
       </c>
       <c r="B17" t="n">
-        <v>86223</v>
+        <v>90678</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2372,25 +2373,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2400,10 +2401,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>838164.2938756342</v>
+        <v>837898.0290912819</v>
       </c>
       <c r="R17" t="n">
-        <v>7446360.838954043</v>
+        <v>7446209.148823088</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2472,10 +2473,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112080990</v>
+        <v>112081087</v>
       </c>
       <c r="B18" t="n">
-        <v>89425</v>
+        <v>90660</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2488,21 +2489,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5442</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2512,10 +2513,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>837870.5590133357</v>
+        <v>837864.7233669618</v>
       </c>
       <c r="R18" t="n">
-        <v>7446491.855144872</v>
+        <v>7446237.83015993</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2566,7 +2567,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112080978</v>
+        <v>112080985</v>
       </c>
       <c r="B19" t="n">
-        <v>86223</v>
+        <v>89665</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2601,21 +2601,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4412</v>
+        <v>73</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>838100.4231995976</v>
+        <v>838200.4622103767</v>
       </c>
       <c r="R19" t="n">
-        <v>7446329.881175157</v>
+        <v>7446423.155198905</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2697,10 +2697,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112080983</v>
+        <v>112080998</v>
       </c>
       <c r="B20" t="n">
-        <v>86223</v>
+        <v>90709</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2713,21 +2713,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4412</v>
+        <v>5448</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2737,10 +2737,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>837799.961483628</v>
+        <v>837838.7822586626</v>
       </c>
       <c r="R20" t="n">
-        <v>7446445.024789493</v>
+        <v>7446242.498689905</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2809,10 +2809,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112080965</v>
+        <v>112081056</v>
       </c>
       <c r="B21" t="n">
-        <v>86223</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2825,21 +2825,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4412</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>837870.7687404454</v>
+        <v>838090.6623783482</v>
       </c>
       <c r="R21" t="n">
-        <v>7446256.001670239</v>
+        <v>7446391.983515436</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2921,10 +2921,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112080973</v>
+        <v>112081085</v>
       </c>
       <c r="B22" t="n">
-        <v>86223</v>
+        <v>90660</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2937,21 +2937,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4412</v>
+        <v>4362</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2961,10 +2961,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>838235.7197854484</v>
+        <v>837853.3107646899</v>
       </c>
       <c r="R22" t="n">
-        <v>7446397.890292814</v>
+        <v>7446287.853762402</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3033,10 +3033,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112081075</v>
+        <v>112081012</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>78605</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3049,21 +3049,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>6462</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>837915.628349144</v>
+        <v>838034.1642038801</v>
       </c>
       <c r="R23" t="n">
-        <v>7446261.61784647</v>
+        <v>7446280.023652854</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3145,10 +3145,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112081071</v>
+        <v>112081091</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3161,21 +3161,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>837915.7277491348</v>
+        <v>838214.7539574907</v>
       </c>
       <c r="R24" t="n">
-        <v>7446235.508097066</v>
+        <v>7446394.471189934</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3239,6 +3239,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3257,10 +3258,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112081067</v>
+        <v>112080979</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>86223</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3273,21 +3274,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>4412</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3297,10 +3298,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>838038.6356934095</v>
+        <v>837843.2180797802</v>
       </c>
       <c r="R25" t="n">
-        <v>7446399.318529564</v>
+        <v>7446273.529509278</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3327,7 +3328,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3337,7 +3338,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -3369,10 +3370,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112081083</v>
+        <v>112081070</v>
       </c>
       <c r="B26" t="n">
-        <v>90660</v>
+        <v>81248</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3385,21 +3386,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4362</v>
+        <v>1312</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3409,10 +3410,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>837881.2065802006</v>
+        <v>838036.5849968333</v>
       </c>
       <c r="R26" t="n">
-        <v>7446204.272237497</v>
+        <v>7446422.016486038</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3463,6 +3464,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3481,10 +3483,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112081048</v>
+        <v>112081057</v>
       </c>
       <c r="B27" t="n">
-        <v>90658</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3497,21 +3499,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4361</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3521,10 +3523,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>837845.8492312706</v>
+        <v>837757.300918343</v>
       </c>
       <c r="R27" t="n">
-        <v>7446312.645483467</v>
+        <v>7446355.387659943</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3593,10 +3595,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112081020</v>
+        <v>112081000</v>
       </c>
       <c r="B28" t="n">
-        <v>78512</v>
+        <v>90710</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3605,25 +3607,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6456</v>
+        <v>5449</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3633,10 +3635,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>838023.1909795527</v>
+        <v>837877.3502622857</v>
       </c>
       <c r="R28" t="n">
-        <v>7446298.042985912</v>
+        <v>7446276.219145535</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3663,7 +3665,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3673,7 +3675,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3705,10 +3707,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112081025</v>
+        <v>112081054</v>
       </c>
       <c r="B29" t="n">
-        <v>90678</v>
+        <v>55611</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3717,25 +3719,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4366</v>
+        <v>102612</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3745,10 +3747,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>837898.0290912819</v>
+        <v>837801.3791507571</v>
       </c>
       <c r="R29" t="n">
-        <v>7446209.148823088</v>
+        <v>7446348.23971172</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3775,7 +3777,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3785,7 +3787,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3817,10 +3819,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112080993</v>
+        <v>112080971</v>
       </c>
       <c r="B30" t="n">
-        <v>56543</v>
+        <v>86223</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3833,21 +3835,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>103021</v>
+        <v>4412</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3857,10 +3859,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>837802.2590066136</v>
+        <v>838247.9486900165</v>
       </c>
       <c r="R30" t="n">
-        <v>7446284.233996688</v>
+        <v>7446445.729137186</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3887,7 +3889,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3897,7 +3899,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3929,10 +3931,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112080980</v>
+        <v>112081042</v>
       </c>
       <c r="B31" t="n">
-        <v>86223</v>
+        <v>95538</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3941,25 +3943,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4412</v>
+        <v>221941</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3969,10 +3971,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>837988.3060418679</v>
+        <v>837881.7314132825</v>
       </c>
       <c r="R31" t="n">
-        <v>7446497.49711983</v>
+        <v>7446389.959994812</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4041,10 +4043,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112080984</v>
+        <v>112080982</v>
       </c>
       <c r="B32" t="n">
-        <v>78107</v>
+        <v>86223</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4057,21 +4059,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6453</v>
+        <v>4412</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4081,10 +4083,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>838020.7521848839</v>
+        <v>837795.2863449999</v>
       </c>
       <c r="R32" t="n">
-        <v>7446304.861716139</v>
+        <v>7446282.96551057</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4111,7 +4113,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4121,7 +4123,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4153,10 +4155,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112081076</v>
+        <v>112081067</v>
       </c>
       <c r="B33" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4165,25 +4167,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4193,10 +4195,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>837900.419231683</v>
+        <v>838038.6356934095</v>
       </c>
       <c r="R33" t="n">
-        <v>7446196.386764307</v>
+        <v>7446399.318529564</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4265,10 +4267,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112080969</v>
+        <v>112081059</v>
       </c>
       <c r="B34" t="n">
-        <v>86223</v>
+        <v>88032</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4277,25 +4279,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4412</v>
+        <v>6276</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4305,10 +4307,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>838167.9992682158</v>
+        <v>837912.8022074802</v>
       </c>
       <c r="R34" t="n">
-        <v>7446362.886382494</v>
+        <v>7446233.558645433</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4359,6 +4361,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4377,10 +4380,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112081023</v>
+        <v>112080968</v>
       </c>
       <c r="B35" t="n">
-        <v>90678</v>
+        <v>86223</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4389,25 +4392,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4417,10 +4420,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>837916.1136804298</v>
+        <v>838164.2938756342</v>
       </c>
       <c r="R35" t="n">
-        <v>7446292.549982841</v>
+        <v>7446360.838954043</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4489,10 +4492,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112080981</v>
+        <v>112080995</v>
       </c>
       <c r="B36" t="n">
-        <v>86223</v>
+        <v>90652</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4505,21 +4508,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4412</v>
+        <v>3100</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4529,10 +4532,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>837867.6487590476</v>
+        <v>837931.5671021644</v>
       </c>
       <c r="R36" t="n">
-        <v>7446242.945851159</v>
+        <v>7446336.833542572</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4601,10 +4604,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112081059</v>
+        <v>112081077</v>
       </c>
       <c r="B37" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4613,25 +4616,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4641,10 +4644,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>837912.8022074802</v>
+        <v>837974.9592336594</v>
       </c>
       <c r="R37" t="n">
-        <v>7446233.558645433</v>
+        <v>7446376.304021777</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4671,7 +4674,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4681,7 +4684,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4695,7 +4698,6 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
       </c>
@@ -4714,10 +4716,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112081046</v>
+        <v>112081088</v>
       </c>
       <c r="B38" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4730,21 +4732,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4754,10 +4756,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>837921.6254922284</v>
+        <v>837862.7243175795</v>
       </c>
       <c r="R38" t="n">
-        <v>7446267.51396696</v>
+        <v>7446234.809380615</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4826,10 +4828,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112081087</v>
+        <v>112080990</v>
       </c>
       <c r="B39" t="n">
-        <v>90660</v>
+        <v>89425</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4842,21 +4844,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4362</v>
+        <v>5442</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4866,10 +4868,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>837864.7233669618</v>
+        <v>837870.5590133357</v>
       </c>
       <c r="R39" t="n">
-        <v>7446237.83015993</v>
+        <v>7446491.855144872</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4920,6 +4922,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4938,10 +4941,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112081050</v>
+        <v>112081072</v>
       </c>
       <c r="B40" t="n">
-        <v>78612</v>
+        <v>90666</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4954,21 +4957,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6464</v>
+        <v>4364</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4978,10 +4981,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>838194.5130589544</v>
+        <v>837934.8917845036</v>
       </c>
       <c r="R40" t="n">
-        <v>7446426.367444765</v>
+        <v>7446224.846331049</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5050,10 +5053,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112081056</v>
+        <v>112081020</v>
       </c>
       <c r="B41" t="n">
-        <v>89423</v>
+        <v>78512</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5062,25 +5065,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>6456</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5090,10 +5093,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>838090.6623783482</v>
+        <v>838023.1909795527</v>
       </c>
       <c r="R41" t="n">
-        <v>7446391.983515436</v>
+        <v>7446298.042985912</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5162,10 +5165,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112080975</v>
+        <v>112081001</v>
       </c>
       <c r="B42" t="n">
-        <v>86223</v>
+        <v>90710</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5178,21 +5181,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4412</v>
+        <v>5449</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5202,10 +5205,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>838204.2151416114</v>
+        <v>837843.5569304484</v>
       </c>
       <c r="R42" t="n">
-        <v>7446431.145269929</v>
+        <v>7446324.627656106</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5232,7 +5235,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5242,7 +5245,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5274,10 +5277,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112081024</v>
+        <v>112081055</v>
       </c>
       <c r="B43" t="n">
-        <v>90678</v>
+        <v>89401</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5286,25 +5289,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4366</v>
+        <v>1108</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5314,10 +5317,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>837897.2001234535</v>
+        <v>837800.6454340136</v>
       </c>
       <c r="R43" t="n">
-        <v>7446209.440837428</v>
+        <v>7446411.074956991</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5344,7 +5347,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5354,7 +5357,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5386,10 +5389,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112081026</v>
+        <v>112081078</v>
       </c>
       <c r="B44" t="n">
-        <v>90678</v>
+        <v>78611</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5402,21 +5405,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4366</v>
+        <v>6463</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5426,10 +5429,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>837897.2437476438</v>
+        <v>838039.184184861</v>
       </c>
       <c r="R44" t="n">
-        <v>7446288.208521556</v>
+        <v>7446300.04609861</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5456,7 +5459,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
@@ -5466,7 +5469,7 @@
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
@@ -5498,7 +5501,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112081072</v>
+        <v>112081071</v>
       </c>
       <c r="B45" t="n">
         <v>90666</v>
@@ -5538,10 +5541,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>837934.8917845036</v>
+        <v>837915.7277491348</v>
       </c>
       <c r="R45" t="n">
-        <v>7446224.846331049</v>
+        <v>7446235.508097066</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5610,10 +5613,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112081084</v>
+        <v>112080994</v>
       </c>
       <c r="B46" t="n">
-        <v>90660</v>
+        <v>56543</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5626,21 +5629,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4362</v>
+        <v>103021</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5650,10 +5653,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>837946.2911426609</v>
+        <v>837770.7573541414</v>
       </c>
       <c r="R46" t="n">
-        <v>7446352.133688311</v>
+        <v>7446393.482346883</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5722,10 +5725,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112081002</v>
+        <v>112080976</v>
       </c>
       <c r="B47" t="n">
-        <v>90710</v>
+        <v>86223</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5738,21 +5741,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5449</v>
+        <v>4412</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5762,10 +5765,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>837852.3844273125</v>
+        <v>838177.97953905</v>
       </c>
       <c r="R47" t="n">
-        <v>7446285.758887676</v>
+        <v>7446450.812485872</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5792,7 +5795,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
@@ -5802,7 +5805,7 @@
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
@@ -5834,10 +5837,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112081003</v>
+        <v>112081046</v>
       </c>
       <c r="B48" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5850,21 +5853,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5874,10 +5877,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>837859.4066977841</v>
+        <v>837921.6254922284</v>
       </c>
       <c r="R48" t="n">
-        <v>7446270.806576692</v>
+        <v>7446267.51396696</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5946,10 +5949,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112081015</v>
+        <v>112081045</v>
       </c>
       <c r="B49" t="n">
-        <v>56414</v>
+        <v>90658</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5962,21 +5965,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100049</v>
+        <v>4361</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5986,10 +5989,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>838266.7664618089</v>
+        <v>837915.7277491348</v>
       </c>
       <c r="R49" t="n">
-        <v>7446459.961015977</v>
+        <v>7446235.508097066</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6058,10 +6061,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112080985</v>
+        <v>112081015</v>
       </c>
       <c r="B50" t="n">
-        <v>89665</v>
+        <v>56414</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6074,21 +6077,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>73</v>
+        <v>100049</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6098,10 +6101,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>838200.4622103767</v>
+        <v>838266.7664618089</v>
       </c>
       <c r="R50" t="n">
-        <v>7446423.155198905</v>
+        <v>7446459.961015977</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6170,10 +6173,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112081057</v>
+        <v>112080975</v>
       </c>
       <c r="B51" t="n">
-        <v>89423</v>
+        <v>86223</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6186,21 +6189,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>4412</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6210,10 +6213,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>837757.300918343</v>
+        <v>838204.2151416114</v>
       </c>
       <c r="R51" t="n">
-        <v>7446355.387659943</v>
+        <v>7446431.145269929</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6240,7 +6243,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6250,7 +6253,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6282,10 +6285,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112081074</v>
+        <v>112081064</v>
       </c>
       <c r="B52" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6294,25 +6297,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6322,10 +6325,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>837919.6774084561</v>
+        <v>837868.8550111951</v>
       </c>
       <c r="R52" t="n">
-        <v>7446235.606810712</v>
+        <v>7446454.836379979</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6352,7 +6355,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6362,7 +6365,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6376,6 +6379,7 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6394,10 +6398,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112081086</v>
+        <v>112081061</v>
       </c>
       <c r="B53" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6406,25 +6410,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6434,10 +6438,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>837868.6233662561</v>
+        <v>837896.2735834711</v>
       </c>
       <c r="R53" t="n">
-        <v>7446254.149947886</v>
+        <v>7446210.512227563</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6464,7 +6468,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
@@ -6474,7 +6478,7 @@
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
@@ -6488,6 +6492,7 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6506,10 +6511,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112081085</v>
+        <v>112081014</v>
       </c>
       <c r="B54" t="n">
-        <v>90660</v>
+        <v>56414</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6522,21 +6527,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4362</v>
+        <v>100049</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6546,10 +6551,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>837853.3107646899</v>
+        <v>838279.780710872</v>
       </c>
       <c r="R54" t="n">
-        <v>7446287.853762402</v>
+        <v>7446479.40212379</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6576,7 +6581,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
@@ -6586,7 +6591,7 @@
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
@@ -6618,10 +6623,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112081004</v>
+        <v>112081022</v>
       </c>
       <c r="B55" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6630,25 +6635,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6658,10 +6663,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>837870.3784795245</v>
+        <v>837916.746518617</v>
       </c>
       <c r="R55" t="n">
-        <v>7446259.119117271</v>
+        <v>7446306.481645775</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6688,7 +6693,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6698,7 +6703,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6730,10 +6735,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112081017</v>
+        <v>112081019</v>
       </c>
       <c r="B56" t="n">
-        <v>56414</v>
+        <v>78512</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6742,25 +6747,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100049</v>
+        <v>6456</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6770,10 +6775,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>837977.6880890885</v>
+        <v>838202.4607568587</v>
       </c>
       <c r="R56" t="n">
-        <v>7446392.476723668</v>
+        <v>7446426.176092405</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6800,7 +6805,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6810,7 +6815,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -6842,10 +6847,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112081042</v>
+        <v>112081004</v>
       </c>
       <c r="B57" t="n">
-        <v>95538</v>
+        <v>90710</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6854,25 +6859,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>221941</v>
+        <v>5449</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6882,10 +6887,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>837881.7314132825</v>
+        <v>837870.3784795245</v>
       </c>
       <c r="R57" t="n">
-        <v>7446389.959994812</v>
+        <v>7446259.119117271</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6954,10 +6959,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112081022</v>
+        <v>112081073</v>
       </c>
       <c r="B58" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6970,21 +6975,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6994,10 +6999,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>837916.746518617</v>
+        <v>837933.8191019511</v>
       </c>
       <c r="R58" t="n">
-        <v>7446306.481645775</v>
+        <v>7446223.92043284</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7066,10 +7071,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112080982</v>
+        <v>112080993</v>
       </c>
       <c r="B59" t="n">
-        <v>86223</v>
+        <v>56543</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7082,21 +7087,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4412</v>
+        <v>103021</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7106,10 +7111,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>837795.2863449999</v>
+        <v>837802.2590066136</v>
       </c>
       <c r="R59" t="n">
-        <v>7446282.96551057</v>
+        <v>7446284.233996688</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7178,10 +7183,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112080977</v>
+        <v>112081002</v>
       </c>
       <c r="B60" t="n">
-        <v>86223</v>
+        <v>90710</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7194,21 +7199,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4412</v>
+        <v>5449</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7218,10 +7223,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>838168.87489863</v>
+        <v>837852.3844273125</v>
       </c>
       <c r="R60" t="n">
-        <v>7446374.869614611</v>
+        <v>7446285.758887676</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7248,7 +7253,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
@@ -7258,7 +7263,7 @@
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr">
@@ -7290,10 +7295,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112081041</v>
+        <v>112080974</v>
       </c>
       <c r="B61" t="n">
-        <v>95538</v>
+        <v>86223</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7302,25 +7307,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>221941</v>
+        <v>4412</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7330,10 +7335,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>837955.4588081369</v>
+        <v>838232.8434459728</v>
       </c>
       <c r="R61" t="n">
-        <v>7446342.199877275</v>
+        <v>7446395.550894149</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7360,7 +7365,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
@@ -7370,7 +7375,7 @@
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr">
@@ -7402,10 +7407,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112081068</v>
+        <v>112081043</v>
       </c>
       <c r="B62" t="n">
-        <v>77515</v>
+        <v>95538</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7414,25 +7419,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>221941</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7442,10 +7447,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>837976.7121195621</v>
+        <v>837846.7757205146</v>
       </c>
       <c r="R62" t="n">
-        <v>7446400.26994763</v>
+        <v>7446311.574124073</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7514,10 +7519,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112081088</v>
+        <v>112081047</v>
       </c>
       <c r="B63" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7530,21 +7535,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7554,10 +7559,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>837862.7243175795</v>
+        <v>837881.6828410937</v>
       </c>
       <c r="R63" t="n">
-        <v>7446234.809380615</v>
+        <v>7446387.183525605</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7626,10 +7631,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112081027</v>
+        <v>112081050</v>
       </c>
       <c r="B64" t="n">
-        <v>90678</v>
+        <v>78612</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7642,21 +7647,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4366</v>
+        <v>6464</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7666,10 +7671,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>837917.2855631707</v>
+        <v>838194.5130589544</v>
       </c>
       <c r="R64" t="n">
-        <v>7446270.532679928</v>
+        <v>7446426.367444765</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7696,7 +7701,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -7706,7 +7711,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -7738,10 +7743,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112080979</v>
+        <v>112081029</v>
       </c>
       <c r="B65" t="n">
-        <v>86223</v>
+        <v>90678</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7750,25 +7755,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7778,10 +7783,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>837843.2180797802</v>
+        <v>837875.2086852583</v>
       </c>
       <c r="R65" t="n">
-        <v>7446273.529509278</v>
+        <v>7446207.875133445</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7850,10 +7855,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112080974</v>
+        <v>112081041</v>
       </c>
       <c r="B66" t="n">
-        <v>86223</v>
+        <v>95538</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7862,25 +7867,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4412</v>
+        <v>221941</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7890,10 +7895,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>838232.8434459728</v>
+        <v>837955.4588081369</v>
       </c>
       <c r="R66" t="n">
-        <v>7446395.550894149</v>
+        <v>7446342.199877275</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7920,7 +7925,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -7930,7 +7935,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -7962,10 +7967,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112080972</v>
+        <v>112080984</v>
       </c>
       <c r="B67" t="n">
-        <v>86223</v>
+        <v>78107</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7978,21 +7983,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4412</v>
+        <v>6453</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8002,10 +8007,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>838236.6940111651</v>
+        <v>838020.7521848839</v>
       </c>
       <c r="R67" t="n">
-        <v>7446402.76177583</v>
+        <v>7446304.861716139</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8074,10 +8079,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112081077</v>
+        <v>112080981</v>
       </c>
       <c r="B68" t="n">
-        <v>90666</v>
+        <v>86223</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8086,25 +8091,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4364</v>
+        <v>4412</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8114,10 +8119,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>837974.9592336594</v>
+        <v>837867.6487590476</v>
       </c>
       <c r="R68" t="n">
-        <v>7446376.304021777</v>
+        <v>7446242.945851159</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8186,10 +8191,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112080970</v>
+        <v>112081021</v>
       </c>
       <c r="B69" t="n">
-        <v>86223</v>
+        <v>78512</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8198,25 +8203,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4412</v>
+        <v>6456</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8226,10 +8231,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>838256.3912559838</v>
+        <v>837759.1514345235</v>
       </c>
       <c r="R69" t="n">
-        <v>7446409.979874453</v>
+        <v>7446454.559896443</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8256,7 +8261,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -8266,7 +8271,7 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -8298,10 +8303,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112081063</v>
+        <v>112080965</v>
       </c>
       <c r="B70" t="n">
-        <v>88032</v>
+        <v>86223</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8310,25 +8315,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6276</v>
+        <v>4412</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8338,10 +8343,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>837894.4704642664</v>
+        <v>837870.7687404454</v>
       </c>
       <c r="R70" t="n">
-        <v>7446193.267236664</v>
+        <v>7446256.001670239</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8392,7 +8397,6 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
-      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
@@ -8411,10 +8415,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112081047</v>
+        <v>112081039</v>
       </c>
       <c r="B71" t="n">
-        <v>90658</v>
+        <v>95538</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8423,25 +8427,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4361</v>
+        <v>221941</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8451,10 +8455,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>837881.6828410937</v>
+        <v>837881.7892231181</v>
       </c>
       <c r="R71" t="n">
-        <v>7446387.183525605</v>
+        <v>7446247.090790463</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8481,7 +8485,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8491,7 +8495,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -8523,10 +8527,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112081070</v>
+        <v>112081040</v>
       </c>
       <c r="B72" t="n">
-        <v>81248</v>
+        <v>95538</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8535,25 +8539,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1312</v>
+        <v>221941</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8563,10 +8567,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>838036.5849968333</v>
+        <v>837935.4732861784</v>
       </c>
       <c r="R72" t="n">
-        <v>7446422.016486038</v>
+        <v>7446270.830977168</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8617,7 +8621,6 @@
       <c r="AE72" t="b">
         <v>0</v>
       </c>
-      <c r="AF72" t="inlineStr"/>
       <c r="AG72" t="b">
         <v>0</v>
       </c>
@@ -8636,10 +8639,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112081049</v>
+        <v>112080983</v>
       </c>
       <c r="B73" t="n">
-        <v>90658</v>
+        <v>86223</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8652,21 +8655,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4361</v>
+        <v>4412</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8676,10 +8679,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>837873.3564794692</v>
+        <v>837799.961483628</v>
       </c>
       <c r="R73" t="n">
-        <v>7446194.186205429</v>
+        <v>7446445.024789493</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8748,10 +8751,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112080991</v>
+        <v>112081049</v>
       </c>
       <c r="B74" t="n">
-        <v>56543</v>
+        <v>90658</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8764,21 +8767,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>103021</v>
+        <v>4361</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8788,10 +8791,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>837924.4046179331</v>
+        <v>837873.3564794692</v>
       </c>
       <c r="R74" t="n">
-        <v>7446270.632447951</v>
+        <v>7446194.186205429</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8860,10 +8863,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112081039</v>
+        <v>112081075</v>
       </c>
       <c r="B75" t="n">
-        <v>95538</v>
+        <v>90666</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8876,21 +8879,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8900,10 +8903,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>837881.7892231181</v>
+        <v>837915.628349144</v>
       </c>
       <c r="R75" t="n">
-        <v>7446247.090790463</v>
+        <v>7446261.61784647</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8972,10 +8975,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112081001</v>
+        <v>112080999</v>
       </c>
       <c r="B76" t="n">
-        <v>90710</v>
+        <v>90709</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8988,21 +8991,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5449</v>
+        <v>5448</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9012,10 +9015,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>837843.5569304484</v>
+        <v>837851.7494738428</v>
       </c>
       <c r="R76" t="n">
-        <v>7446324.627656106</v>
+        <v>7446306.655828147</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9084,10 +9087,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112081078</v>
+        <v>112080972</v>
       </c>
       <c r="B77" t="n">
-        <v>78611</v>
+        <v>86223</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9096,25 +9099,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6463</v>
+        <v>4412</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9124,10 +9127,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>838039.184184861</v>
+        <v>838236.6940111651</v>
       </c>
       <c r="R77" t="n">
-        <v>7446300.04609861</v>
+        <v>7446402.76177583</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9196,10 +9199,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112080967</v>
+        <v>112081026</v>
       </c>
       <c r="B78" t="n">
-        <v>86223</v>
+        <v>90678</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9208,25 +9211,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9236,10 +9239,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>838146.4015329867</v>
+        <v>837897.2437476438</v>
       </c>
       <c r="R78" t="n">
-        <v>7446345.536183035</v>
+        <v>7446288.208521556</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9266,7 +9269,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9276,7 +9279,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -9308,10 +9311,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112081040</v>
+        <v>112080978</v>
       </c>
       <c r="B79" t="n">
-        <v>95538</v>
+        <v>86223</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9320,25 +9323,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>221941</v>
+        <v>4412</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9348,10 +9351,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>837935.4732861784</v>
+        <v>838100.4231995976</v>
       </c>
       <c r="R79" t="n">
-        <v>7446270.830977168</v>
+        <v>7446329.881175157</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9420,10 +9423,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112081021</v>
+        <v>112081063</v>
       </c>
       <c r="B80" t="n">
-        <v>78512</v>
+        <v>88032</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9432,25 +9435,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6456</v>
+        <v>6276</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9460,10 +9463,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>837759.1514345235</v>
+        <v>837894.4704642664</v>
       </c>
       <c r="R80" t="n">
-        <v>7446454.559896443</v>
+        <v>7446193.267236664</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9490,7 +9493,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
@@ -9500,7 +9503,7 @@
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr">
@@ -9514,6 +9517,7 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9532,7 +9536,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112080976</v>
+        <v>112080970</v>
       </c>
       <c r="B81" t="n">
         <v>86223</v>
@@ -9572,10 +9576,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>838177.97953905</v>
+        <v>838256.3912559838</v>
       </c>
       <c r="R81" t="n">
-        <v>7446450.812485872</v>
+        <v>7446409.979874453</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9644,10 +9648,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112081045</v>
+        <v>112081076</v>
       </c>
       <c r="B82" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9656,25 +9660,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9684,10 +9688,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>837915.7277491348</v>
+        <v>837900.419231683</v>
       </c>
       <c r="R82" t="n">
-        <v>7446235.508097066</v>
+        <v>7446196.386764307</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9756,10 +9760,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112081064</v>
+        <v>112081083</v>
       </c>
       <c r="B83" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9768,25 +9772,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9796,10 +9800,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>837868.8550111951</v>
+        <v>837881.2065802006</v>
       </c>
       <c r="R83" t="n">
-        <v>7446454.836379979</v>
+        <v>7446204.272237497</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9826,7 +9830,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -9836,7 +9840,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -9850,7 +9854,6 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
-      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
@@ -9869,10 +9872,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112080971</v>
+        <v>112081017</v>
       </c>
       <c r="B84" t="n">
-        <v>86223</v>
+        <v>56414</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9885,21 +9888,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4412</v>
+        <v>100049</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9909,10 +9912,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>838247.9486900165</v>
+        <v>837977.6880890885</v>
       </c>
       <c r="R84" t="n">
-        <v>7446445.729137186</v>
+        <v>7446392.476723668</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9939,7 +9942,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
@@ -9949,7 +9952,7 @@
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
@@ -9981,10 +9984,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112081014</v>
+        <v>112080966</v>
       </c>
       <c r="B85" t="n">
-        <v>56414</v>
+        <v>86223</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9997,21 +10000,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>100049</v>
+        <v>4412</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10021,10 +10024,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>838279.780710872</v>
+        <v>838113.4904383065</v>
       </c>
       <c r="R85" t="n">
-        <v>7446479.40212379</v>
+        <v>7446333.101353128</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10093,10 +10096,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112080999</v>
+        <v>112080969</v>
       </c>
       <c r="B86" t="n">
-        <v>90709</v>
+        <v>86223</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10109,21 +10112,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5448</v>
+        <v>4412</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10133,10 +10136,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>837851.7494738428</v>
+        <v>838167.9992682158</v>
       </c>
       <c r="R86" t="n">
-        <v>7446306.655828147</v>
+        <v>7446362.886382494</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10163,7 +10166,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -10173,7 +10176,7 @@
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr">
@@ -10205,10 +10208,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112080994</v>
+        <v>112080967</v>
       </c>
       <c r="B87" t="n">
-        <v>56543</v>
+        <v>86223</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10221,21 +10224,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>103021</v>
+        <v>4412</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10245,10 +10248,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>837770.7573541414</v>
+        <v>838146.4015329867</v>
       </c>
       <c r="R87" t="n">
-        <v>7446393.482346883</v>
+        <v>7446345.536183035</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10275,7 +10278,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -10285,7 +10288,7 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
@@ -10317,10 +10320,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112081000</v>
+        <v>112081027</v>
       </c>
       <c r="B88" t="n">
-        <v>90710</v>
+        <v>90678</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10329,25 +10332,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10357,10 +10360,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>837877.3502622857</v>
+        <v>837917.2855631707</v>
       </c>
       <c r="R88" t="n">
-        <v>7446276.219145535</v>
+        <v>7446270.532679928</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10429,10 +10432,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112080995</v>
+        <v>112081044</v>
       </c>
       <c r="B89" t="n">
-        <v>90652</v>
+        <v>95539</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10441,27 +10444,23 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3100</v>
+        <v>224358</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
-        </is>
-      </c>
+          <t>Lycopodium complanatum subsp. complanatum</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
@@ -10469,10 +10468,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>837931.5671021644</v>
+        <v>837845.3110504418</v>
       </c>
       <c r="R89" t="n">
-        <v>7446336.833542572</v>
+        <v>7446348.593773925</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10523,6 +10522,7 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
+      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 32706-2023.xlsx
+++ b/artfynd/A 32706-2023.xlsx
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112081086</v>
+        <v>112080991</v>
       </c>
       <c r="B12" t="n">
-        <v>90660</v>
+        <v>56543</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4362</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>837868.6233662561</v>
+        <v>837924.4046179331</v>
       </c>
       <c r="R12" t="n">
-        <v>7446254.149947886</v>
+        <v>7446270.632447951</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112080991</v>
+        <v>112081010</v>
       </c>
       <c r="B13" t="n">
-        <v>56543</v>
+        <v>78605</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1924,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>6462</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>837924.4046179331</v>
+        <v>838039.184184861</v>
       </c>
       <c r="R13" t="n">
-        <v>7446270.632447951</v>
+        <v>7446300.04609861</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112081069</v>
+        <v>112081086</v>
       </c>
       <c r="B14" t="n">
-        <v>81248</v>
+        <v>90660</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1312</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>838124.5467092539</v>
+        <v>837868.6233662561</v>
       </c>
       <c r="R14" t="n">
-        <v>7446412.455444188</v>
+        <v>7446254.149947886</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2118,7 +2118,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2137,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112081084</v>
+        <v>112081069</v>
       </c>
       <c r="B15" t="n">
-        <v>90660</v>
+        <v>81248</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,21 +2152,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4362</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2177,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>837946.2911426609</v>
+        <v>838124.5467092539</v>
       </c>
       <c r="R15" t="n">
-        <v>7446352.133688311</v>
+        <v>7446412.455444188</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2207,7 +2206,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2217,7 +2216,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2231,6 +2230,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112081010</v>
+        <v>112081084</v>
       </c>
       <c r="B16" t="n">
-        <v>78605</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2261,25 +2261,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6462</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>838039.184184861</v>
+        <v>837946.2911426609</v>
       </c>
       <c r="R16" t="n">
-        <v>7446300.04609861</v>
+        <v>7446352.133688311</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -3370,10 +3370,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112081070</v>
+        <v>112081000</v>
       </c>
       <c r="B26" t="n">
-        <v>81248</v>
+        <v>90710</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3386,21 +3386,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1312</v>
+        <v>5449</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3410,10 +3410,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>838036.5849968333</v>
+        <v>837877.3502622857</v>
       </c>
       <c r="R26" t="n">
-        <v>7446422.016486038</v>
+        <v>7446276.219145535</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -3464,7 +3464,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3483,10 +3482,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112081057</v>
+        <v>112081070</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>81248</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3499,21 +3498,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3523,10 +3522,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>837757.300918343</v>
+        <v>838036.5849968333</v>
       </c>
       <c r="R27" t="n">
-        <v>7446355.387659943</v>
+        <v>7446422.016486038</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3553,7 +3552,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3563,7 +3562,7 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
@@ -3577,6 +3576,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3595,10 +3595,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112081000</v>
+        <v>112081057</v>
       </c>
       <c r="B28" t="n">
-        <v>90710</v>
+        <v>89423</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3611,21 +3611,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5449</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3635,10 +3635,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>837877.3502622857</v>
+        <v>837757.300918343</v>
       </c>
       <c r="R28" t="n">
-        <v>7446276.219145535</v>
+        <v>7446355.387659943</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -6173,10 +6173,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112080975</v>
+        <v>112081064</v>
       </c>
       <c r="B51" t="n">
-        <v>86223</v>
+        <v>88032</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6185,25 +6185,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4412</v>
+        <v>6276</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6213,10 +6213,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>838204.2151416114</v>
+        <v>837868.8550111951</v>
       </c>
       <c r="R51" t="n">
-        <v>7446431.145269929</v>
+        <v>7446454.836379979</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6243,7 +6243,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6267,6 +6267,7 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6285,7 +6286,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112081064</v>
+        <v>112081061</v>
       </c>
       <c r="B52" t="n">
         <v>88032</v>
@@ -6325,10 +6326,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>837868.8550111951</v>
+        <v>837896.2735834711</v>
       </c>
       <c r="R52" t="n">
-        <v>7446454.836379979</v>
+        <v>7446210.512227563</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6355,7 +6356,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
@@ -6365,7 +6366,7 @@
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
@@ -6398,10 +6399,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112081061</v>
+        <v>112081014</v>
       </c>
       <c r="B53" t="n">
-        <v>88032</v>
+        <v>56414</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6410,25 +6411,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6276</v>
+        <v>100049</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6438,10 +6439,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>837896.2735834711</v>
+        <v>838279.780710872</v>
       </c>
       <c r="R53" t="n">
-        <v>7446210.512227563</v>
+        <v>7446479.40212379</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6492,7 +6493,6 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6511,10 +6511,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112081014</v>
+        <v>112080975</v>
       </c>
       <c r="B54" t="n">
-        <v>56414</v>
+        <v>86223</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6527,21 +6527,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100049</v>
+        <v>4412</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6551,10 +6551,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>838279.780710872</v>
+        <v>838204.2151416114</v>
       </c>
       <c r="R54" t="n">
-        <v>7446479.40212379</v>
+        <v>7446431.145269929</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -8975,10 +8975,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112080999</v>
+        <v>112081026</v>
       </c>
       <c r="B76" t="n">
-        <v>90709</v>
+        <v>90678</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8987,25 +8987,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9015,10 +9015,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>837851.7494738428</v>
+        <v>837897.2437476438</v>
       </c>
       <c r="R76" t="n">
-        <v>7446306.655828147</v>
+        <v>7446288.208521556</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9087,10 +9087,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112080972</v>
+        <v>112081063</v>
       </c>
       <c r="B77" t="n">
-        <v>86223</v>
+        <v>88032</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9099,25 +9099,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4412</v>
+        <v>6276</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9127,10 +9127,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>838236.6940111651</v>
+        <v>837894.4704642664</v>
       </c>
       <c r="R77" t="n">
-        <v>7446402.76177583</v>
+        <v>7446193.267236664</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9181,6 +9181,7 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
@@ -9199,10 +9200,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112081026</v>
+        <v>112080999</v>
       </c>
       <c r="B78" t="n">
-        <v>90678</v>
+        <v>90709</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9211,25 +9212,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9239,10 +9240,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>837897.2437476438</v>
+        <v>837851.7494738428</v>
       </c>
       <c r="R78" t="n">
-        <v>7446288.208521556</v>
+        <v>7446306.655828147</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9311,7 +9312,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112080978</v>
+        <v>112080972</v>
       </c>
       <c r="B79" t="n">
         <v>86223</v>
@@ -9351,10 +9352,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>838100.4231995976</v>
+        <v>838236.6940111651</v>
       </c>
       <c r="R79" t="n">
-        <v>7446329.881175157</v>
+        <v>7446402.76177583</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9423,10 +9424,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112081063</v>
+        <v>112080978</v>
       </c>
       <c r="B80" t="n">
-        <v>88032</v>
+        <v>86223</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9435,25 +9436,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6276</v>
+        <v>4412</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9463,10 +9464,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>837894.4704642664</v>
+        <v>838100.4231995976</v>
       </c>
       <c r="R80" t="n">
-        <v>7446193.267236664</v>
+        <v>7446329.881175157</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9517,7 +9518,6 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 32706-2023.xlsx
+++ b/artfynd/A 32706-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112080973</v>
+        <v>112081088</v>
       </c>
       <c r="B2" t="n">
-        <v>86223</v>
+        <v>90660</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4412</v>
+        <v>4362</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>838235.7197854484</v>
+        <v>837862.7243175795</v>
       </c>
       <c r="R2" t="n">
-        <v>7446397.890292814</v>
+        <v>7446234.809380615</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112081003</v>
+        <v>112081049</v>
       </c>
       <c r="B3" t="n">
-        <v>90710</v>
+        <v>90658</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>837859.4066977841</v>
+        <v>837873.3564794692</v>
       </c>
       <c r="R3" t="n">
-        <v>7446270.806576692</v>
+        <v>7446194.186205429</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112081048</v>
+        <v>112081025</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>837845.8492312706</v>
+        <v>837898.0290912819</v>
       </c>
       <c r="R4" t="n">
-        <v>7446312.645483467</v>
+        <v>7446209.148823088</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -974,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112080977</v>
+        <v>112080981</v>
       </c>
       <c r="B5" t="n">
         <v>86223</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>838168.87489863</v>
+        <v>837867.6487590476</v>
       </c>
       <c r="R5" t="n">
-        <v>7446374.869614611</v>
+        <v>7446242.945851159</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112081028</v>
+        <v>112081003</v>
       </c>
       <c r="B6" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>837840.4844978931</v>
+        <v>837859.4066977841</v>
       </c>
       <c r="R6" t="n">
-        <v>7446336.51211754</v>
+        <v>7446270.806576692</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112081068</v>
+        <v>112080970</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>86223</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>4412</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>837976.7121195621</v>
+        <v>838256.3912559838</v>
       </c>
       <c r="R7" t="n">
-        <v>7446400.26994763</v>
+        <v>7446409.979874453</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112081074</v>
+        <v>112081047</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>837919.6774084561</v>
+        <v>837881.6828410937</v>
       </c>
       <c r="R8" t="n">
-        <v>7446235.606810712</v>
+        <v>7446387.183525605</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112081024</v>
+        <v>112080974</v>
       </c>
       <c r="B9" t="n">
-        <v>90678</v>
+        <v>86223</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1476,25 +1476,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>837897.2001234535</v>
+        <v>838232.8434459728</v>
       </c>
       <c r="R9" t="n">
-        <v>7446209.440837428</v>
+        <v>7446395.550894149</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112080980</v>
+        <v>112080976</v>
       </c>
       <c r="B10" t="n">
         <v>86223</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>837988.3060418679</v>
+        <v>838177.97953905</v>
       </c>
       <c r="R10" t="n">
-        <v>7446497.49711983</v>
+        <v>7446450.812485872</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112081023</v>
+        <v>112081069</v>
       </c>
       <c r="B11" t="n">
-        <v>90678</v>
+        <v>81248</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>1312</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>837916.1136804298</v>
+        <v>838124.5467092539</v>
       </c>
       <c r="R11" t="n">
-        <v>7446292.549982841</v>
+        <v>7446412.455444188</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1782,6 +1782,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1800,10 +1801,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112080991</v>
+        <v>112081001</v>
       </c>
       <c r="B12" t="n">
-        <v>56543</v>
+        <v>90710</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1817,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>5449</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1841,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>837924.4046179331</v>
+        <v>837843.5569304484</v>
       </c>
       <c r="R12" t="n">
-        <v>7446270.632447951</v>
+        <v>7446324.627656106</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1913,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112081010</v>
+        <v>112080965</v>
       </c>
       <c r="B13" t="n">
-        <v>78605</v>
+        <v>86223</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1924,25 +1925,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6462</v>
+        <v>4412</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1953,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>838039.184184861</v>
+        <v>837870.7687404454</v>
       </c>
       <c r="R13" t="n">
-        <v>7446300.04609861</v>
+        <v>7446256.001670239</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2025,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112081086</v>
+        <v>112081014</v>
       </c>
       <c r="B14" t="n">
-        <v>90660</v>
+        <v>56414</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2041,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2065,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>837868.6233662561</v>
+        <v>838279.780710872</v>
       </c>
       <c r="R14" t="n">
-        <v>7446254.149947886</v>
+        <v>7446479.40212379</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2094,7 +2095,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2104,7 +2105,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2136,10 +2137,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112081069</v>
+        <v>112081055</v>
       </c>
       <c r="B15" t="n">
-        <v>81248</v>
+        <v>89401</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2152,21 +2153,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1312</v>
+        <v>1108</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2176,10 +2177,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>838124.5467092539</v>
+        <v>837800.6454340136</v>
       </c>
       <c r="R15" t="n">
-        <v>7446412.455444188</v>
+        <v>7446411.074956991</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2206,7 +2207,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2216,7 +2217,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2230,7 +2231,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112081084</v>
+        <v>112081039</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>95538</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2261,25 +2261,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>221941</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>837946.2911426609</v>
+        <v>837881.7892231181</v>
       </c>
       <c r="R16" t="n">
-        <v>7446352.133688311</v>
+        <v>7446247.090790463</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2361,10 +2361,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112081025</v>
+        <v>112080978</v>
       </c>
       <c r="B17" t="n">
-        <v>90678</v>
+        <v>86223</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2373,25 +2373,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2401,10 +2401,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>837898.0290912819</v>
+        <v>838100.4231995976</v>
       </c>
       <c r="R17" t="n">
-        <v>7446209.148823088</v>
+        <v>7446329.881175157</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2473,10 +2473,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112081087</v>
+        <v>112081026</v>
       </c>
       <c r="B18" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2485,25 +2485,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2513,10 +2513,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>837864.7233669618</v>
+        <v>837897.2437476438</v>
       </c>
       <c r="R18" t="n">
-        <v>7446237.83015993</v>
+        <v>7446288.208521556</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2585,10 +2585,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112080985</v>
+        <v>112081000</v>
       </c>
       <c r="B19" t="n">
-        <v>89665</v>
+        <v>90710</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2601,21 +2601,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>73</v>
+        <v>5449</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2625,10 +2625,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>838200.4622103767</v>
+        <v>837877.3502622857</v>
       </c>
       <c r="R19" t="n">
-        <v>7446423.155198905</v>
+        <v>7446276.219145535</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -2697,10 +2697,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112080998</v>
+        <v>112081076</v>
       </c>
       <c r="B20" t="n">
-        <v>90709</v>
+        <v>90666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2709,25 +2709,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2737,10 +2737,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>837838.7822586626</v>
+        <v>837900.419231683</v>
       </c>
       <c r="R20" t="n">
-        <v>7446242.498689905</v>
+        <v>7446196.386764307</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112081056</v>
+        <v>112081043</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>95538</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2821,25 +2821,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>221941</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>838090.6623783482</v>
+        <v>837846.7757205146</v>
       </c>
       <c r="R21" t="n">
-        <v>7446391.983515436</v>
+        <v>7446311.574124073</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -2921,10 +2921,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112081085</v>
+        <v>112080967</v>
       </c>
       <c r="B22" t="n">
-        <v>90660</v>
+        <v>86223</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2937,21 +2937,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4362</v>
+        <v>4412</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2961,10 +2961,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>837853.3107646899</v>
+        <v>838146.4015329867</v>
       </c>
       <c r="R22" t="n">
-        <v>7446287.853762402</v>
+        <v>7446345.536183035</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3033,10 +3033,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112081012</v>
+        <v>112081004</v>
       </c>
       <c r="B23" t="n">
-        <v>78605</v>
+        <v>90710</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3045,25 +3045,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6462</v>
+        <v>5449</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>838034.1642038801</v>
+        <v>837870.3784795245</v>
       </c>
       <c r="R23" t="n">
-        <v>7446280.023652854</v>
+        <v>7446259.119117271</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3145,10 +3145,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112081091</v>
+        <v>112080995</v>
       </c>
       <c r="B24" t="n">
-        <v>90678</v>
+        <v>90652</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3157,25 +3157,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>838214.7539574907</v>
+        <v>837931.5671021644</v>
       </c>
       <c r="R24" t="n">
-        <v>7446394.471189934</v>
+        <v>7446336.833542572</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3225,7 +3225,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3239,7 +3239,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3258,10 +3257,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112080979</v>
+        <v>112081027</v>
       </c>
       <c r="B25" t="n">
-        <v>86223</v>
+        <v>90678</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3270,25 +3269,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3298,10 +3297,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>837843.2180797802</v>
+        <v>837917.2855631707</v>
       </c>
       <c r="R25" t="n">
-        <v>7446273.529509278</v>
+        <v>7446270.532679928</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3370,10 +3369,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112081000</v>
+        <v>112081077</v>
       </c>
       <c r="B26" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3382,25 +3381,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3410,10 +3409,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>837877.3502622857</v>
+        <v>837974.9592336594</v>
       </c>
       <c r="R26" t="n">
-        <v>7446276.219145535</v>
+        <v>7446376.304021777</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3482,10 +3481,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112081070</v>
+        <v>112080975</v>
       </c>
       <c r="B27" t="n">
-        <v>81248</v>
+        <v>86223</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3498,21 +3497,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1312</v>
+        <v>4412</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3522,10 +3521,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>838036.5849968333</v>
+        <v>838204.2151416114</v>
       </c>
       <c r="R27" t="n">
-        <v>7446422.016486038</v>
+        <v>7446431.145269929</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3576,7 +3575,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3595,10 +3593,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112081057</v>
+        <v>112081072</v>
       </c>
       <c r="B28" t="n">
-        <v>89423</v>
+        <v>90666</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3607,25 +3605,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>4364</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3635,10 +3633,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>837757.300918343</v>
+        <v>837934.8917845036</v>
       </c>
       <c r="R28" t="n">
-        <v>7446355.387659943</v>
+        <v>7446224.846331049</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3665,7 +3663,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3675,7 +3673,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3707,10 +3705,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112081054</v>
+        <v>112081044</v>
       </c>
       <c r="B29" t="n">
-        <v>55611</v>
+        <v>95539</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3719,27 +3717,23 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>102612</v>
+        <v>224358</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Lycopodium complanatum subsp. complanatum</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3747,10 +3741,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>837801.3791507571</v>
+        <v>837845.3110504418</v>
       </c>
       <c r="R29" t="n">
-        <v>7446348.23971172</v>
+        <v>7446348.593773925</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3801,6 +3795,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3819,10 +3814,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112080971</v>
+        <v>112081002</v>
       </c>
       <c r="B30" t="n">
-        <v>86223</v>
+        <v>90710</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3835,21 +3830,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4412</v>
+        <v>5449</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3859,10 +3854,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>838247.9486900165</v>
+        <v>837852.3844273125</v>
       </c>
       <c r="R30" t="n">
-        <v>7446445.729137186</v>
+        <v>7446285.758887676</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3889,7 +3884,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3899,7 +3894,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3931,10 +3926,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112081042</v>
+        <v>112081064</v>
       </c>
       <c r="B31" t="n">
-        <v>95538</v>
+        <v>88032</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3943,25 +3938,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221941</v>
+        <v>6276</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3971,10 +3966,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>837881.7314132825</v>
+        <v>837868.8550111951</v>
       </c>
       <c r="R31" t="n">
-        <v>7446389.959994812</v>
+        <v>7446454.836379979</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4025,6 +4020,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4043,10 +4039,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112080982</v>
+        <v>112081028</v>
       </c>
       <c r="B32" t="n">
-        <v>86223</v>
+        <v>90678</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4055,25 +4051,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4083,10 +4079,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>837795.2863449999</v>
+        <v>837840.4844978931</v>
       </c>
       <c r="R32" t="n">
-        <v>7446282.96551057</v>
+        <v>7446336.51211754</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4155,10 +4151,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112081067</v>
+        <v>112081017</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4171,21 +4167,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4195,10 +4191,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>838038.6356934095</v>
+        <v>837977.6880890885</v>
       </c>
       <c r="R33" t="n">
-        <v>7446399.318529564</v>
+        <v>7446392.476723668</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4225,7 +4221,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4235,7 +4231,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4267,10 +4263,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112081059</v>
+        <v>112081084</v>
       </c>
       <c r="B34" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4279,25 +4275,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4307,10 +4303,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>837912.8022074802</v>
+        <v>837946.2911426609</v>
       </c>
       <c r="R34" t="n">
-        <v>7446233.558645433</v>
+        <v>7446352.133688311</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4337,7 +4333,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4347,7 +4343,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4361,7 +4357,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4380,10 +4375,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112080968</v>
+        <v>112081075</v>
       </c>
       <c r="B35" t="n">
-        <v>86223</v>
+        <v>90666</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4392,25 +4387,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4412</v>
+        <v>4364</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4420,10 +4415,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>838164.2938756342</v>
+        <v>837915.628349144</v>
       </c>
       <c r="R35" t="n">
-        <v>7446360.838954043</v>
+        <v>7446261.61784647</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4492,10 +4487,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112080995</v>
+        <v>112081021</v>
       </c>
       <c r="B36" t="n">
-        <v>90652</v>
+        <v>78512</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4504,25 +4499,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3100</v>
+        <v>6456</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4532,10 +4527,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>837931.5671021644</v>
+        <v>837759.1514345235</v>
       </c>
       <c r="R36" t="n">
-        <v>7446336.833542572</v>
+        <v>7446454.559896443</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4604,10 +4599,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112081077</v>
+        <v>112081010</v>
       </c>
       <c r="B37" t="n">
-        <v>90666</v>
+        <v>78605</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4620,21 +4615,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4364</v>
+        <v>6462</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4644,10 +4639,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>837974.9592336594</v>
+        <v>838039.184184861</v>
       </c>
       <c r="R37" t="n">
-        <v>7446376.304021777</v>
+        <v>7446300.04609861</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4674,7 +4669,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -4684,7 +4679,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
@@ -4716,7 +4711,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112081088</v>
+        <v>112081083</v>
       </c>
       <c r="B38" t="n">
         <v>90660</v>
@@ -4756,10 +4751,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>837862.7243175795</v>
+        <v>837881.2065802006</v>
       </c>
       <c r="R38" t="n">
-        <v>7446234.809380615</v>
+        <v>7446204.272237497</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4786,7 +4781,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -4796,7 +4791,7 @@
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
@@ -4828,10 +4823,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112080990</v>
+        <v>112081068</v>
       </c>
       <c r="B39" t="n">
-        <v>89425</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4844,21 +4839,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5442</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4868,10 +4863,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>837870.5590133357</v>
+        <v>837976.7121195621</v>
       </c>
       <c r="R39" t="n">
-        <v>7446491.855144872</v>
+        <v>7446400.26994763</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4922,7 +4917,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -4941,10 +4935,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112081072</v>
+        <v>112080990</v>
       </c>
       <c r="B40" t="n">
-        <v>90666</v>
+        <v>89425</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4953,25 +4947,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4364</v>
+        <v>5442</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4981,10 +4975,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>837934.8917845036</v>
+        <v>837870.5590133357</v>
       </c>
       <c r="R40" t="n">
-        <v>7446224.846331049</v>
+        <v>7446491.855144872</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5011,7 +5005,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
@@ -5021,7 +5015,7 @@
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
@@ -5035,6 +5029,7 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5053,10 +5048,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112081020</v>
+        <v>112081045</v>
       </c>
       <c r="B41" t="n">
-        <v>78512</v>
+        <v>90658</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5065,25 +5060,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6456</v>
+        <v>4361</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5093,10 +5088,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>838023.1909795527</v>
+        <v>837915.7277491348</v>
       </c>
       <c r="R41" t="n">
-        <v>7446298.042985912</v>
+        <v>7446235.508097066</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5165,10 +5160,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112081001</v>
+        <v>112080980</v>
       </c>
       <c r="B42" t="n">
-        <v>90710</v>
+        <v>86223</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5181,21 +5176,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5449</v>
+        <v>4412</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5205,10 +5200,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>837843.5569304484</v>
+        <v>837988.3060418679</v>
       </c>
       <c r="R42" t="n">
-        <v>7446324.627656106</v>
+        <v>7446497.49711983</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5277,10 +5272,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112081055</v>
+        <v>112081040</v>
       </c>
       <c r="B43" t="n">
-        <v>89401</v>
+        <v>95538</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5289,25 +5284,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1108</v>
+        <v>221941</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5317,10 +5312,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>837800.6454340136</v>
+        <v>837935.4732861784</v>
       </c>
       <c r="R43" t="n">
-        <v>7446411.074956991</v>
+        <v>7446270.830977168</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5347,7 +5342,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5357,7 +5352,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5725,10 +5720,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112080976</v>
+        <v>112080985</v>
       </c>
       <c r="B47" t="n">
-        <v>86223</v>
+        <v>89665</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5741,21 +5736,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4412</v>
+        <v>73</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5765,10 +5760,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>838177.97953905</v>
+        <v>838200.4622103767</v>
       </c>
       <c r="R47" t="n">
-        <v>7446450.812485872</v>
+        <v>7446423.155198905</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5837,10 +5832,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112081046</v>
+        <v>112081067</v>
       </c>
       <c r="B48" t="n">
-        <v>90658</v>
+        <v>77515</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5853,21 +5848,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4361</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5877,10 +5872,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>837921.6254922284</v>
+        <v>838038.6356934095</v>
       </c>
       <c r="R48" t="n">
-        <v>7446267.51396696</v>
+        <v>7446399.318529564</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5907,7 +5902,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
@@ -5917,7 +5912,7 @@
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
@@ -5949,10 +5944,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112081045</v>
+        <v>112081020</v>
       </c>
       <c r="B49" t="n">
-        <v>90658</v>
+        <v>78512</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5961,25 +5956,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4361</v>
+        <v>6456</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5989,10 +5984,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>837915.7277491348</v>
+        <v>838023.1909795527</v>
       </c>
       <c r="R49" t="n">
-        <v>7446235.508097066</v>
+        <v>7446298.042985912</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6061,10 +6056,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112081015</v>
+        <v>112080977</v>
       </c>
       <c r="B50" t="n">
-        <v>56414</v>
+        <v>86223</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6077,21 +6072,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100049</v>
+        <v>4412</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6101,10 +6096,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>838266.7664618089</v>
+        <v>838168.87489863</v>
       </c>
       <c r="R50" t="n">
-        <v>7446459.961015977</v>
+        <v>7446374.869614611</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6173,10 +6168,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112081064</v>
+        <v>112081023</v>
       </c>
       <c r="B51" t="n">
-        <v>88032</v>
+        <v>90678</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6185,25 +6180,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6213,10 +6208,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>837868.8550111951</v>
+        <v>837916.1136804298</v>
       </c>
       <c r="R51" t="n">
-        <v>7446454.836379979</v>
+        <v>7446292.549982841</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6243,7 +6238,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6253,7 +6248,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6267,7 +6262,6 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6286,10 +6280,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112081061</v>
+        <v>112080973</v>
       </c>
       <c r="B52" t="n">
-        <v>88032</v>
+        <v>86223</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6298,25 +6292,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6276</v>
+        <v>4412</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6326,10 +6320,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>837896.2735834711</v>
+        <v>838235.7197854484</v>
       </c>
       <c r="R52" t="n">
-        <v>7446210.512227563</v>
+        <v>7446397.890292814</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6380,7 +6374,6 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6399,10 +6392,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112081014</v>
+        <v>112081063</v>
       </c>
       <c r="B53" t="n">
-        <v>56414</v>
+        <v>88032</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6411,25 +6404,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100049</v>
+        <v>6276</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6439,10 +6432,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>838279.780710872</v>
+        <v>837894.4704642664</v>
       </c>
       <c r="R53" t="n">
-        <v>7446479.40212379</v>
+        <v>7446193.267236664</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6493,6 +6486,7 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6511,7 +6505,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112080975</v>
+        <v>112080969</v>
       </c>
       <c r="B54" t="n">
         <v>86223</v>
@@ -6551,10 +6545,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>838204.2151416114</v>
+        <v>838167.9992682158</v>
       </c>
       <c r="R54" t="n">
-        <v>7446431.145269929</v>
+        <v>7446362.886382494</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6623,10 +6617,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112081022</v>
+        <v>112080982</v>
       </c>
       <c r="B55" t="n">
-        <v>90678</v>
+        <v>86223</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6635,25 +6629,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6663,10 +6657,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>837916.746518617</v>
+        <v>837795.2863449999</v>
       </c>
       <c r="R55" t="n">
-        <v>7446306.481645775</v>
+        <v>7446282.96551057</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6693,7 +6687,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6703,7 +6697,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6735,10 +6729,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112081019</v>
+        <v>112081057</v>
       </c>
       <c r="B56" t="n">
-        <v>78512</v>
+        <v>89423</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6747,25 +6741,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6456</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6775,10 +6769,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>838202.4607568587</v>
+        <v>837757.300918343</v>
       </c>
       <c r="R56" t="n">
-        <v>7446426.176092405</v>
+        <v>7446355.387659943</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6805,7 +6799,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
@@ -6815,7 +6809,7 @@
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr">
@@ -6847,10 +6841,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112081004</v>
+        <v>112080999</v>
       </c>
       <c r="B57" t="n">
-        <v>90710</v>
+        <v>90709</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6863,21 +6857,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5449</v>
+        <v>5448</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6887,10 +6881,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>837870.3784795245</v>
+        <v>837851.7494738428</v>
       </c>
       <c r="R57" t="n">
-        <v>7446259.119117271</v>
+        <v>7446306.655828147</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6959,10 +6953,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112081073</v>
+        <v>112081029</v>
       </c>
       <c r="B58" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6975,21 +6969,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6999,10 +6993,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>837933.8191019511</v>
+        <v>837875.2086852583</v>
       </c>
       <c r="R58" t="n">
-        <v>7446223.92043284</v>
+        <v>7446207.875133445</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7029,7 +7023,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
@@ -7039,7 +7033,7 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr">
@@ -7071,10 +7065,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112080993</v>
+        <v>112080972</v>
       </c>
       <c r="B59" t="n">
-        <v>56543</v>
+        <v>86223</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7087,21 +7081,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>103021</v>
+        <v>4412</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7111,10 +7105,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>837802.2590066136</v>
+        <v>838236.6940111651</v>
       </c>
       <c r="R59" t="n">
-        <v>7446284.233996688</v>
+        <v>7446402.76177583</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7141,7 +7135,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
@@ -7151,7 +7145,7 @@
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr">
@@ -7183,10 +7177,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112081002</v>
+        <v>112080983</v>
       </c>
       <c r="B60" t="n">
-        <v>90710</v>
+        <v>86223</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7199,21 +7193,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5449</v>
+        <v>4412</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7223,10 +7217,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>837852.3844273125</v>
+        <v>837799.961483628</v>
       </c>
       <c r="R60" t="n">
-        <v>7446285.758887676</v>
+        <v>7446445.024789493</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7295,10 +7289,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112080974</v>
+        <v>112081061</v>
       </c>
       <c r="B61" t="n">
-        <v>86223</v>
+        <v>88032</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7307,25 +7301,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4412</v>
+        <v>6276</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7335,10 +7329,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>838232.8434459728</v>
+        <v>837896.2735834711</v>
       </c>
       <c r="R61" t="n">
-        <v>7446395.550894149</v>
+        <v>7446210.512227563</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7389,6 +7383,7 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7407,10 +7402,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112081043</v>
+        <v>112081048</v>
       </c>
       <c r="B62" t="n">
-        <v>95538</v>
+        <v>90658</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7419,25 +7414,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>221941</v>
+        <v>4361</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7447,10 +7442,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>837846.7757205146</v>
+        <v>837845.8492312706</v>
       </c>
       <c r="R62" t="n">
-        <v>7446311.574124073</v>
+        <v>7446312.645483467</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7519,10 +7514,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112081047</v>
+        <v>112080979</v>
       </c>
       <c r="B63" t="n">
-        <v>90658</v>
+        <v>86223</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7535,21 +7530,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4361</v>
+        <v>4412</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7559,10 +7554,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>837881.6828410937</v>
+        <v>837843.2180797802</v>
       </c>
       <c r="R63" t="n">
-        <v>7446387.183525605</v>
+        <v>7446273.529509278</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7631,10 +7626,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112081050</v>
+        <v>112081087</v>
       </c>
       <c r="B64" t="n">
-        <v>78612</v>
+        <v>90660</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7643,25 +7638,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6464</v>
+        <v>4362</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7671,10 +7666,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>838194.5130589544</v>
+        <v>837864.7233669618</v>
       </c>
       <c r="R64" t="n">
-        <v>7446426.367444765</v>
+        <v>7446237.83015993</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7701,7 +7696,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
@@ -7711,7 +7706,7 @@
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr">
@@ -7743,10 +7738,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112081029</v>
+        <v>112081015</v>
       </c>
       <c r="B65" t="n">
-        <v>90678</v>
+        <v>56414</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7755,25 +7750,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4366</v>
+        <v>100049</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7783,10 +7778,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>837875.2086852583</v>
+        <v>838266.7664618089</v>
       </c>
       <c r="R65" t="n">
-        <v>7446207.875133445</v>
+        <v>7446459.961015977</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7813,7 +7808,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7823,7 +7818,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7855,10 +7850,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112081041</v>
+        <v>112081046</v>
       </c>
       <c r="B66" t="n">
-        <v>95538</v>
+        <v>90658</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7867,25 +7862,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>221941</v>
+        <v>4361</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7895,10 +7890,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>837955.4588081369</v>
+        <v>837921.6254922284</v>
       </c>
       <c r="R66" t="n">
-        <v>7446342.199877275</v>
+        <v>7446267.51396696</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7967,10 +7962,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112080984</v>
+        <v>112081070</v>
       </c>
       <c r="B67" t="n">
-        <v>78107</v>
+        <v>81248</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7983,21 +7978,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6453</v>
+        <v>1312</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8007,10 +8002,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>838020.7521848839</v>
+        <v>838036.5849968333</v>
       </c>
       <c r="R67" t="n">
-        <v>7446304.861716139</v>
+        <v>7446422.016486038</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8061,6 +8056,7 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -8079,10 +8075,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112080981</v>
+        <v>112081073</v>
       </c>
       <c r="B68" t="n">
-        <v>86223</v>
+        <v>90666</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8091,25 +8087,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4412</v>
+        <v>4364</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8119,10 +8115,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>837867.6487590476</v>
+        <v>837933.8191019511</v>
       </c>
       <c r="R68" t="n">
-        <v>7446242.945851159</v>
+        <v>7446223.92043284</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8149,7 +8145,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8159,7 +8155,7 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
@@ -8191,10 +8187,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112081021</v>
+        <v>112080966</v>
       </c>
       <c r="B69" t="n">
-        <v>78512</v>
+        <v>86223</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8203,25 +8199,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6456</v>
+        <v>4412</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8231,10 +8227,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>837759.1514345235</v>
+        <v>838113.4904383065</v>
       </c>
       <c r="R69" t="n">
-        <v>7446454.559896443</v>
+        <v>7446333.101353128</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8261,7 +8257,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -8271,7 +8267,7 @@
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr">
@@ -8303,10 +8299,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112080965</v>
+        <v>112081019</v>
       </c>
       <c r="B70" t="n">
-        <v>86223</v>
+        <v>78512</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8315,25 +8311,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4412</v>
+        <v>6456</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8343,10 +8339,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>837870.7687404454</v>
+        <v>838202.4607568587</v>
       </c>
       <c r="R70" t="n">
-        <v>7446256.001670239</v>
+        <v>7446426.176092405</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8415,10 +8411,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112081039</v>
+        <v>112080991</v>
       </c>
       <c r="B71" t="n">
-        <v>95538</v>
+        <v>56543</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8427,25 +8423,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>221941</v>
+        <v>103021</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8455,10 +8451,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>837881.7892231181</v>
+        <v>837924.4046179331</v>
       </c>
       <c r="R71" t="n">
-        <v>7446247.090790463</v>
+        <v>7446270.632447951</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8485,7 +8481,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
@@ -8495,7 +8491,7 @@
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr">
@@ -8527,10 +8523,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112081040</v>
+        <v>112080971</v>
       </c>
       <c r="B72" t="n">
-        <v>95538</v>
+        <v>86223</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8539,25 +8535,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>221941</v>
+        <v>4412</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8567,10 +8563,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>837935.4732861784</v>
+        <v>838247.9486900165</v>
       </c>
       <c r="R72" t="n">
-        <v>7446270.830977168</v>
+        <v>7446445.729137186</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8639,10 +8635,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112080983</v>
+        <v>112081054</v>
       </c>
       <c r="B73" t="n">
-        <v>86223</v>
+        <v>55611</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8655,21 +8651,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4412</v>
+        <v>102612</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8679,10 +8675,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>837799.961483628</v>
+        <v>837801.3791507571</v>
       </c>
       <c r="R73" t="n">
-        <v>7446445.024789493</v>
+        <v>7446348.23971172</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8751,10 +8747,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112081049</v>
+        <v>112080984</v>
       </c>
       <c r="B74" t="n">
-        <v>90658</v>
+        <v>78107</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8767,21 +8763,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8791,10 +8787,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>837873.3564794692</v>
+        <v>838020.7521848839</v>
       </c>
       <c r="R74" t="n">
-        <v>7446194.186205429</v>
+        <v>7446304.861716139</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8821,7 +8817,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -8831,7 +8827,7 @@
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr">
@@ -8863,7 +8859,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112081075</v>
+        <v>112081074</v>
       </c>
       <c r="B75" t="n">
         <v>90666</v>
@@ -8903,10 +8899,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>837915.628349144</v>
+        <v>837919.6774084561</v>
       </c>
       <c r="R75" t="n">
-        <v>7446261.61784647</v>
+        <v>7446235.606810712</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8975,10 +8971,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112081026</v>
+        <v>112081012</v>
       </c>
       <c r="B76" t="n">
-        <v>90678</v>
+        <v>78605</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8991,21 +8987,21 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4366</v>
+        <v>6462</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9015,10 +9011,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>837897.2437476438</v>
+        <v>838034.1642038801</v>
       </c>
       <c r="R76" t="n">
-        <v>7446288.208521556</v>
+        <v>7446280.023652854</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9045,7 +9041,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
@@ -9055,7 +9051,7 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
@@ -9087,10 +9083,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112081063</v>
+        <v>112081050</v>
       </c>
       <c r="B77" t="n">
-        <v>88032</v>
+        <v>78612</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9099,25 +9095,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6276</v>
+        <v>6464</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9127,10 +9123,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>837894.4704642664</v>
+        <v>838194.5130589544</v>
       </c>
       <c r="R77" t="n">
-        <v>7446193.267236664</v>
+        <v>7446426.367444765</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9181,7 +9177,6 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
       </c>
@@ -9200,10 +9195,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112080999</v>
+        <v>112081056</v>
       </c>
       <c r="B78" t="n">
-        <v>90709</v>
+        <v>89423</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9216,21 +9211,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5448</v>
+        <v>5432</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9240,10 +9235,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>837851.7494738428</v>
+        <v>838090.6623783482</v>
       </c>
       <c r="R78" t="n">
-        <v>7446306.655828147</v>
+        <v>7446391.983515436</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9270,7 +9265,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9280,7 +9275,7 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
@@ -9312,10 +9307,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112080972</v>
+        <v>112080998</v>
       </c>
       <c r="B79" t="n">
-        <v>86223</v>
+        <v>90709</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9328,21 +9323,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4412</v>
+        <v>5448</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9352,10 +9347,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>838236.6940111651</v>
+        <v>837838.7822586626</v>
       </c>
       <c r="R79" t="n">
-        <v>7446402.76177583</v>
+        <v>7446242.498689905</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9424,10 +9419,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112080978</v>
+        <v>112081091</v>
       </c>
       <c r="B80" t="n">
-        <v>86223</v>
+        <v>90678</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9436,25 +9431,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9464,10 +9459,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>838100.4231995976</v>
+        <v>838214.7539574907</v>
       </c>
       <c r="R80" t="n">
-        <v>7446329.881175157</v>
+        <v>7446394.471189934</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9518,6 +9513,7 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9536,7 +9532,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112080970</v>
+        <v>112080968</v>
       </c>
       <c r="B81" t="n">
         <v>86223</v>
@@ -9576,10 +9572,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>838256.3912559838</v>
+        <v>838164.2938756342</v>
       </c>
       <c r="R81" t="n">
-        <v>7446409.979874453</v>
+        <v>7446360.838954043</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9648,10 +9644,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112081076</v>
+        <v>112081041</v>
       </c>
       <c r="B82" t="n">
-        <v>90666</v>
+        <v>95538</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9664,21 +9660,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4364</v>
+        <v>221941</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9688,10 +9684,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>837900.419231683</v>
+        <v>837955.4588081369</v>
       </c>
       <c r="R82" t="n">
-        <v>7446196.386764307</v>
+        <v>7446342.199877275</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9718,7 +9714,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
@@ -9728,7 +9724,7 @@
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr">
@@ -9760,10 +9756,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112081083</v>
+        <v>112080993</v>
       </c>
       <c r="B83" t="n">
-        <v>90660</v>
+        <v>56543</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9776,21 +9772,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4362</v>
+        <v>103021</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9800,10 +9796,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>837881.2065802006</v>
+        <v>837802.2590066136</v>
       </c>
       <c r="R83" t="n">
-        <v>7446204.272237497</v>
+        <v>7446284.233996688</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9830,7 +9826,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -9840,7 +9836,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -9872,10 +9868,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112081017</v>
+        <v>112081085</v>
       </c>
       <c r="B84" t="n">
-        <v>56414</v>
+        <v>90660</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9888,21 +9884,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>100049</v>
+        <v>4362</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9912,10 +9908,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>837977.6880890885</v>
+        <v>837853.3107646899</v>
       </c>
       <c r="R84" t="n">
-        <v>7446392.476723668</v>
+        <v>7446287.853762402</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9984,10 +9980,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112080966</v>
+        <v>112081042</v>
       </c>
       <c r="B85" t="n">
-        <v>86223</v>
+        <v>95538</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9996,25 +9992,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4412</v>
+        <v>221941</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10024,10 +10020,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>838113.4904383065</v>
+        <v>837881.7314132825</v>
       </c>
       <c r="R85" t="n">
-        <v>7446333.101353128</v>
+        <v>7446389.959994812</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10054,7 +10050,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
@@ -10064,7 +10060,7 @@
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr">
@@ -10096,10 +10092,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112080969</v>
+        <v>112081059</v>
       </c>
       <c r="B86" t="n">
-        <v>86223</v>
+        <v>88032</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10108,25 +10104,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4412</v>
+        <v>6276</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10136,10 +10132,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>838167.9992682158</v>
+        <v>837912.8022074802</v>
       </c>
       <c r="R86" t="n">
-        <v>7446362.886382494</v>
+        <v>7446233.558645433</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10190,6 +10186,7 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
+      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
       </c>
@@ -10208,10 +10205,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112080967</v>
+        <v>112081024</v>
       </c>
       <c r="B87" t="n">
-        <v>86223</v>
+        <v>90678</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10220,25 +10217,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10248,10 +10245,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>838146.4015329867</v>
+        <v>837897.2001234535</v>
       </c>
       <c r="R87" t="n">
-        <v>7446345.536183035</v>
+        <v>7446209.440837428</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10320,10 +10317,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112081027</v>
+        <v>112081086</v>
       </c>
       <c r="B88" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10332,25 +10329,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10360,10 +10357,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>837917.2855631707</v>
+        <v>837868.6233662561</v>
       </c>
       <c r="R88" t="n">
-        <v>7446270.532679928</v>
+        <v>7446254.149947886</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10432,10 +10429,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112081044</v>
+        <v>112081022</v>
       </c>
       <c r="B89" t="n">
-        <v>95539</v>
+        <v>90678</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10448,19 +10445,23 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>224358</v>
+        <v>4366</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr"/>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
@@ -10468,10 +10469,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>837845.3110504418</v>
+        <v>837916.746518617</v>
       </c>
       <c r="R89" t="n">
-        <v>7446348.593773925</v>
+        <v>7446306.481645775</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10498,7 +10499,7 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
@@ -10508,7 +10509,7 @@
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr">
@@ -10522,7 +10523,6 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
-      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 32706-2023.xlsx
+++ b/artfynd/A 32706-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112081088</v>
+        <v>112080981</v>
       </c>
       <c r="B2" t="n">
-        <v>90660</v>
+        <v>86223</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4362</v>
+        <v>4412</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>837862.7243175795</v>
+        <v>837868</v>
       </c>
       <c r="R2" t="n">
-        <v>7446234.809380615</v>
+        <v>7446243</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +753,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112081049</v>
+        <v>112081063</v>
       </c>
       <c r="B3" t="n">
-        <v>90658</v>
+        <v>88032</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>837873.3564794692</v>
+        <v>837894</v>
       </c>
       <c r="R3" t="n">
-        <v>7446194.186205429</v>
+        <v>7446193</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,22 +852,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -886,6 +866,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -904,10 +885,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112081025</v>
+        <v>112080973</v>
       </c>
       <c r="B4" t="n">
-        <v>90678</v>
+        <v>86223</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +897,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +925,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>837898.0290912819</v>
+        <v>838236</v>
       </c>
       <c r="R4" t="n">
-        <v>7446209.148823088</v>
+        <v>7446398</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -977,19 +958,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +987,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112080981</v>
+        <v>112081043</v>
       </c>
       <c r="B5" t="n">
-        <v>86223</v>
+        <v>95538</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +999,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4412</v>
+        <v>221941</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1027,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>837867.6487590476</v>
+        <v>837847</v>
       </c>
       <c r="R5" t="n">
-        <v>7446242.945851159</v>
+        <v>7446312</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1089,19 +1060,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1089,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112081003</v>
+        <v>112081089</v>
       </c>
       <c r="B6" t="n">
-        <v>90710</v>
+        <v>90660</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1105,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1129,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>837859.4066977841</v>
+        <v>837863</v>
       </c>
       <c r="R6" t="n">
-        <v>7446270.806576692</v>
+        <v>7446235</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1201,19 +1162,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1240,10 +1191,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112080970</v>
+        <v>112081029</v>
       </c>
       <c r="B7" t="n">
-        <v>86223</v>
+        <v>90678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1203,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1231,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>838256.3912559838</v>
+        <v>837875</v>
       </c>
       <c r="R7" t="n">
-        <v>7446409.979874453</v>
+        <v>7446208</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1310,22 +1261,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1352,10 +1293,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112081047</v>
+        <v>112081011</v>
       </c>
       <c r="B8" t="n">
-        <v>90658</v>
+        <v>78605</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1305,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1333,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>837881.6828410937</v>
+        <v>838034</v>
       </c>
       <c r="R8" t="n">
-        <v>7446387.183525605</v>
+        <v>7446280</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1422,22 +1363,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,7 +1395,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112080974</v>
+        <v>112080983</v>
       </c>
       <c r="B9" t="n">
         <v>86223</v>
@@ -1504,10 +1435,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>838232.8434459728</v>
+        <v>837800</v>
       </c>
       <c r="R9" t="n">
-        <v>7446395.550894149</v>
+        <v>7446445</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1534,22 +1465,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1576,10 +1497,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112080976</v>
+        <v>112081046</v>
       </c>
       <c r="B10" t="n">
-        <v>86223</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,21 +1513,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4412</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1537,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>838177.97953905</v>
+        <v>837922</v>
       </c>
       <c r="R10" t="n">
-        <v>7446450.812485872</v>
+        <v>7446268</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1646,22 +1567,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1688,10 +1599,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112081069</v>
+        <v>112080998</v>
       </c>
       <c r="B11" t="n">
-        <v>81248</v>
+        <v>90709</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1704,21 +1615,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>5448</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1639,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>838124.5467092539</v>
+        <v>837839</v>
       </c>
       <c r="R11" t="n">
-        <v>7446412.455444188</v>
+        <v>7446242</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1761,28 +1672,17 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1801,10 +1701,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112081001</v>
+        <v>112081021</v>
       </c>
       <c r="B12" t="n">
-        <v>90710</v>
+        <v>78512</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1813,25 +1713,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5449</v>
+        <v>6456</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1841,10 +1741,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>837843.5569304484</v>
+        <v>837759</v>
       </c>
       <c r="R12" t="n">
-        <v>7446324.627656106</v>
+        <v>7446455</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1874,19 +1774,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1913,10 +1803,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112080965</v>
+        <v>112081050</v>
       </c>
       <c r="B13" t="n">
-        <v>86223</v>
+        <v>78612</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1925,25 +1815,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4412</v>
+        <v>6464</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1953,10 +1843,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>837870.7687404454</v>
+        <v>838195</v>
       </c>
       <c r="R13" t="n">
-        <v>7446256.001670239</v>
+        <v>7446426</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1986,19 +1876,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2025,10 +1905,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112081014</v>
+        <v>112081028</v>
       </c>
       <c r="B14" t="n">
-        <v>56414</v>
+        <v>90678</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2037,25 +1917,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2065,10 +1945,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>838279.780710872</v>
+        <v>837840</v>
       </c>
       <c r="R14" t="n">
-        <v>7446479.40212379</v>
+        <v>7446337</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2095,22 +1975,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2137,10 +2007,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112081055</v>
+        <v>112080972</v>
       </c>
       <c r="B15" t="n">
-        <v>89401</v>
+        <v>86223</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2153,21 +2023,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1108</v>
+        <v>4412</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2177,10 +2047,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>837800.6454340136</v>
+        <v>838237</v>
       </c>
       <c r="R15" t="n">
-        <v>7446411.074956991</v>
+        <v>7446403</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2207,22 +2077,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2249,10 +2109,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112081039</v>
+        <v>112081015</v>
       </c>
       <c r="B16" t="n">
-        <v>95538</v>
+        <v>56414</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2261,25 +2121,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221941</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2289,10 +2149,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>837881.7892231181</v>
+        <v>838267</v>
       </c>
       <c r="R16" t="n">
-        <v>7446247.090790463</v>
+        <v>7446460</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2322,19 +2182,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2361,10 +2211,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112080978</v>
+        <v>112080999</v>
       </c>
       <c r="B17" t="n">
-        <v>86223</v>
+        <v>90709</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2377,21 +2227,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4412</v>
+        <v>5448</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2401,10 +2251,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>838100.4231995976</v>
+        <v>837852</v>
       </c>
       <c r="R17" t="n">
-        <v>7446329.881175157</v>
+        <v>7446307</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2431,22 +2281,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2473,7 +2313,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112081026</v>
+        <v>112081091</v>
       </c>
       <c r="B18" t="n">
         <v>90678</v>
@@ -2513,10 +2353,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>837897.2437476438</v>
+        <v>838215</v>
       </c>
       <c r="R18" t="n">
-        <v>7446288.208521556</v>
+        <v>7446394</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2543,22 +2383,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2567,6 +2397,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2585,10 +2416,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112081000</v>
+        <v>112081087</v>
       </c>
       <c r="B19" t="n">
-        <v>90710</v>
+        <v>90660</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2601,21 +2432,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2625,10 +2456,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>837877.3502622857</v>
+        <v>837865</v>
       </c>
       <c r="R19" t="n">
-        <v>7446276.219145535</v>
+        <v>7446238</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2658,19 +2489,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2697,10 +2518,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112081076</v>
+        <v>112080969</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>86223</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2709,25 +2530,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>4412</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2737,10 +2558,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>837900.419231683</v>
+        <v>838168</v>
       </c>
       <c r="R20" t="n">
-        <v>7446196.386764307</v>
+        <v>7446363</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2770,19 +2591,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2809,10 +2620,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112081043</v>
+        <v>112080976</v>
       </c>
       <c r="B21" t="n">
-        <v>95538</v>
+        <v>86223</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2821,25 +2632,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221941</v>
+        <v>4412</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2849,10 +2660,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>837846.7757205146</v>
+        <v>838178</v>
       </c>
       <c r="R21" t="n">
-        <v>7446311.574124073</v>
+        <v>7446451</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2879,22 +2690,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2921,7 +2722,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112080967</v>
+        <v>112080974</v>
       </c>
       <c r="B22" t="n">
         <v>86223</v>
@@ -2961,10 +2762,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>838146.4015329867</v>
+        <v>838233</v>
       </c>
       <c r="R22" t="n">
-        <v>7446345.536183035</v>
+        <v>7446396</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2994,19 +2795,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3033,10 +2824,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112081004</v>
+        <v>112081073</v>
       </c>
       <c r="B23" t="n">
-        <v>90710</v>
+        <v>90666</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3045,25 +2836,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3073,10 +2864,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>837870.3784795245</v>
+        <v>837934</v>
       </c>
       <c r="R23" t="n">
-        <v>7446259.119117271</v>
+        <v>7446224</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3103,22 +2894,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3145,10 +2926,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112080995</v>
+        <v>112081056</v>
       </c>
       <c r="B24" t="n">
-        <v>90652</v>
+        <v>89423</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3161,21 +2942,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3100</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3185,10 +2966,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>837931.5671021644</v>
+        <v>838091</v>
       </c>
       <c r="R24" t="n">
-        <v>7446336.833542572</v>
+        <v>7446392</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3215,22 +2996,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3257,10 +3028,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112081027</v>
+        <v>112080965</v>
       </c>
       <c r="B25" t="n">
-        <v>90678</v>
+        <v>86223</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3269,25 +3040,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3297,10 +3068,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>837917.2855631707</v>
+        <v>837871</v>
       </c>
       <c r="R25" t="n">
-        <v>7446270.532679928</v>
+        <v>7446256</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3327,22 +3098,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3369,10 +3130,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112081077</v>
+        <v>112081085</v>
       </c>
       <c r="B26" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3381,25 +3142,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3409,10 +3170,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>837974.9592336594</v>
+        <v>837853</v>
       </c>
       <c r="R26" t="n">
-        <v>7446376.304021777</v>
+        <v>7446288</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3442,19 +3203,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3481,10 +3232,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112080975</v>
+        <v>112081048</v>
       </c>
       <c r="B27" t="n">
-        <v>86223</v>
+        <v>90658</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3497,21 +3248,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4412</v>
+        <v>4361</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3521,10 +3272,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>838204.2151416114</v>
+        <v>837846</v>
       </c>
       <c r="R27" t="n">
-        <v>7446431.145269929</v>
+        <v>7446313</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3551,22 +3302,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3593,10 +3334,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112081072</v>
+        <v>112080984</v>
       </c>
       <c r="B28" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3605,25 +3346,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3633,10 +3374,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>837934.8917845036</v>
+        <v>838021</v>
       </c>
       <c r="R28" t="n">
-        <v>7446224.846331049</v>
+        <v>7446305</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3666,19 +3407,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3705,10 +3436,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112081044</v>
+        <v>112080966</v>
       </c>
       <c r="B29" t="n">
-        <v>95539</v>
+        <v>86223</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3717,23 +3448,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>224358</v>
+        <v>4412</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3741,10 +3476,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>837845.3110504418</v>
+        <v>838113</v>
       </c>
       <c r="R29" t="n">
-        <v>7446348.593773925</v>
+        <v>7446333</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3771,22 +3506,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3795,7 +3520,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3814,10 +3538,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112081002</v>
+        <v>112080977</v>
       </c>
       <c r="B30" t="n">
-        <v>90710</v>
+        <v>86223</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3830,21 +3554,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5449</v>
+        <v>4412</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3854,10 +3578,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>837852.3844273125</v>
+        <v>838169</v>
       </c>
       <c r="R30" t="n">
-        <v>7446285.758887676</v>
+        <v>7446375</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3884,22 +3608,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3926,10 +3640,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112081064</v>
+        <v>112081071</v>
       </c>
       <c r="B31" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3938,25 +3652,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3966,10 +3680,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>837868.8550111951</v>
+        <v>837916</v>
       </c>
       <c r="R31" t="n">
-        <v>7446454.836379979</v>
+        <v>7446236</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3996,22 +3710,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4020,7 +3724,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4039,10 +3742,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112081028</v>
+        <v>112081075</v>
       </c>
       <c r="B32" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4055,21 +3758,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4079,10 +3782,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>837840.4844978931</v>
+        <v>837916</v>
       </c>
       <c r="R32" t="n">
-        <v>7446336.51211754</v>
+        <v>7446262</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4109,22 +3812,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4151,10 +3844,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112081017</v>
+        <v>112081010</v>
       </c>
       <c r="B33" t="n">
-        <v>56414</v>
+        <v>78605</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4163,25 +3856,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100049</v>
+        <v>6462</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4191,10 +3884,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>837977.6880890885</v>
+        <v>838039</v>
       </c>
       <c r="R33" t="n">
-        <v>7446392.476723668</v>
+        <v>7446300</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4221,22 +3914,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4263,10 +3946,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112081084</v>
+        <v>112081045</v>
       </c>
       <c r="B34" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4279,21 +3962,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4303,10 +3986,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>837946.2911426609</v>
+        <v>837916</v>
       </c>
       <c r="R34" t="n">
-        <v>7446352.133688311</v>
+        <v>7446236</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4333,22 +4016,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4375,10 +4048,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112081075</v>
+        <v>112081083</v>
       </c>
       <c r="B35" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4387,25 +4060,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4415,10 +4088,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>837915.628349144</v>
+        <v>837881</v>
       </c>
       <c r="R35" t="n">
-        <v>7446261.61784647</v>
+        <v>7446204</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4448,19 +4121,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4487,10 +4150,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112081021</v>
+        <v>112081076</v>
       </c>
       <c r="B36" t="n">
-        <v>78512</v>
+        <v>90666</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4503,21 +4166,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6456</v>
+        <v>4364</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4527,10 +4190,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>837759.1514345235</v>
+        <v>837900</v>
       </c>
       <c r="R36" t="n">
-        <v>7446454.559896443</v>
+        <v>7446196</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4557,22 +4220,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4599,10 +4252,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112081010</v>
+        <v>112081000</v>
       </c>
       <c r="B37" t="n">
-        <v>78605</v>
+        <v>90710</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4611,25 +4264,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6462</v>
+        <v>5449</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4639,10 +4292,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>838039.184184861</v>
+        <v>837877</v>
       </c>
       <c r="R37" t="n">
-        <v>7446300.04609861</v>
+        <v>7446276</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4669,22 +4322,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4711,10 +4354,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112081083</v>
+        <v>112081067</v>
       </c>
       <c r="B38" t="n">
-        <v>90660</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4727,21 +4370,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4362</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4751,10 +4394,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>837881.2065802006</v>
+        <v>838039</v>
       </c>
       <c r="R38" t="n">
-        <v>7446204.272237497</v>
+        <v>7446399</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4784,19 +4427,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4823,10 +4456,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112081068</v>
+        <v>112081025</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>90678</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4835,25 +4468,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>4366</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4863,10 +4496,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>837976.7121195621</v>
+        <v>837898</v>
       </c>
       <c r="R39" t="n">
-        <v>7446400.26994763</v>
+        <v>7446209</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4893,22 +4526,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4935,10 +4558,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112080990</v>
+        <v>112081026</v>
       </c>
       <c r="B40" t="n">
-        <v>89425</v>
+        <v>90678</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4947,25 +4570,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5442</v>
+        <v>4366</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4975,10 +4598,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>837870.5590133357</v>
+        <v>837897</v>
       </c>
       <c r="R40" t="n">
-        <v>7446491.855144872</v>
+        <v>7446288</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5008,28 +4631,17 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD40" t="b">
         <v>0</v>
       </c>
       <c r="AE40" t="b">
         <v>0</v>
       </c>
-      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
       </c>
@@ -5048,10 +4660,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112081045</v>
+        <v>112080993</v>
       </c>
       <c r="B41" t="n">
-        <v>90658</v>
+        <v>56543</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5064,21 +4676,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4361</v>
+        <v>103021</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5088,10 +4700,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>837915.7277491348</v>
+        <v>837802</v>
       </c>
       <c r="R41" t="n">
-        <v>7446235.508097066</v>
+        <v>7446284</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5118,22 +4730,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5160,10 +4762,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112080980</v>
+        <v>112081039</v>
       </c>
       <c r="B42" t="n">
-        <v>86223</v>
+        <v>95538</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5172,25 +4774,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4412</v>
+        <v>221941</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5200,10 +4802,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>837988.3060418679</v>
+        <v>837882</v>
       </c>
       <c r="R42" t="n">
-        <v>7446497.49711983</v>
+        <v>7446247</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5230,22 +4832,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5272,10 +4864,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112081040</v>
+        <v>112081002</v>
       </c>
       <c r="B43" t="n">
-        <v>95538</v>
+        <v>90710</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5284,25 +4876,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>221941</v>
+        <v>5449</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5312,10 +4904,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>837935.4732861784</v>
+        <v>837852</v>
       </c>
       <c r="R43" t="n">
-        <v>7446270.830977168</v>
+        <v>7446286</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5342,22 +4934,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5384,10 +4966,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112081078</v>
+        <v>112081040</v>
       </c>
       <c r="B44" t="n">
-        <v>78611</v>
+        <v>95538</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5400,21 +4982,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6463</v>
+        <v>221941</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5424,10 +5006,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>838039.184184861</v>
+        <v>837935</v>
       </c>
       <c r="R44" t="n">
-        <v>7446300.04609861</v>
+        <v>7446271</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5457,19 +5039,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5496,10 +5068,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112081071</v>
+        <v>112081069</v>
       </c>
       <c r="B45" t="n">
-        <v>90666</v>
+        <v>81248</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5508,25 +5080,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4364</v>
+        <v>1312</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5536,10 +5108,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>837915.7277491348</v>
+        <v>838125</v>
       </c>
       <c r="R45" t="n">
-        <v>7446235.508097066</v>
+        <v>7446412</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5569,27 +5141,18 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5608,10 +5171,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112080994</v>
+        <v>112081023</v>
       </c>
       <c r="B46" t="n">
-        <v>56543</v>
+        <v>90678</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5620,25 +5183,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>103021</v>
+        <v>4366</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5648,10 +5211,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>837770.7573541414</v>
+        <v>837916</v>
       </c>
       <c r="R46" t="n">
-        <v>7446393.482346883</v>
+        <v>7446293</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5678,22 +5241,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5720,10 +5273,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112080985</v>
+        <v>112080968</v>
       </c>
       <c r="B47" t="n">
-        <v>89665</v>
+        <v>86223</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5736,21 +5289,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>73</v>
+        <v>4412</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5760,10 +5313,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>838200.4622103767</v>
+        <v>838164</v>
       </c>
       <c r="R47" t="n">
-        <v>7446423.155198905</v>
+        <v>7446361</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5793,19 +5346,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5832,10 +5375,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112081067</v>
+        <v>112080970</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>86223</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5848,21 +5391,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>4412</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5872,10 +5415,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>838038.6356934095</v>
+        <v>838256</v>
       </c>
       <c r="R48" t="n">
-        <v>7446399.318529564</v>
+        <v>7446410</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5905,19 +5448,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5944,10 +5477,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112081020</v>
+        <v>112080978</v>
       </c>
       <c r="B49" t="n">
-        <v>78512</v>
+        <v>86223</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5956,25 +5489,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6456</v>
+        <v>4412</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5984,10 +5517,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>838023.1909795527</v>
+        <v>838100</v>
       </c>
       <c r="R49" t="n">
-        <v>7446298.042985912</v>
+        <v>7446330</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6017,19 +5550,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6056,7 +5579,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112080977</v>
+        <v>112080975</v>
       </c>
       <c r="B50" t="n">
         <v>86223</v>
@@ -6096,10 +5619,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>838168.87489863</v>
+        <v>838204</v>
       </c>
       <c r="R50" t="n">
-        <v>7446374.869614611</v>
+        <v>7446431</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6129,19 +5652,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6168,10 +5681,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112081023</v>
+        <v>112081072</v>
       </c>
       <c r="B51" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6184,21 +5697,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6208,10 +5721,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>837916.1136804298</v>
+        <v>837935</v>
       </c>
       <c r="R51" t="n">
-        <v>7446292.549982841</v>
+        <v>7446225</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6241,19 +5754,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6280,10 +5783,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112080973</v>
+        <v>112081078</v>
       </c>
       <c r="B52" t="n">
-        <v>86223</v>
+        <v>78611</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6292,25 +5795,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4412</v>
+        <v>6463</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6320,10 +5823,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>838235.7197854484</v>
+        <v>838039</v>
       </c>
       <c r="R52" t="n">
-        <v>7446397.890292814</v>
+        <v>7446300</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6353,19 +5856,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6392,10 +5885,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112081063</v>
+        <v>112081084</v>
       </c>
       <c r="B53" t="n">
-        <v>88032</v>
+        <v>90660</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6404,25 +5897,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6432,10 +5925,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>837894.4704642664</v>
+        <v>837946</v>
       </c>
       <c r="R53" t="n">
-        <v>7446193.267236664</v>
+        <v>7446352</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6462,22 +5955,12 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6486,7 +5969,6 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6505,10 +5987,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112080969</v>
+        <v>112081059</v>
       </c>
       <c r="B54" t="n">
-        <v>86223</v>
+        <v>88032</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6517,25 +5999,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4412</v>
+        <v>6276</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6545,10 +6027,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>838167.9992682158</v>
+        <v>837913</v>
       </c>
       <c r="R54" t="n">
-        <v>7446362.886382494</v>
+        <v>7446234</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6578,27 +6060,18 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6617,10 +6090,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112080982</v>
+        <v>112081068</v>
       </c>
       <c r="B55" t="n">
-        <v>86223</v>
+        <v>77515</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6633,21 +6106,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4412</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6657,10 +6130,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>837795.2863449999</v>
+        <v>837977</v>
       </c>
       <c r="R55" t="n">
-        <v>7446282.96551057</v>
+        <v>7446400</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6690,19 +6163,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6729,10 +6192,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112081057</v>
+        <v>112081074</v>
       </c>
       <c r="B56" t="n">
-        <v>89423</v>
+        <v>90666</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6741,25 +6204,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5432</v>
+        <v>4364</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6769,10 +6232,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>837757.300918343</v>
+        <v>837920</v>
       </c>
       <c r="R56" t="n">
-        <v>7446355.387659943</v>
+        <v>7446236</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6799,22 +6262,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6841,10 +6294,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112080999</v>
+        <v>112081047</v>
       </c>
       <c r="B57" t="n">
-        <v>90709</v>
+        <v>90658</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6857,21 +6310,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5448</v>
+        <v>4361</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6881,10 +6334,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>837851.7494738428</v>
+        <v>837882</v>
       </c>
       <c r="R57" t="n">
-        <v>7446306.655828147</v>
+        <v>7446387</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6914,19 +6367,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6953,10 +6396,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112081029</v>
+        <v>112081014</v>
       </c>
       <c r="B58" t="n">
-        <v>90678</v>
+        <v>56414</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6965,25 +6408,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4366</v>
+        <v>100049</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6993,10 +6436,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>837875.2086852583</v>
+        <v>838280</v>
       </c>
       <c r="R58" t="n">
-        <v>7446207.875133445</v>
+        <v>7446479</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7023,22 +6466,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7065,10 +6498,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112080972</v>
+        <v>112081024</v>
       </c>
       <c r="B59" t="n">
-        <v>86223</v>
+        <v>90678</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7077,25 +6510,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7105,10 +6538,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>838236.6940111651</v>
+        <v>837897</v>
       </c>
       <c r="R59" t="n">
-        <v>7446402.76177583</v>
+        <v>7446209</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7138,19 +6571,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7177,10 +6600,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112080983</v>
+        <v>112080991</v>
       </c>
       <c r="B60" t="n">
-        <v>86223</v>
+        <v>56543</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7193,21 +6616,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4412</v>
+        <v>103021</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7217,10 +6640,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>837799.961483628</v>
+        <v>837924</v>
       </c>
       <c r="R60" t="n">
-        <v>7446445.024789493</v>
+        <v>7446271</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7250,19 +6673,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7289,10 +6702,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112081061</v>
+        <v>112081017</v>
       </c>
       <c r="B61" t="n">
-        <v>88032</v>
+        <v>56414</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7301,25 +6714,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6276</v>
+        <v>100049</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7329,10 +6742,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>837896.2735834711</v>
+        <v>837978</v>
       </c>
       <c r="R61" t="n">
-        <v>7446210.512227563</v>
+        <v>7446392</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7359,22 +6772,12 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7383,7 +6786,6 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7402,10 +6804,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112081048</v>
+        <v>112081042</v>
       </c>
       <c r="B62" t="n">
-        <v>90658</v>
+        <v>95538</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7414,25 +6816,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4361</v>
+        <v>221941</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7442,10 +6844,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>837845.8492312706</v>
+        <v>837882</v>
       </c>
       <c r="R62" t="n">
-        <v>7446312.645483467</v>
+        <v>7446390</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7475,19 +6877,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7514,7 +6906,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112080979</v>
+        <v>112080980</v>
       </c>
       <c r="B63" t="n">
         <v>86223</v>
@@ -7554,10 +6946,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>837843.2180797802</v>
+        <v>837988</v>
       </c>
       <c r="R63" t="n">
-        <v>7446273.529509278</v>
+        <v>7446497</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7587,19 +6979,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7626,10 +7008,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112081087</v>
+        <v>112081077</v>
       </c>
       <c r="B64" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7638,25 +7020,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7666,10 +7048,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>837864.7233669618</v>
+        <v>837975</v>
       </c>
       <c r="R64" t="n">
-        <v>7446237.83015993</v>
+        <v>7446376</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7699,19 +7081,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7738,10 +7110,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112081015</v>
+        <v>112081003</v>
       </c>
       <c r="B65" t="n">
-        <v>56414</v>
+        <v>90710</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7754,21 +7126,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100049</v>
+        <v>5449</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7778,10 +7150,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>838266.7664618089</v>
+        <v>837859</v>
       </c>
       <c r="R65" t="n">
-        <v>7446459.961015977</v>
+        <v>7446271</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7808,22 +7180,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7850,10 +7212,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112081046</v>
+        <v>112080985</v>
       </c>
       <c r="B66" t="n">
-        <v>90658</v>
+        <v>89665</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7866,21 +7228,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4361</v>
+        <v>73</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7890,10 +7252,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>837921.6254922284</v>
+        <v>838200</v>
       </c>
       <c r="R66" t="n">
-        <v>7446267.51396696</v>
+        <v>7446423</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7920,22 +7282,12 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7962,10 +7314,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112081070</v>
+        <v>112081044</v>
       </c>
       <c r="B67" t="n">
-        <v>81248</v>
+        <v>95539</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7974,27 +7326,23 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1312</v>
+        <v>224358</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>(Nyl.) Rehm</t>
-        </is>
-      </c>
+          <t>Lycopodium complanatum subsp. complanatum</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -8002,10 +7350,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>838036.5849968333</v>
+        <v>837845</v>
       </c>
       <c r="R67" t="n">
-        <v>7446422.016486038</v>
+        <v>7446349</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8032,22 +7380,12 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8075,10 +7413,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112081073</v>
+        <v>112081019</v>
       </c>
       <c r="B68" t="n">
-        <v>90666</v>
+        <v>78512</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8091,21 +7429,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4364</v>
+        <v>6456</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8115,10 +7453,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>837933.8191019511</v>
+        <v>838202</v>
       </c>
       <c r="R68" t="n">
-        <v>7446223.92043284</v>
+        <v>7446426</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8148,19 +7486,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8187,10 +7515,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112080966</v>
+        <v>112081055</v>
       </c>
       <c r="B69" t="n">
-        <v>86223</v>
+        <v>89401</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8203,21 +7531,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4412</v>
+        <v>1108</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8227,10 +7555,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>838113.4904383065</v>
+        <v>837801</v>
       </c>
       <c r="R69" t="n">
-        <v>7446333.101353128</v>
+        <v>7446411</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8257,22 +7585,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8299,10 +7617,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112081019</v>
+        <v>112081041</v>
       </c>
       <c r="B70" t="n">
-        <v>78512</v>
+        <v>95538</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8315,21 +7633,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6456</v>
+        <v>221941</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8339,10 +7657,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>838202.4607568587</v>
+        <v>837955</v>
       </c>
       <c r="R70" t="n">
-        <v>7446426.176092405</v>
+        <v>7446342</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8369,22 +7687,12 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8411,10 +7719,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112080991</v>
+        <v>112080982</v>
       </c>
       <c r="B71" t="n">
-        <v>56543</v>
+        <v>86223</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8427,21 +7735,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>103021</v>
+        <v>4412</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8451,10 +7759,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>837924.4046179331</v>
+        <v>837795</v>
       </c>
       <c r="R71" t="n">
-        <v>7446270.632447951</v>
+        <v>7446283</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8484,19 +7792,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8523,10 +7821,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112080971</v>
+        <v>112081086</v>
       </c>
       <c r="B72" t="n">
-        <v>86223</v>
+        <v>90660</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8539,21 +7837,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4412</v>
+        <v>4362</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8563,10 +7861,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>838247.9486900165</v>
+        <v>837869</v>
       </c>
       <c r="R72" t="n">
-        <v>7446445.729137186</v>
+        <v>7446254</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8593,22 +7891,12 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8635,10 +7923,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112081054</v>
+        <v>112081070</v>
       </c>
       <c r="B73" t="n">
-        <v>55611</v>
+        <v>81248</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8651,21 +7939,21 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>102612</v>
+        <v>1312</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8675,10 +7963,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>837801.3791507571</v>
+        <v>838037</v>
       </c>
       <c r="R73" t="n">
-        <v>7446348.23971172</v>
+        <v>7446422</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8705,22 +7993,12 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8729,6 +8007,7 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
+      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -8747,10 +8026,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112080984</v>
+        <v>112080994</v>
       </c>
       <c r="B74" t="n">
-        <v>78107</v>
+        <v>56543</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8763,21 +8042,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6453</v>
+        <v>103021</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8787,10 +8066,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>838020.7521848839</v>
+        <v>837771</v>
       </c>
       <c r="R74" t="n">
-        <v>7446304.861716139</v>
+        <v>7446393</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8817,22 +8096,12 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8859,10 +8128,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112081074</v>
+        <v>112080995</v>
       </c>
       <c r="B75" t="n">
-        <v>90666</v>
+        <v>90652</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8871,25 +8140,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8899,10 +8168,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>837919.6774084561</v>
+        <v>837932</v>
       </c>
       <c r="R75" t="n">
-        <v>7446235.606810712</v>
+        <v>7446337</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8929,22 +8198,12 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8971,10 +8230,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112081012</v>
+        <v>112081061</v>
       </c>
       <c r="B76" t="n">
-        <v>78605</v>
+        <v>88032</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8983,25 +8242,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6462</v>
+        <v>6276</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9011,10 +8270,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>838034.1642038801</v>
+        <v>837896</v>
       </c>
       <c r="R76" t="n">
-        <v>7446280.023652854</v>
+        <v>7446211</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9044,27 +8303,18 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA76" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD76" t="b">
         <v>0</v>
       </c>
       <c r="AE76" t="b">
         <v>0</v>
       </c>
+      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
@@ -9083,10 +8333,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112081050</v>
+        <v>112080979</v>
       </c>
       <c r="B77" t="n">
-        <v>78612</v>
+        <v>86223</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9095,25 +8345,25 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6464</v>
+        <v>4412</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9123,10 +8373,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>838194.5130589544</v>
+        <v>837843</v>
       </c>
       <c r="R77" t="n">
-        <v>7446426.367444765</v>
+        <v>7446274</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9153,22 +8403,12 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9195,10 +8435,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112081056</v>
+        <v>112081022</v>
       </c>
       <c r="B78" t="n">
-        <v>89423</v>
+        <v>90678</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9207,25 +8447,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5432</v>
+        <v>4366</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9235,10 +8475,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>838090.6623783482</v>
+        <v>837917</v>
       </c>
       <c r="R78" t="n">
-        <v>7446391.983515436</v>
+        <v>7446306</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9268,19 +8508,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA78" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9307,10 +8537,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112080998</v>
+        <v>112080990</v>
       </c>
       <c r="B79" t="n">
-        <v>90709</v>
+        <v>89425</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9323,21 +8553,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5448</v>
+        <v>5442</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9347,10 +8577,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>837838.7822586626</v>
+        <v>837871</v>
       </c>
       <c r="R79" t="n">
-        <v>7446242.498689905</v>
+        <v>7446492</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9377,22 +8607,12 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9401,6 +8621,7 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
+      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
@@ -9419,10 +8640,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112081091</v>
+        <v>112081001</v>
       </c>
       <c r="B80" t="n">
-        <v>90678</v>
+        <v>90710</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9431,25 +8652,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4366</v>
+        <v>5449</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9459,10 +8680,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>838214.7539574907</v>
+        <v>837844</v>
       </c>
       <c r="R80" t="n">
-        <v>7446394.471189934</v>
+        <v>7446325</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9489,22 +8710,12 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9513,7 +8724,6 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9532,10 +8742,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112080968</v>
+        <v>112081057</v>
       </c>
       <c r="B81" t="n">
-        <v>86223</v>
+        <v>89423</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9548,21 +8758,21 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4412</v>
+        <v>5432</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9572,10 +8782,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>838164.2938756342</v>
+        <v>837757</v>
       </c>
       <c r="R81" t="n">
-        <v>7446360.838954043</v>
+        <v>7446355</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9602,22 +8812,12 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9644,10 +8844,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112081041</v>
+        <v>112081049</v>
       </c>
       <c r="B82" t="n">
-        <v>95538</v>
+        <v>90658</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9656,25 +8856,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>221941</v>
+        <v>4361</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9684,10 +8884,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>837955.4588081369</v>
+        <v>837873</v>
       </c>
       <c r="R82" t="n">
-        <v>7446342.199877275</v>
+        <v>7446194</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9717,19 +8917,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA82" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9756,10 +8946,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112080993</v>
+        <v>112081054</v>
       </c>
       <c r="B83" t="n">
-        <v>56543</v>
+        <v>55611</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9772,21 +8962,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>103021</v>
+        <v>102612</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9796,10 +8986,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>837802.2590066136</v>
+        <v>837801</v>
       </c>
       <c r="R83" t="n">
-        <v>7446284.233996688</v>
+        <v>7446348</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9829,19 +9019,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA83" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB83" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9868,10 +9048,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112081085</v>
+        <v>112081020</v>
       </c>
       <c r="B84" t="n">
-        <v>90660</v>
+        <v>78512</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9880,25 +9060,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4362</v>
+        <v>6456</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9908,10 +9088,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>837853.3107646899</v>
+        <v>838023</v>
       </c>
       <c r="R84" t="n">
-        <v>7446287.853762402</v>
+        <v>7446298</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9938,22 +9118,12 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB84" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9980,10 +9150,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112081042</v>
+        <v>112081027</v>
       </c>
       <c r="B85" t="n">
-        <v>95538</v>
+        <v>90678</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9996,21 +9166,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>221941</v>
+        <v>4366</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10020,10 +9190,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>837881.7314132825</v>
+        <v>837917</v>
       </c>
       <c r="R85" t="n">
-        <v>7446389.959994812</v>
+        <v>7446271</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10053,19 +9223,9 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA85" t="inlineStr">
         <is>
           <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB85" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10092,10 +9252,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112081059</v>
+        <v>112081004</v>
       </c>
       <c r="B86" t="n">
-        <v>88032</v>
+        <v>90710</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10104,25 +9264,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6276</v>
+        <v>5449</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10132,10 +9292,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>837912.8022074802</v>
+        <v>837870</v>
       </c>
       <c r="R86" t="n">
-        <v>7446233.558645433</v>
+        <v>7446259</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10162,22 +9322,12 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB86" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10186,7 +9336,6 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
-      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
       </c>
@@ -10205,10 +9354,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112081024</v>
+        <v>112081064</v>
       </c>
       <c r="B87" t="n">
-        <v>90678</v>
+        <v>88032</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10217,25 +9366,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10245,10 +9394,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>837897.2001234535</v>
+        <v>837869</v>
       </c>
       <c r="R87" t="n">
-        <v>7446209.440837428</v>
+        <v>7446455</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10275,22 +9424,12 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10299,6 +9438,7 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
+      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -10317,10 +9457,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112081086</v>
+        <v>112080967</v>
       </c>
       <c r="B88" t="n">
-        <v>90660</v>
+        <v>86223</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10333,21 +9473,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4362</v>
+        <v>4412</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10357,10 +9497,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>837868.6233662561</v>
+        <v>838146</v>
       </c>
       <c r="R88" t="n">
-        <v>7446254.149947886</v>
+        <v>7446346</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10387,22 +9527,12 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="AB88" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10429,10 +9559,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112081022</v>
+        <v>112080971</v>
       </c>
       <c r="B89" t="n">
-        <v>90678</v>
+        <v>86223</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10441,25 +9571,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10469,10 +9599,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>837916.746518617</v>
+        <v>838248</v>
       </c>
       <c r="R89" t="n">
-        <v>7446306.481645775</v>
+        <v>7446446</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10502,19 +9632,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA89" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB89" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD89" t="b">

--- a/artfynd/A 32706-2023.xlsx
+++ b/artfynd/A 32706-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112080981</v>
+        <v>112080999</v>
       </c>
       <c r="B2" t="n">
-        <v>86223</v>
+        <v>90843</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4412</v>
+        <v>5448</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>837868</v>
+        <v>837852</v>
       </c>
       <c r="R2" t="n">
-        <v>7446243</v>
+        <v>7446307</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112081063</v>
+        <v>112080984</v>
       </c>
       <c r="B3" t="n">
-        <v>88032</v>
+        <v>78228</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6276</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>837894</v>
+        <v>838021</v>
       </c>
       <c r="R3" t="n">
-        <v>7446193</v>
+        <v>7446305</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -866,7 +866,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -885,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112080973</v>
+        <v>112080981</v>
       </c>
       <c r="B4" t="n">
-        <v>86223</v>
+        <v>86357</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>838236</v>
+        <v>837868</v>
       </c>
       <c r="R4" t="n">
-        <v>7446398</v>
+        <v>7446243</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -955,12 +954,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -987,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112081043</v>
+        <v>112081084</v>
       </c>
       <c r="B5" t="n">
-        <v>95538</v>
+        <v>90794</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -999,25 +998,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221941</v>
+        <v>4362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1027,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>837847</v>
+        <v>837946</v>
       </c>
       <c r="R5" t="n">
-        <v>7446312</v>
+        <v>7446352</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1089,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112081089</v>
+        <v>112080971</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>86357</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1105,21 +1104,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>4412</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1129,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>837863</v>
+        <v>838248</v>
       </c>
       <c r="R6" t="n">
-        <v>7446235</v>
+        <v>7446446</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1159,12 +1158,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1191,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112081029</v>
+        <v>112081073</v>
       </c>
       <c r="B7" t="n">
-        <v>90678</v>
+        <v>90800</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1207,21 +1206,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1231,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>837875</v>
+        <v>837934</v>
       </c>
       <c r="R7" t="n">
-        <v>7446208</v>
+        <v>7446224</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1261,12 +1260,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1293,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112081011</v>
+        <v>112080968</v>
       </c>
       <c r="B8" t="n">
-        <v>78605</v>
+        <v>86357</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1305,25 +1304,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6462</v>
+        <v>4412</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1333,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>838034</v>
+        <v>838164</v>
       </c>
       <c r="R8" t="n">
-        <v>7446280</v>
+        <v>7446361</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1395,10 +1394,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112080983</v>
+        <v>112081048</v>
       </c>
       <c r="B9" t="n">
-        <v>86223</v>
+        <v>90792</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1411,21 +1410,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4412</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1435,10 +1434,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>837800</v>
+        <v>837846</v>
       </c>
       <c r="R9" t="n">
-        <v>7446445</v>
+        <v>7446313</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1497,10 +1496,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112081046</v>
+        <v>112081078</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>78732</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1509,25 +1508,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>6463</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1537,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>837922</v>
+        <v>838039</v>
       </c>
       <c r="R10" t="n">
-        <v>7446268</v>
+        <v>7446300</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1567,12 +1566,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1599,10 +1598,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112080998</v>
+        <v>112081075</v>
       </c>
       <c r="B11" t="n">
-        <v>90709</v>
+        <v>90800</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1611,25 +1610,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5448</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1639,10 +1638,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>837839</v>
+        <v>837916</v>
       </c>
       <c r="R11" t="n">
-        <v>7446242</v>
+        <v>7446262</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1701,10 +1700,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112081021</v>
+        <v>112081023</v>
       </c>
       <c r="B12" t="n">
-        <v>78512</v>
+        <v>90812</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1717,21 +1716,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6456</v>
+        <v>4366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1741,10 +1740,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>837759</v>
+        <v>837916</v>
       </c>
       <c r="R12" t="n">
-        <v>7446455</v>
+        <v>7446293</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1771,12 +1770,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1803,10 +1802,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112081050</v>
+        <v>112081026</v>
       </c>
       <c r="B13" t="n">
-        <v>78612</v>
+        <v>90812</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1819,21 +1818,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6464</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1843,10 +1842,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>838195</v>
+        <v>837897</v>
       </c>
       <c r="R13" t="n">
-        <v>7446426</v>
+        <v>7446288</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1873,12 +1872,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1905,10 +1904,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112081028</v>
+        <v>112081010</v>
       </c>
       <c r="B14" t="n">
-        <v>90678</v>
+        <v>78726</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1921,21 +1920,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>6462</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1945,10 +1944,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>837840</v>
+        <v>838039</v>
       </c>
       <c r="R14" t="n">
-        <v>7446337</v>
+        <v>7446300</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1975,12 +1974,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2007,10 +2006,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112080972</v>
+        <v>112081069</v>
       </c>
       <c r="B15" t="n">
-        <v>86223</v>
+        <v>81371</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2023,21 +2022,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4412</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2047,10 +2046,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>838237</v>
+        <v>838125</v>
       </c>
       <c r="R15" t="n">
-        <v>7446403</v>
+        <v>7446412</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2091,6 +2090,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2109,10 +2109,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112081015</v>
+        <v>112081056</v>
       </c>
       <c r="B16" t="n">
-        <v>56414</v>
+        <v>89557</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2125,21 +2125,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2149,10 +2149,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>838267</v>
+        <v>838091</v>
       </c>
       <c r="R16" t="n">
-        <v>7446460</v>
+        <v>7446392</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2211,10 +2211,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112080999</v>
+        <v>112081063</v>
       </c>
       <c r="B17" t="n">
-        <v>90709</v>
+        <v>88166</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2223,25 +2223,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5448</v>
+        <v>6276</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2251,10 +2251,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>837852</v>
+        <v>837894</v>
       </c>
       <c r="R17" t="n">
-        <v>7446307</v>
+        <v>7446193</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2295,6 +2295,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2313,10 +2314,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112081091</v>
+        <v>112080976</v>
       </c>
       <c r="B18" t="n">
-        <v>90678</v>
+        <v>86357</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2325,25 +2326,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2353,10 +2354,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>838215</v>
+        <v>838178</v>
       </c>
       <c r="R18" t="n">
-        <v>7446394</v>
+        <v>7446451</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2397,7 +2398,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2416,10 +2416,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112081087</v>
+        <v>112081004</v>
       </c>
       <c r="B19" t="n">
-        <v>90660</v>
+        <v>90844</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2432,21 +2432,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>5449</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2456,10 +2456,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>837865</v>
+        <v>837870</v>
       </c>
       <c r="R19" t="n">
-        <v>7446238</v>
+        <v>7446259</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2518,10 +2518,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112080969</v>
+        <v>112081022</v>
       </c>
       <c r="B20" t="n">
-        <v>86223</v>
+        <v>90812</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2530,25 +2530,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2558,10 +2558,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>838168</v>
+        <v>837917</v>
       </c>
       <c r="R20" t="n">
-        <v>7446363</v>
+        <v>7446306</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2620,10 +2620,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112080976</v>
+        <v>112080975</v>
       </c>
       <c r="B21" t="n">
-        <v>86223</v>
+        <v>86357</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2660,10 +2660,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>838178</v>
+        <v>838204</v>
       </c>
       <c r="R21" t="n">
-        <v>7446451</v>
+        <v>7446431</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112080974</v>
+        <v>112081040</v>
       </c>
       <c r="B22" t="n">
-        <v>86223</v>
+        <v>95693</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2734,25 +2734,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4412</v>
+        <v>221941</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>838233</v>
+        <v>837935</v>
       </c>
       <c r="R22" t="n">
-        <v>7446396</v>
+        <v>7446271</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2824,10 +2824,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112081073</v>
+        <v>112080982</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>86357</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2836,25 +2836,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>4412</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2864,10 +2864,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>837934</v>
+        <v>837795</v>
       </c>
       <c r="R23" t="n">
-        <v>7446224</v>
+        <v>7446283</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2894,12 +2894,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2926,10 +2926,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112081056</v>
+        <v>112081050</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>78733</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2938,25 +2938,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>6464</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>838091</v>
+        <v>838195</v>
       </c>
       <c r="R24" t="n">
-        <v>7446392</v>
+        <v>7446426</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112080965</v>
+        <v>112081091</v>
       </c>
       <c r="B25" t="n">
-        <v>86223</v>
+        <v>90812</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3040,25 +3040,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3068,10 +3068,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>837871</v>
+        <v>838215</v>
       </c>
       <c r="R25" t="n">
-        <v>7446256</v>
+        <v>7446394</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3112,6 +3112,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3130,10 +3131,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112081085</v>
+        <v>112081071</v>
       </c>
       <c r="B26" t="n">
-        <v>90660</v>
+        <v>90800</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3142,25 +3143,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3170,10 +3171,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>837853</v>
+        <v>837916</v>
       </c>
       <c r="R26" t="n">
-        <v>7446288</v>
+        <v>7446236</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3200,12 +3201,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3232,10 +3233,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112081048</v>
+        <v>112081059</v>
       </c>
       <c r="B27" t="n">
-        <v>90658</v>
+        <v>88166</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3244,25 +3245,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3272,10 +3273,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>837846</v>
+        <v>837913</v>
       </c>
       <c r="R27" t="n">
-        <v>7446313</v>
+        <v>7446234</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3302,12 +3303,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3316,6 +3317,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3334,10 +3336,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112080984</v>
+        <v>112080978</v>
       </c>
       <c r="B28" t="n">
-        <v>78107</v>
+        <v>86357</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3350,21 +3352,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6453</v>
+        <v>4412</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3374,10 +3376,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>838021</v>
+        <v>838100</v>
       </c>
       <c r="R28" t="n">
-        <v>7446305</v>
+        <v>7446330</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3436,10 +3438,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112080966</v>
+        <v>112081086</v>
       </c>
       <c r="B29" t="n">
-        <v>86223</v>
+        <v>90794</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3452,21 +3454,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4412</v>
+        <v>4362</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3476,10 +3478,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>838113</v>
+        <v>837869</v>
       </c>
       <c r="R29" t="n">
-        <v>7446333</v>
+        <v>7446254</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3506,12 +3508,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3538,10 +3540,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112080977</v>
+        <v>112081003</v>
       </c>
       <c r="B30" t="n">
-        <v>86223</v>
+        <v>90844</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3554,21 +3556,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4412</v>
+        <v>5449</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3578,10 +3580,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>838169</v>
+        <v>837859</v>
       </c>
       <c r="R30" t="n">
-        <v>7446375</v>
+        <v>7446271</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3608,12 +3610,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3640,10 +3642,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112081071</v>
+        <v>112081054</v>
       </c>
       <c r="B31" t="n">
-        <v>90666</v>
+        <v>55643</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3652,25 +3654,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4364</v>
+        <v>102612</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3680,10 +3682,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>837916</v>
+        <v>837801</v>
       </c>
       <c r="R31" t="n">
-        <v>7446236</v>
+        <v>7446348</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3710,12 +3712,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3742,10 +3744,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112081075</v>
+        <v>112081083</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>90794</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3754,25 +3756,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3782,10 +3784,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>837916</v>
+        <v>837881</v>
       </c>
       <c r="R32" t="n">
-        <v>7446262</v>
+        <v>7446204</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3844,10 +3846,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112081010</v>
+        <v>112081024</v>
       </c>
       <c r="B33" t="n">
-        <v>78605</v>
+        <v>90812</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3860,21 +3862,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6462</v>
+        <v>4366</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3884,10 +3886,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>838039</v>
+        <v>837897</v>
       </c>
       <c r="R33" t="n">
-        <v>7446300</v>
+        <v>7446209</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3946,10 +3948,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112081045</v>
+        <v>112080995</v>
       </c>
       <c r="B34" t="n">
-        <v>90658</v>
+        <v>90786</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3962,21 +3964,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3986,10 +3988,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>837916</v>
+        <v>837932</v>
       </c>
       <c r="R34" t="n">
-        <v>7446236</v>
+        <v>7446337</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4016,12 +4018,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4048,10 +4050,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112081083</v>
+        <v>112081057</v>
       </c>
       <c r="B35" t="n">
-        <v>90660</v>
+        <v>89557</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4064,21 +4066,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4362</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4088,10 +4090,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>837881</v>
+        <v>837757</v>
       </c>
       <c r="R35" t="n">
-        <v>7446204</v>
+        <v>7446355</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4118,12 +4120,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4150,10 +4152,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112081076</v>
+        <v>112080979</v>
       </c>
       <c r="B36" t="n">
-        <v>90666</v>
+        <v>86357</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4162,25 +4164,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4364</v>
+        <v>4412</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4190,10 +4192,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>837900</v>
+        <v>837843</v>
       </c>
       <c r="R36" t="n">
-        <v>7446196</v>
+        <v>7446274</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4220,12 +4222,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4252,10 +4254,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112081000</v>
+        <v>112080985</v>
       </c>
       <c r="B37" t="n">
-        <v>90710</v>
+        <v>89799</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4268,21 +4270,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5449</v>
+        <v>73</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4292,10 +4294,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>837877</v>
+        <v>838200</v>
       </c>
       <c r="R37" t="n">
-        <v>7446276</v>
+        <v>7446423</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4322,12 +4324,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4354,10 +4356,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112081067</v>
+        <v>112081089</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>90794</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4370,21 +4372,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4394,10 +4396,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>838039</v>
+        <v>837863</v>
       </c>
       <c r="R38" t="n">
-        <v>7446399</v>
+        <v>7446235</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4424,12 +4426,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4459,7 +4461,7 @@
         <v>112081025</v>
       </c>
       <c r="B39" t="n">
-        <v>90678</v>
+        <v>90812</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4558,10 +4560,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112081026</v>
+        <v>112081014</v>
       </c>
       <c r="B40" t="n">
-        <v>90678</v>
+        <v>56446</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4570,25 +4572,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4366</v>
+        <v>100049</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4598,10 +4600,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>837897</v>
+        <v>838280</v>
       </c>
       <c r="R40" t="n">
-        <v>7446288</v>
+        <v>7446479</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4628,12 +4630,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4660,10 +4662,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112080993</v>
+        <v>112080998</v>
       </c>
       <c r="B41" t="n">
-        <v>56543</v>
+        <v>90843</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4676,21 +4678,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>103021</v>
+        <v>5448</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4700,10 +4702,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>837802</v>
+        <v>837839</v>
       </c>
       <c r="R41" t="n">
-        <v>7446284</v>
+        <v>7446242</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4730,12 +4732,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4762,10 +4764,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112081039</v>
+        <v>112081021</v>
       </c>
       <c r="B42" t="n">
-        <v>95538</v>
+        <v>78633</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4778,21 +4780,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>221941</v>
+        <v>6456</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4802,10 +4804,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>837882</v>
+        <v>837759</v>
       </c>
       <c r="R42" t="n">
-        <v>7446247</v>
+        <v>7446455</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4832,12 +4834,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -4864,10 +4866,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112081002</v>
+        <v>112080972</v>
       </c>
       <c r="B43" t="n">
-        <v>90710</v>
+        <v>86357</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -4880,21 +4882,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5449</v>
+        <v>4412</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4904,10 +4906,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>837852</v>
+        <v>838237</v>
       </c>
       <c r="R43" t="n">
-        <v>7446286</v>
+        <v>7446403</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4934,12 +4936,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -4966,10 +4968,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112081040</v>
+        <v>112080969</v>
       </c>
       <c r="B44" t="n">
-        <v>95538</v>
+        <v>86357</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -4978,25 +4980,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>221941</v>
+        <v>4412</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5006,10 +5008,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>837935</v>
+        <v>838168</v>
       </c>
       <c r="R44" t="n">
-        <v>7446271</v>
+        <v>7446363</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5068,10 +5070,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112081069</v>
+        <v>112081070</v>
       </c>
       <c r="B45" t="n">
-        <v>81248</v>
+        <v>81371</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5108,10 +5110,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>838125</v>
+        <v>838037</v>
       </c>
       <c r="R45" t="n">
-        <v>7446412</v>
+        <v>7446422</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5171,10 +5173,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112081023</v>
+        <v>112080991</v>
       </c>
       <c r="B46" t="n">
-        <v>90678</v>
+        <v>56575</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5183,25 +5185,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4366</v>
+        <v>103021</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5211,10 +5213,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>837916</v>
+        <v>837924</v>
       </c>
       <c r="R46" t="n">
-        <v>7446293</v>
+        <v>7446271</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5241,12 +5243,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5273,10 +5275,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112080968</v>
+        <v>112080990</v>
       </c>
       <c r="B47" t="n">
-        <v>86223</v>
+        <v>89559</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5289,21 +5291,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4412</v>
+        <v>5442</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5313,10 +5315,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>838164</v>
+        <v>837871</v>
       </c>
       <c r="R47" t="n">
-        <v>7446361</v>
+        <v>7446492</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5343,12 +5345,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5357,6 +5359,7 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -5375,10 +5378,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112080970</v>
+        <v>112080974</v>
       </c>
       <c r="B48" t="n">
-        <v>86223</v>
+        <v>86357</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5415,10 +5418,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>838256</v>
+        <v>838233</v>
       </c>
       <c r="R48" t="n">
-        <v>7446410</v>
+        <v>7446396</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5477,10 +5480,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112080978</v>
+        <v>112080973</v>
       </c>
       <c r="B49" t="n">
-        <v>86223</v>
+        <v>86357</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5517,10 +5520,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>838100</v>
+        <v>838236</v>
       </c>
       <c r="R49" t="n">
-        <v>7446330</v>
+        <v>7446398</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5579,10 +5582,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112080975</v>
+        <v>112081019</v>
       </c>
       <c r="B50" t="n">
-        <v>86223</v>
+        <v>78633</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5591,25 +5594,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4412</v>
+        <v>6456</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5619,10 +5622,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>838204</v>
+        <v>838202</v>
       </c>
       <c r="R50" t="n">
-        <v>7446431</v>
+        <v>7446426</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5681,10 +5684,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112081072</v>
+        <v>112081047</v>
       </c>
       <c r="B51" t="n">
-        <v>90666</v>
+        <v>90792</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5693,25 +5696,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5721,10 +5724,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>837935</v>
+        <v>837882</v>
       </c>
       <c r="R51" t="n">
-        <v>7446225</v>
+        <v>7446387</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5751,12 +5754,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5783,10 +5786,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112081078</v>
+        <v>112081061</v>
       </c>
       <c r="B52" t="n">
-        <v>78611</v>
+        <v>88166</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5795,25 +5798,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6463</v>
+        <v>6276</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5823,10 +5826,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>838039</v>
+        <v>837896</v>
       </c>
       <c r="R52" t="n">
-        <v>7446300</v>
+        <v>7446211</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5867,6 +5870,7 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -5885,10 +5889,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112081084</v>
+        <v>112081068</v>
       </c>
       <c r="B53" t="n">
-        <v>90660</v>
+        <v>77636</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -5901,21 +5905,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4362</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -5925,10 +5929,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>837946</v>
+        <v>837977</v>
       </c>
       <c r="R53" t="n">
-        <v>7446352</v>
+        <v>7446400</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5987,10 +5991,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112081059</v>
+        <v>112080970</v>
       </c>
       <c r="B54" t="n">
-        <v>88032</v>
+        <v>86357</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -5999,25 +6003,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6276</v>
+        <v>4412</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6027,10 +6031,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>837913</v>
+        <v>838256</v>
       </c>
       <c r="R54" t="n">
-        <v>7446234</v>
+        <v>7446410</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6071,7 +6075,6 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6090,10 +6093,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112081068</v>
+        <v>112080965</v>
       </c>
       <c r="B55" t="n">
-        <v>77515</v>
+        <v>86357</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6106,21 +6109,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>4412</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6130,10 +6133,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>837977</v>
+        <v>837871</v>
       </c>
       <c r="R55" t="n">
-        <v>7446400</v>
+        <v>7446256</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6160,12 +6163,12 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6192,10 +6195,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112081074</v>
+        <v>112081002</v>
       </c>
       <c r="B56" t="n">
-        <v>90666</v>
+        <v>90844</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6204,25 +6207,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6232,10 +6235,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>837920</v>
+        <v>837852</v>
       </c>
       <c r="R56" t="n">
-        <v>7446236</v>
+        <v>7446286</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6262,12 +6265,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6294,10 +6297,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112081047</v>
+        <v>112080977</v>
       </c>
       <c r="B57" t="n">
-        <v>90658</v>
+        <v>86357</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6310,21 +6313,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4361</v>
+        <v>4412</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6334,10 +6337,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>837882</v>
+        <v>838169</v>
       </c>
       <c r="R57" t="n">
-        <v>7446387</v>
+        <v>7446375</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6364,12 +6367,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6396,10 +6399,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112081014</v>
+        <v>112081042</v>
       </c>
       <c r="B58" t="n">
-        <v>56414</v>
+        <v>95693</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6408,25 +6411,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100049</v>
+        <v>221941</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6436,10 +6439,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>838280</v>
+        <v>837882</v>
       </c>
       <c r="R58" t="n">
-        <v>7446479</v>
+        <v>7446390</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6466,12 +6469,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6498,10 +6501,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112081024</v>
+        <v>112080966</v>
       </c>
       <c r="B59" t="n">
-        <v>90678</v>
+        <v>86357</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6510,25 +6513,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6538,10 +6541,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>837897</v>
+        <v>838113</v>
       </c>
       <c r="R59" t="n">
-        <v>7446209</v>
+        <v>7446333</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6600,10 +6603,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112080991</v>
+        <v>112081028</v>
       </c>
       <c r="B60" t="n">
-        <v>56543</v>
+        <v>90812</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6612,25 +6615,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>103021</v>
+        <v>4366</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6640,10 +6643,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>837924</v>
+        <v>837840</v>
       </c>
       <c r="R60" t="n">
-        <v>7446271</v>
+        <v>7446337</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6702,10 +6705,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112081017</v>
+        <v>112081012</v>
       </c>
       <c r="B61" t="n">
-        <v>56414</v>
+        <v>78726</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -6714,25 +6717,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100049</v>
+        <v>6462</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6742,10 +6745,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>837978</v>
+        <v>838034</v>
       </c>
       <c r="R61" t="n">
-        <v>7446392</v>
+        <v>7446280</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6772,12 +6775,12 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -6804,10 +6807,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112081042</v>
+        <v>112081043</v>
       </c>
       <c r="B62" t="n">
-        <v>95538</v>
+        <v>95693</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -6844,10 +6847,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>837882</v>
+        <v>837847</v>
       </c>
       <c r="R62" t="n">
-        <v>7446390</v>
+        <v>7446312</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6906,10 +6909,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112080980</v>
+        <v>112081045</v>
       </c>
       <c r="B63" t="n">
-        <v>86223</v>
+        <v>90792</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -6922,21 +6925,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4412</v>
+        <v>4361</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -6946,10 +6949,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>837988</v>
+        <v>837916</v>
       </c>
       <c r="R63" t="n">
-        <v>7446497</v>
+        <v>7446236</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6976,12 +6979,12 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7008,10 +7011,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112081077</v>
+        <v>112080967</v>
       </c>
       <c r="B64" t="n">
-        <v>90666</v>
+        <v>86357</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7020,25 +7023,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4364</v>
+        <v>4412</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7048,10 +7051,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>837975</v>
+        <v>838146</v>
       </c>
       <c r="R64" t="n">
-        <v>7446376</v>
+        <v>7446346</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7078,12 +7081,12 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7110,10 +7113,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112081003</v>
+        <v>112081076</v>
       </c>
       <c r="B65" t="n">
-        <v>90710</v>
+        <v>90800</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7122,25 +7125,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7150,10 +7153,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>837859</v>
+        <v>837900</v>
       </c>
       <c r="R65" t="n">
-        <v>7446271</v>
+        <v>7446196</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7180,12 +7183,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7212,10 +7215,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112080985</v>
+        <v>112081067</v>
       </c>
       <c r="B66" t="n">
-        <v>89665</v>
+        <v>77636</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7228,21 +7231,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>73</v>
+        <v>6425</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7252,10 +7255,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>838200</v>
+        <v>838039</v>
       </c>
       <c r="R66" t="n">
-        <v>7446423</v>
+        <v>7446399</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7314,10 +7317,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112081044</v>
+        <v>112080980</v>
       </c>
       <c r="B67" t="n">
-        <v>95539</v>
+        <v>86357</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7326,23 +7329,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>224358</v>
+        <v>4412</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -7350,10 +7357,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>837845</v>
+        <v>837988</v>
       </c>
       <c r="R67" t="n">
-        <v>7446349</v>
+        <v>7446497</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7394,7 +7401,6 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -7413,10 +7419,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112081019</v>
+        <v>112081085</v>
       </c>
       <c r="B68" t="n">
-        <v>78512</v>
+        <v>90794</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7425,25 +7431,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6456</v>
+        <v>4362</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7453,10 +7459,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>838202</v>
+        <v>837853</v>
       </c>
       <c r="R68" t="n">
-        <v>7446426</v>
+        <v>7446288</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7483,12 +7489,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7515,10 +7521,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112081055</v>
+        <v>112081020</v>
       </c>
       <c r="B69" t="n">
-        <v>89401</v>
+        <v>78633</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7527,25 +7533,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1108</v>
+        <v>6456</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7555,10 +7561,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>837801</v>
+        <v>838023</v>
       </c>
       <c r="R69" t="n">
-        <v>7446411</v>
+        <v>7446298</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7585,12 +7591,12 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -7620,7 +7626,7 @@
         <v>112081041</v>
       </c>
       <c r="B70" t="n">
-        <v>95538</v>
+        <v>95693</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -7719,10 +7725,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112080982</v>
+        <v>112081046</v>
       </c>
       <c r="B71" t="n">
-        <v>86223</v>
+        <v>90792</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -7735,21 +7741,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4412</v>
+        <v>4361</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7759,10 +7765,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>837795</v>
+        <v>837922</v>
       </c>
       <c r="R71" t="n">
-        <v>7446283</v>
+        <v>7446268</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7821,10 +7827,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112081086</v>
+        <v>112080993</v>
       </c>
       <c r="B72" t="n">
-        <v>90660</v>
+        <v>56575</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -7837,21 +7843,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4362</v>
+        <v>103021</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -7861,10 +7867,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>837869</v>
+        <v>837802</v>
       </c>
       <c r="R72" t="n">
-        <v>7446254</v>
+        <v>7446284</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7923,10 +7929,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112081070</v>
+        <v>112081039</v>
       </c>
       <c r="B73" t="n">
-        <v>81248</v>
+        <v>95693</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -7935,25 +7941,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1312</v>
+        <v>221941</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -7963,10 +7969,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>838037</v>
+        <v>837882</v>
       </c>
       <c r="R73" t="n">
-        <v>7446422</v>
+        <v>7446247</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8007,7 +8013,6 @@
       <c r="AE73" t="b">
         <v>0</v>
       </c>
-      <c r="AF73" t="inlineStr"/>
       <c r="AG73" t="b">
         <v>0</v>
       </c>
@@ -8026,10 +8031,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112080994</v>
+        <v>112081072</v>
       </c>
       <c r="B74" t="n">
-        <v>56543</v>
+        <v>90800</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8038,25 +8043,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>103021</v>
+        <v>4364</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8066,10 +8071,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>837771</v>
+        <v>837935</v>
       </c>
       <c r="R74" t="n">
-        <v>7446393</v>
+        <v>7446225</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8096,12 +8101,12 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8128,10 +8133,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112080995</v>
+        <v>112081055</v>
       </c>
       <c r="B75" t="n">
-        <v>90652</v>
+        <v>89535</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8144,21 +8149,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3100</v>
+        <v>1108</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8168,10 +8173,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>837932</v>
+        <v>837801</v>
       </c>
       <c r="R75" t="n">
-        <v>7446337</v>
+        <v>7446411</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8230,10 +8235,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112081061</v>
+        <v>112081027</v>
       </c>
       <c r="B76" t="n">
-        <v>88032</v>
+        <v>90812</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8242,25 +8247,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8270,10 +8275,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>837896</v>
+        <v>837917</v>
       </c>
       <c r="R76" t="n">
-        <v>7446211</v>
+        <v>7446271</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8300,12 +8305,12 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8314,7 +8319,6 @@
       <c r="AE76" t="b">
         <v>0</v>
       </c>
-      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
@@ -8333,10 +8337,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112080979</v>
+        <v>112080994</v>
       </c>
       <c r="B77" t="n">
-        <v>86223</v>
+        <v>56575</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8349,21 +8353,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4412</v>
+        <v>103021</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8373,10 +8377,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>837843</v>
+        <v>837771</v>
       </c>
       <c r="R77" t="n">
-        <v>7446274</v>
+        <v>7446393</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8435,10 +8439,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112081022</v>
+        <v>112081074</v>
       </c>
       <c r="B78" t="n">
-        <v>90678</v>
+        <v>90800</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8451,21 +8455,21 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8475,10 +8479,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>837917</v>
+        <v>837920</v>
       </c>
       <c r="R78" t="n">
-        <v>7446306</v>
+        <v>7446236</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8537,10 +8541,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112080990</v>
+        <v>112081064</v>
       </c>
       <c r="B79" t="n">
-        <v>89425</v>
+        <v>88166</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -8549,25 +8553,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5442</v>
+        <v>6276</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -8577,10 +8581,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>837871</v>
+        <v>837869</v>
       </c>
       <c r="R79" t="n">
-        <v>7446492</v>
+        <v>7446455</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8640,10 +8644,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112081001</v>
+        <v>112081044</v>
       </c>
       <c r="B80" t="n">
-        <v>90710</v>
+        <v>95694</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -8652,27 +8656,23 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5449</v>
+        <v>224358</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
-        </is>
-      </c>
+          <t>Lycopodium complanatum subsp. complanatum</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>837844</v>
+        <v>837845</v>
       </c>
       <c r="R80" t="n">
-        <v>7446325</v>
+        <v>7446349</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -8724,6 +8724,7 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -8742,10 +8743,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112081057</v>
+        <v>112081029</v>
       </c>
       <c r="B81" t="n">
-        <v>89423</v>
+        <v>90812</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -8754,25 +8755,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5432</v>
+        <v>4366</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -8782,10 +8783,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>837757</v>
+        <v>837875</v>
       </c>
       <c r="R81" t="n">
-        <v>7446355</v>
+        <v>7446208</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8844,10 +8845,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112081049</v>
+        <v>112081087</v>
       </c>
       <c r="B82" t="n">
-        <v>90658</v>
+        <v>90794</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -8860,21 +8861,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -8884,10 +8885,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>837873</v>
+        <v>837865</v>
       </c>
       <c r="R82" t="n">
-        <v>7446194</v>
+        <v>7446238</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -8946,10 +8947,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112081054</v>
+        <v>112081001</v>
       </c>
       <c r="B83" t="n">
-        <v>55611</v>
+        <v>90844</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -8962,21 +8963,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>102612</v>
+        <v>5449</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -8986,10 +8987,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>837801</v>
+        <v>837844</v>
       </c>
       <c r="R83" t="n">
-        <v>7446348</v>
+        <v>7446325</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9048,10 +9049,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112081020</v>
+        <v>112081049</v>
       </c>
       <c r="B84" t="n">
-        <v>78512</v>
+        <v>90792</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9060,25 +9061,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6456</v>
+        <v>4361</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9088,10 +9089,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>838023</v>
+        <v>837873</v>
       </c>
       <c r="R84" t="n">
-        <v>7446298</v>
+        <v>7446194</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9118,12 +9119,12 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9150,10 +9151,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112081027</v>
+        <v>112081015</v>
       </c>
       <c r="B85" t="n">
-        <v>90678</v>
+        <v>56446</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9162,25 +9163,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4366</v>
+        <v>100049</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9190,10 +9191,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>837917</v>
+        <v>838267</v>
       </c>
       <c r="R85" t="n">
-        <v>7446271</v>
+        <v>7446460</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9220,12 +9221,12 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9252,10 +9253,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112081004</v>
+        <v>112080983</v>
       </c>
       <c r="B86" t="n">
-        <v>90710</v>
+        <v>86357</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9268,21 +9269,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5449</v>
+        <v>4412</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9292,10 +9293,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>837870</v>
+        <v>837800</v>
       </c>
       <c r="R86" t="n">
-        <v>7446259</v>
+        <v>7446445</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9354,10 +9355,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112081064</v>
+        <v>112081077</v>
       </c>
       <c r="B87" t="n">
-        <v>88032</v>
+        <v>90800</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9366,25 +9367,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9394,10 +9395,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>837869</v>
+        <v>837975</v>
       </c>
       <c r="R87" t="n">
-        <v>7446455</v>
+        <v>7446376</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9438,7 +9439,6 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
-      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -9457,10 +9457,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112080967</v>
+        <v>112081017</v>
       </c>
       <c r="B88" t="n">
-        <v>86223</v>
+        <v>56446</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -9473,21 +9473,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4412</v>
+        <v>100049</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9497,10 +9497,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>838146</v>
+        <v>837978</v>
       </c>
       <c r="R88" t="n">
-        <v>7446346</v>
+        <v>7446392</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9527,12 +9527,12 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -9559,10 +9559,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112080971</v>
+        <v>112081000</v>
       </c>
       <c r="B89" t="n">
-        <v>86223</v>
+        <v>90844</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -9575,21 +9575,21 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4412</v>
+        <v>5449</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9599,10 +9599,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>838248</v>
+        <v>837877</v>
       </c>
       <c r="R89" t="n">
-        <v>7446446</v>
+        <v>7446276</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9629,12 +9629,12 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD89" t="b">

--- a/artfynd/A 32706-2023.xlsx
+++ b/artfynd/A 32706-2023.xlsx
@@ -4866,7 +4866,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112080972</v>
+        <v>112080974</v>
       </c>
       <c r="B43" t="n">
         <v>86357</v>
@@ -4906,10 +4906,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>838237</v>
+        <v>838233</v>
       </c>
       <c r="R43" t="n">
-        <v>7446403</v>
+        <v>7446396</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112080969</v>
+        <v>112080972</v>
       </c>
       <c r="B44" t="n">
         <v>86357</v>
@@ -5008,10 +5008,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>838168</v>
+        <v>838237</v>
       </c>
       <c r="R44" t="n">
-        <v>7446363</v>
+        <v>7446403</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112081070</v>
+        <v>112080973</v>
       </c>
       <c r="B45" t="n">
-        <v>81371</v>
+        <v>86357</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5086,21 +5086,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1312</v>
+        <v>4412</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5110,10 +5110,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>838037</v>
+        <v>838236</v>
       </c>
       <c r="R45" t="n">
-        <v>7446422</v>
+        <v>7446398</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5154,7 +5154,6 @@
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5173,10 +5172,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112080991</v>
+        <v>112080969</v>
       </c>
       <c r="B46" t="n">
-        <v>56575</v>
+        <v>86357</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5189,21 +5188,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>103021</v>
+        <v>4412</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5213,10 +5212,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>837924</v>
+        <v>838168</v>
       </c>
       <c r="R46" t="n">
-        <v>7446271</v>
+        <v>7446363</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5243,12 +5242,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5275,10 +5274,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112080990</v>
+        <v>112081019</v>
       </c>
       <c r="B47" t="n">
-        <v>89559</v>
+        <v>78633</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5287,25 +5286,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5442</v>
+        <v>6456</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5315,10 +5314,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>837871</v>
+        <v>838202</v>
       </c>
       <c r="R47" t="n">
-        <v>7446492</v>
+        <v>7446426</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5345,12 +5344,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5359,7 +5358,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -5378,10 +5376,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112080974</v>
+        <v>112081047</v>
       </c>
       <c r="B48" t="n">
-        <v>86357</v>
+        <v>90792</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5394,21 +5392,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4412</v>
+        <v>4361</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5418,10 +5416,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>838233</v>
+        <v>837882</v>
       </c>
       <c r="R48" t="n">
-        <v>7446396</v>
+        <v>7446387</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5448,12 +5446,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5480,10 +5478,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112080973</v>
+        <v>112081061</v>
       </c>
       <c r="B49" t="n">
-        <v>86357</v>
+        <v>88166</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5492,25 +5490,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4412</v>
+        <v>6276</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5520,10 +5518,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>838236</v>
+        <v>837896</v>
       </c>
       <c r="R49" t="n">
-        <v>7446398</v>
+        <v>7446211</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5564,6 +5562,7 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -5582,10 +5581,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112081019</v>
+        <v>112081070</v>
       </c>
       <c r="B50" t="n">
-        <v>78633</v>
+        <v>81371</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5594,25 +5593,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6456</v>
+        <v>1312</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5622,10 +5621,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>838202</v>
+        <v>838037</v>
       </c>
       <c r="R50" t="n">
-        <v>7446426</v>
+        <v>7446422</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5666,6 +5665,7 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -5684,10 +5684,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112081047</v>
+        <v>112080991</v>
       </c>
       <c r="B51" t="n">
-        <v>90792</v>
+        <v>56575</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5700,21 +5700,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4361</v>
+        <v>103021</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>837882</v>
+        <v>837924</v>
       </c>
       <c r="R51" t="n">
-        <v>7446387</v>
+        <v>7446271</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5786,10 +5786,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112081061</v>
+        <v>112080990</v>
       </c>
       <c r="B52" t="n">
-        <v>88166</v>
+        <v>89559</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5798,25 +5798,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6276</v>
+        <v>5442</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>837896</v>
+        <v>837871</v>
       </c>
       <c r="R52" t="n">
-        <v>7446211</v>
+        <v>7446492</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5856,12 +5856,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6603,10 +6603,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112081028</v>
+        <v>112081043</v>
       </c>
       <c r="B60" t="n">
-        <v>90812</v>
+        <v>95693</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6619,21 +6619,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4366</v>
+        <v>221941</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6643,10 +6643,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>837840</v>
+        <v>837847</v>
       </c>
       <c r="R60" t="n">
-        <v>7446337</v>
+        <v>7446312</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6705,10 +6705,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112081012</v>
+        <v>112081045</v>
       </c>
       <c r="B61" t="n">
-        <v>78726</v>
+        <v>90792</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -6717,25 +6717,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6462</v>
+        <v>4361</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6745,10 +6745,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>838034</v>
+        <v>837916</v>
       </c>
       <c r="R61" t="n">
-        <v>7446280</v>
+        <v>7446236</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6807,10 +6807,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112081043</v>
+        <v>112081028</v>
       </c>
       <c r="B62" t="n">
-        <v>95693</v>
+        <v>90812</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -6823,21 +6823,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>221941</v>
+        <v>4366</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -6847,10 +6847,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>837847</v>
+        <v>837840</v>
       </c>
       <c r="R62" t="n">
-        <v>7446312</v>
+        <v>7446337</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6909,10 +6909,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112081045</v>
+        <v>112081012</v>
       </c>
       <c r="B63" t="n">
-        <v>90792</v>
+        <v>78726</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -6921,25 +6921,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4361</v>
+        <v>6462</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -6949,10 +6949,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>837916</v>
+        <v>838034</v>
       </c>
       <c r="R63" t="n">
-        <v>7446236</v>
+        <v>7446280</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7011,10 +7011,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112080967</v>
+        <v>112081020</v>
       </c>
       <c r="B64" t="n">
-        <v>86357</v>
+        <v>78633</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7023,25 +7023,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4412</v>
+        <v>6456</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7051,10 +7051,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>838146</v>
+        <v>838023</v>
       </c>
       <c r="R64" t="n">
-        <v>7446346</v>
+        <v>7446298</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7113,10 +7113,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112081076</v>
+        <v>112081041</v>
       </c>
       <c r="B65" t="n">
-        <v>90800</v>
+        <v>95693</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7129,21 +7129,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4364</v>
+        <v>221941</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7153,10 +7153,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>837900</v>
+        <v>837955</v>
       </c>
       <c r="R65" t="n">
-        <v>7446196</v>
+        <v>7446342</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7183,12 +7183,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7215,10 +7215,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112081067</v>
+        <v>112081046</v>
       </c>
       <c r="B66" t="n">
-        <v>77636</v>
+        <v>90792</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7231,21 +7231,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>4361</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7255,10 +7255,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>838039</v>
+        <v>837922</v>
       </c>
       <c r="R66" t="n">
-        <v>7446399</v>
+        <v>7446268</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7285,12 +7285,12 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7317,7 +7317,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112080980</v>
+        <v>112080967</v>
       </c>
       <c r="B67" t="n">
         <v>86357</v>
@@ -7357,10 +7357,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>837988</v>
+        <v>838146</v>
       </c>
       <c r="R67" t="n">
-        <v>7446497</v>
+        <v>7446346</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7387,12 +7387,12 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7419,10 +7419,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112081085</v>
+        <v>112081076</v>
       </c>
       <c r="B68" t="n">
-        <v>90794</v>
+        <v>90800</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7431,25 +7431,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7459,10 +7459,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>837853</v>
+        <v>837900</v>
       </c>
       <c r="R68" t="n">
-        <v>7446288</v>
+        <v>7446196</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7489,12 +7489,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7521,10 +7521,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112081020</v>
+        <v>112081067</v>
       </c>
       <c r="B69" t="n">
-        <v>78633</v>
+        <v>77636</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7533,25 +7533,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7561,10 +7561,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>838023</v>
+        <v>838039</v>
       </c>
       <c r="R69" t="n">
-        <v>7446298</v>
+        <v>7446399</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7623,10 +7623,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112081041</v>
+        <v>112080980</v>
       </c>
       <c r="B70" t="n">
-        <v>95693</v>
+        <v>86357</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -7635,25 +7635,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>221941</v>
+        <v>4412</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7663,10 +7663,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>837955</v>
+        <v>837988</v>
       </c>
       <c r="R70" t="n">
-        <v>7446342</v>
+        <v>7446497</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -7725,10 +7725,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112081046</v>
+        <v>112081085</v>
       </c>
       <c r="B71" t="n">
-        <v>90792</v>
+        <v>90794</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -7741,21 +7741,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7765,10 +7765,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>837922</v>
+        <v>837853</v>
       </c>
       <c r="R71" t="n">
-        <v>7446268</v>
+        <v>7446288</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>

--- a/artfynd/A 32706-2023.xlsx
+++ b/artfynd/A 32706-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112080999</v>
+        <v>112081010</v>
       </c>
       <c r="B2" t="n">
-        <v>90843</v>
+        <v>78740</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5448</v>
+        <v>6462</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>837852</v>
+        <v>838039</v>
       </c>
       <c r="R2" t="n">
-        <v>7446307</v>
+        <v>7446300</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,12 +750,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112080984</v>
+        <v>112080981</v>
       </c>
       <c r="B3" t="n">
-        <v>78228</v>
+        <v>86371</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>4412</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -822,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>838021</v>
+        <v>837868</v>
       </c>
       <c r="R3" t="n">
-        <v>7446305</v>
+        <v>7446243</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -852,12 +852,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112080981</v>
+        <v>112080965</v>
       </c>
       <c r="B4" t="n">
-        <v>86357</v>
+        <v>86371</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>837868</v>
+        <v>837871</v>
       </c>
       <c r="R4" t="n">
-        <v>7446243</v>
+        <v>7446256</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -954,12 +954,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112081084</v>
+        <v>112081046</v>
       </c>
       <c r="B5" t="n">
-        <v>90794</v>
+        <v>90806</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>837946</v>
+        <v>837922</v>
       </c>
       <c r="R5" t="n">
-        <v>7446352</v>
+        <v>7446268</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112080971</v>
+        <v>112081004</v>
       </c>
       <c r="B6" t="n">
-        <v>86357</v>
+        <v>90858</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1104,21 +1104,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4412</v>
+        <v>5449</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>838248</v>
+        <v>837870</v>
       </c>
       <c r="R6" t="n">
-        <v>7446446</v>
+        <v>7446259</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1158,12 +1158,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1190,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112081073</v>
+        <v>112081002</v>
       </c>
       <c r="B7" t="n">
-        <v>90800</v>
+        <v>90858</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1202,25 +1202,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>837934</v>
+        <v>837852</v>
       </c>
       <c r="R7" t="n">
-        <v>7446224</v>
+        <v>7446286</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1260,12 +1260,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1292,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112080968</v>
+        <v>112081021</v>
       </c>
       <c r="B8" t="n">
-        <v>86357</v>
+        <v>78647</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1304,25 +1304,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4412</v>
+        <v>6456</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>838164</v>
+        <v>837759</v>
       </c>
       <c r="R8" t="n">
-        <v>7446361</v>
+        <v>7446455</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1362,12 +1362,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1394,10 +1394,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112081048</v>
+        <v>112080978</v>
       </c>
       <c r="B9" t="n">
-        <v>90792</v>
+        <v>86371</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1410,21 +1410,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>4412</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>837846</v>
+        <v>838100</v>
       </c>
       <c r="R9" t="n">
-        <v>7446313</v>
+        <v>7446330</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1464,12 +1464,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1496,10 +1496,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112081078</v>
+        <v>112081044</v>
       </c>
       <c r="B10" t="n">
-        <v>78732</v>
+        <v>95708</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1512,23 +1512,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6463</v>
+        <v>224358</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Lycopodium complanatum subsp. complanatum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1536,10 +1532,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>838039</v>
+        <v>837845</v>
       </c>
       <c r="R10" t="n">
-        <v>7446300</v>
+        <v>7446349</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1566,12 +1562,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1580,6 +1576,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1598,10 +1595,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112081075</v>
+        <v>112081024</v>
       </c>
       <c r="B11" t="n">
-        <v>90800</v>
+        <v>90826</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1614,21 +1611,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1638,10 +1635,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>837916</v>
+        <v>837897</v>
       </c>
       <c r="R11" t="n">
-        <v>7446262</v>
+        <v>7446209</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1700,10 +1697,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112081023</v>
+        <v>112081020</v>
       </c>
       <c r="B12" t="n">
-        <v>90812</v>
+        <v>78647</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1716,21 +1713,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4366</v>
+        <v>6456</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1740,10 +1737,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>837916</v>
+        <v>838023</v>
       </c>
       <c r="R12" t="n">
-        <v>7446293</v>
+        <v>7446298</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1802,10 +1799,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112081026</v>
+        <v>112081015</v>
       </c>
       <c r="B13" t="n">
-        <v>90812</v>
+        <v>56446</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1814,25 +1811,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1842,10 +1839,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>837897</v>
+        <v>838267</v>
       </c>
       <c r="R13" t="n">
-        <v>7446288</v>
+        <v>7446460</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1872,12 +1869,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1904,10 +1901,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112081010</v>
+        <v>112080968</v>
       </c>
       <c r="B14" t="n">
-        <v>78726</v>
+        <v>86371</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1916,25 +1913,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6462</v>
+        <v>4412</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1944,10 +1941,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>838039</v>
+        <v>838164</v>
       </c>
       <c r="R14" t="n">
-        <v>7446300</v>
+        <v>7446361</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2006,10 +2003,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112081069</v>
+        <v>112081076</v>
       </c>
       <c r="B15" t="n">
-        <v>81371</v>
+        <v>90814</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2018,25 +2015,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1312</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2046,10 +2043,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>838125</v>
+        <v>837900</v>
       </c>
       <c r="R15" t="n">
-        <v>7446412</v>
+        <v>7446196</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2090,7 +2087,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2109,10 +2105,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112081056</v>
+        <v>112081089</v>
       </c>
       <c r="B16" t="n">
-        <v>89557</v>
+        <v>90808</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2125,21 +2121,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2149,10 +2145,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>838091</v>
+        <v>837863</v>
       </c>
       <c r="R16" t="n">
-        <v>7446392</v>
+        <v>7446235</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2179,12 +2175,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2211,10 +2207,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112081063</v>
+        <v>112081040</v>
       </c>
       <c r="B17" t="n">
-        <v>88166</v>
+        <v>95707</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2223,25 +2219,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6276</v>
+        <v>221941</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2251,10 +2247,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>837894</v>
+        <v>837935</v>
       </c>
       <c r="R17" t="n">
-        <v>7446193</v>
+        <v>7446271</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2295,7 +2291,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2314,10 +2309,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112080976</v>
+        <v>112081022</v>
       </c>
       <c r="B18" t="n">
-        <v>86357</v>
+        <v>90826</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2326,25 +2321,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2354,10 +2349,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>838178</v>
+        <v>837917</v>
       </c>
       <c r="R18" t="n">
-        <v>7446451</v>
+        <v>7446306</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2416,10 +2411,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112081004</v>
+        <v>112081042</v>
       </c>
       <c r="B19" t="n">
-        <v>90844</v>
+        <v>95707</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2428,25 +2423,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5449</v>
+        <v>221941</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2456,10 +2451,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>837870</v>
+        <v>837882</v>
       </c>
       <c r="R19" t="n">
-        <v>7446259</v>
+        <v>7446390</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2518,10 +2513,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112081022</v>
+        <v>112080993</v>
       </c>
       <c r="B20" t="n">
-        <v>90812</v>
+        <v>56575</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2530,25 +2525,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2558,10 +2553,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>837917</v>
+        <v>837802</v>
       </c>
       <c r="R20" t="n">
-        <v>7446306</v>
+        <v>7446284</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2588,12 +2583,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2620,10 +2615,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112080975</v>
+        <v>112081014</v>
       </c>
       <c r="B21" t="n">
-        <v>86357</v>
+        <v>56446</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2636,21 +2631,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4412</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2660,10 +2655,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>838204</v>
+        <v>838280</v>
       </c>
       <c r="R21" t="n">
-        <v>7446431</v>
+        <v>7446479</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2722,10 +2717,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112081040</v>
+        <v>112081023</v>
       </c>
       <c r="B22" t="n">
-        <v>95693</v>
+        <v>90826</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2738,21 +2733,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221941</v>
+        <v>4366</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2762,10 +2757,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>837935</v>
+        <v>837916</v>
       </c>
       <c r="R22" t="n">
-        <v>7446271</v>
+        <v>7446293</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2824,10 +2819,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112080982</v>
+        <v>112080999</v>
       </c>
       <c r="B23" t="n">
-        <v>86357</v>
+        <v>90857</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2840,21 +2835,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4412</v>
+        <v>5448</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2864,10 +2859,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>837795</v>
+        <v>837852</v>
       </c>
       <c r="R23" t="n">
-        <v>7446283</v>
+        <v>7446307</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2926,10 +2921,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112081050</v>
+        <v>112080977</v>
       </c>
       <c r="B24" t="n">
-        <v>78733</v>
+        <v>86371</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2938,25 +2933,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6464</v>
+        <v>4412</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2966,10 +2961,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>838195</v>
+        <v>838169</v>
       </c>
       <c r="R24" t="n">
-        <v>7446426</v>
+        <v>7446375</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3028,10 +3023,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112081091</v>
+        <v>112081075</v>
       </c>
       <c r="B25" t="n">
-        <v>90812</v>
+        <v>90814</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3044,21 +3039,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3068,10 +3063,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>838215</v>
+        <v>837916</v>
       </c>
       <c r="R25" t="n">
-        <v>7446394</v>
+        <v>7446262</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3112,7 +3107,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3131,10 +3125,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112081071</v>
+        <v>112080994</v>
       </c>
       <c r="B26" t="n">
-        <v>90800</v>
+        <v>56575</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3143,25 +3137,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4364</v>
+        <v>103021</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3171,10 +3165,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>837916</v>
+        <v>837771</v>
       </c>
       <c r="R26" t="n">
-        <v>7446236</v>
+        <v>7446393</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3201,12 +3195,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3233,10 +3227,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112081059</v>
+        <v>112080984</v>
       </c>
       <c r="B27" t="n">
-        <v>88166</v>
+        <v>78242</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3245,25 +3239,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6276</v>
+        <v>6453</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3273,10 +3267,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>837913</v>
+        <v>838021</v>
       </c>
       <c r="R27" t="n">
-        <v>7446234</v>
+        <v>7446305</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3317,7 +3311,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3336,10 +3329,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112080978</v>
+        <v>112080990</v>
       </c>
       <c r="B28" t="n">
-        <v>86357</v>
+        <v>89573</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3352,21 +3345,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4412</v>
+        <v>5442</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3376,10 +3369,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>838100</v>
+        <v>837871</v>
       </c>
       <c r="R28" t="n">
-        <v>7446330</v>
+        <v>7446492</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3406,12 +3399,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3420,6 +3413,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3438,10 +3432,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112081086</v>
+        <v>112080998</v>
       </c>
       <c r="B29" t="n">
-        <v>90794</v>
+        <v>90857</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3454,21 +3448,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3478,10 +3472,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>837869</v>
+        <v>837839</v>
       </c>
       <c r="R29" t="n">
-        <v>7446254</v>
+        <v>7446242</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3508,12 +3502,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3540,10 +3534,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112081003</v>
+        <v>112081054</v>
       </c>
       <c r="B30" t="n">
-        <v>90844</v>
+        <v>55643</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3556,21 +3550,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5449</v>
+        <v>102612</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3580,10 +3574,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>837859</v>
+        <v>837801</v>
       </c>
       <c r="R30" t="n">
-        <v>7446271</v>
+        <v>7446348</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3642,10 +3636,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112081054</v>
+        <v>112081086</v>
       </c>
       <c r="B31" t="n">
-        <v>55643</v>
+        <v>90808</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3658,21 +3652,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>102612</v>
+        <v>4362</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3682,10 +3676,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>837801</v>
+        <v>837869</v>
       </c>
       <c r="R31" t="n">
-        <v>7446348</v>
+        <v>7446254</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3744,10 +3738,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112081083</v>
+        <v>112081029</v>
       </c>
       <c r="B32" t="n">
-        <v>90794</v>
+        <v>90826</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3756,25 +3750,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3784,10 +3778,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>837881</v>
+        <v>837875</v>
       </c>
       <c r="R32" t="n">
-        <v>7446204</v>
+        <v>7446208</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3814,12 +3808,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3846,10 +3840,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112081024</v>
+        <v>112081049</v>
       </c>
       <c r="B33" t="n">
-        <v>90812</v>
+        <v>90806</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3858,25 +3852,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3886,10 +3880,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>837897</v>
+        <v>837873</v>
       </c>
       <c r="R33" t="n">
-        <v>7446209</v>
+        <v>7446194</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3916,12 +3910,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3948,10 +3942,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112080995</v>
+        <v>112080983</v>
       </c>
       <c r="B34" t="n">
-        <v>90786</v>
+        <v>86371</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3964,21 +3958,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3100</v>
+        <v>4412</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3988,10 +3982,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>837932</v>
+        <v>837800</v>
       </c>
       <c r="R34" t="n">
-        <v>7446337</v>
+        <v>7446445</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4050,10 +4044,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112081057</v>
+        <v>112081078</v>
       </c>
       <c r="B35" t="n">
-        <v>89557</v>
+        <v>78746</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4062,25 +4056,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>6463</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4090,10 +4084,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>837757</v>
+        <v>838039</v>
       </c>
       <c r="R35" t="n">
-        <v>7446355</v>
+        <v>7446300</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4120,12 +4114,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4152,10 +4146,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112080979</v>
+        <v>112081067</v>
       </c>
       <c r="B36" t="n">
-        <v>86357</v>
+        <v>77650</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4168,21 +4162,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4412</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4192,10 +4186,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>837843</v>
+        <v>838039</v>
       </c>
       <c r="R36" t="n">
-        <v>7446274</v>
+        <v>7446399</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4222,12 +4216,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4254,10 +4248,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112080985</v>
+        <v>112081045</v>
       </c>
       <c r="B37" t="n">
-        <v>89799</v>
+        <v>90806</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4270,21 +4264,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>73</v>
+        <v>4361</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4294,10 +4288,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>838200</v>
+        <v>837916</v>
       </c>
       <c r="R37" t="n">
-        <v>7446423</v>
+        <v>7446236</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4356,10 +4350,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112081089</v>
+        <v>112080971</v>
       </c>
       <c r="B38" t="n">
-        <v>90794</v>
+        <v>86371</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4372,21 +4366,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4362</v>
+        <v>4412</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4396,10 +4390,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>837863</v>
+        <v>838248</v>
       </c>
       <c r="R38" t="n">
-        <v>7446235</v>
+        <v>7446446</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4426,12 +4420,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4458,10 +4452,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112081025</v>
+        <v>112081043</v>
       </c>
       <c r="B39" t="n">
-        <v>90812</v>
+        <v>95707</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4474,21 +4468,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4366</v>
+        <v>221941</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4498,10 +4492,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>837898</v>
+        <v>837847</v>
       </c>
       <c r="R39" t="n">
-        <v>7446209</v>
+        <v>7446312</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4528,12 +4522,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4560,10 +4554,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112081014</v>
+        <v>112081026</v>
       </c>
       <c r="B40" t="n">
-        <v>56446</v>
+        <v>90826</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4572,25 +4566,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>4366</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4600,10 +4594,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>838280</v>
+        <v>837897</v>
       </c>
       <c r="R40" t="n">
-        <v>7446479</v>
+        <v>7446288</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4630,12 +4624,12 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4662,10 +4656,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112080998</v>
+        <v>112080966</v>
       </c>
       <c r="B41" t="n">
-        <v>90843</v>
+        <v>86371</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4678,21 +4672,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5448</v>
+        <v>4412</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4702,10 +4696,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>837839</v>
+        <v>838113</v>
       </c>
       <c r="R41" t="n">
-        <v>7446242</v>
+        <v>7446333</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4764,10 +4758,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112081021</v>
+        <v>112081056</v>
       </c>
       <c r="B42" t="n">
-        <v>78633</v>
+        <v>89571</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4776,25 +4770,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6456</v>
+        <v>5432</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4804,10 +4798,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>837759</v>
+        <v>838091</v>
       </c>
       <c r="R42" t="n">
-        <v>7446455</v>
+        <v>7446392</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4834,12 +4828,12 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -4866,10 +4860,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112080974</v>
+        <v>112081059</v>
       </c>
       <c r="B43" t="n">
-        <v>86357</v>
+        <v>88180</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -4878,25 +4872,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4412</v>
+        <v>6276</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4906,10 +4900,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>838233</v>
+        <v>837913</v>
       </c>
       <c r="R43" t="n">
-        <v>7446396</v>
+        <v>7446234</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4950,6 +4944,7 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -4968,10 +4963,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112080972</v>
+        <v>112081068</v>
       </c>
       <c r="B44" t="n">
-        <v>86357</v>
+        <v>77650</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -4984,21 +4979,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4412</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5008,10 +5003,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>838237</v>
+        <v>837977</v>
       </c>
       <c r="R44" t="n">
-        <v>7446403</v>
+        <v>7446400</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5038,12 +5033,12 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5070,10 +5065,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112080973</v>
+        <v>112081072</v>
       </c>
       <c r="B45" t="n">
-        <v>86357</v>
+        <v>90814</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5082,25 +5077,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4412</v>
+        <v>4364</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5110,10 +5105,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>838236</v>
+        <v>837935</v>
       </c>
       <c r="R45" t="n">
-        <v>7446398</v>
+        <v>7446225</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5172,10 +5167,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112080969</v>
+        <v>112080976</v>
       </c>
       <c r="B46" t="n">
-        <v>86357</v>
+        <v>86371</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5212,10 +5207,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>838168</v>
+        <v>838178</v>
       </c>
       <c r="R46" t="n">
-        <v>7446363</v>
+        <v>7446451</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5274,10 +5269,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112081019</v>
+        <v>112080967</v>
       </c>
       <c r="B47" t="n">
-        <v>78633</v>
+        <v>86371</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5286,25 +5281,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6456</v>
+        <v>4412</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5314,10 +5309,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>838202</v>
+        <v>838146</v>
       </c>
       <c r="R47" t="n">
-        <v>7446426</v>
+        <v>7446346</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5376,10 +5371,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112081047</v>
+        <v>112080980</v>
       </c>
       <c r="B48" t="n">
-        <v>90792</v>
+        <v>86371</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5392,21 +5387,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4361</v>
+        <v>4412</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5416,10 +5411,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>837882</v>
+        <v>837988</v>
       </c>
       <c r="R48" t="n">
-        <v>7446387</v>
+        <v>7446497</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5478,10 +5473,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112081061</v>
+        <v>112081000</v>
       </c>
       <c r="B49" t="n">
-        <v>88166</v>
+        <v>90858</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5490,25 +5485,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6276</v>
+        <v>5449</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5518,10 +5513,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>837896</v>
+        <v>837877</v>
       </c>
       <c r="R49" t="n">
-        <v>7446211</v>
+        <v>7446276</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5548,12 +5543,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5562,7 +5557,6 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -5581,10 +5575,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112081070</v>
+        <v>112080979</v>
       </c>
       <c r="B50" t="n">
-        <v>81371</v>
+        <v>86371</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5597,21 +5591,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1312</v>
+        <v>4412</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5621,10 +5615,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>838037</v>
+        <v>837843</v>
       </c>
       <c r="R50" t="n">
-        <v>7446422</v>
+        <v>7446274</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5651,12 +5645,12 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5665,7 +5659,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -5684,10 +5677,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112080991</v>
+        <v>112081028</v>
       </c>
       <c r="B51" t="n">
-        <v>56575</v>
+        <v>90826</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5696,25 +5689,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>103021</v>
+        <v>4366</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5724,10 +5717,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>837924</v>
+        <v>837840</v>
       </c>
       <c r="R51" t="n">
-        <v>7446271</v>
+        <v>7446337</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5786,10 +5779,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112080990</v>
+        <v>112080985</v>
       </c>
       <c r="B52" t="n">
-        <v>89559</v>
+        <v>89813</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5802,21 +5795,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5442</v>
+        <v>73</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5826,10 +5819,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>837871</v>
+        <v>838200</v>
       </c>
       <c r="R52" t="n">
-        <v>7446492</v>
+        <v>7446423</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5856,12 +5849,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5870,7 +5863,6 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -5889,10 +5881,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112081068</v>
+        <v>112081084</v>
       </c>
       <c r="B53" t="n">
-        <v>77636</v>
+        <v>90808</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -5905,21 +5897,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -5929,10 +5921,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>837977</v>
+        <v>837946</v>
       </c>
       <c r="R53" t="n">
-        <v>7446400</v>
+        <v>7446352</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5991,10 +5983,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112080970</v>
+        <v>112081061</v>
       </c>
       <c r="B54" t="n">
-        <v>86357</v>
+        <v>88180</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6003,25 +5995,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4412</v>
+        <v>6276</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6031,10 +6023,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>838256</v>
+        <v>837896</v>
       </c>
       <c r="R54" t="n">
-        <v>7446410</v>
+        <v>7446211</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6075,6 +6067,7 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6093,10 +6086,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112080965</v>
+        <v>112081073</v>
       </c>
       <c r="B55" t="n">
-        <v>86357</v>
+        <v>90814</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6105,25 +6098,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4412</v>
+        <v>4364</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6133,10 +6126,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>837871</v>
+        <v>837934</v>
       </c>
       <c r="R55" t="n">
-        <v>7446256</v>
+        <v>7446224</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6195,10 +6188,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112081002</v>
+        <v>112081091</v>
       </c>
       <c r="B56" t="n">
-        <v>90844</v>
+        <v>90826</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6207,25 +6200,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6235,10 +6228,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>837852</v>
+        <v>838215</v>
       </c>
       <c r="R56" t="n">
-        <v>7446286</v>
+        <v>7446394</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6265,12 +6258,12 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6279,6 +6272,7 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -6297,10 +6291,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112080977</v>
+        <v>112081048</v>
       </c>
       <c r="B57" t="n">
-        <v>86357</v>
+        <v>90806</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6313,21 +6307,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4412</v>
+        <v>4361</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6337,10 +6331,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>838169</v>
+        <v>837846</v>
       </c>
       <c r="R57" t="n">
-        <v>7446375</v>
+        <v>7446313</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6367,12 +6361,12 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6399,10 +6393,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112081042</v>
+        <v>112080969</v>
       </c>
       <c r="B58" t="n">
-        <v>95693</v>
+        <v>86371</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6411,25 +6405,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>221941</v>
+        <v>4412</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6439,10 +6433,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>837882</v>
+        <v>838168</v>
       </c>
       <c r="R58" t="n">
-        <v>7446390</v>
+        <v>7446363</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6469,12 +6463,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6501,10 +6495,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112080966</v>
+        <v>112080982</v>
       </c>
       <c r="B59" t="n">
-        <v>86357</v>
+        <v>86371</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6541,10 +6535,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>838113</v>
+        <v>837795</v>
       </c>
       <c r="R59" t="n">
-        <v>7446333</v>
+        <v>7446283</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6571,12 +6565,12 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6603,10 +6597,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112081043</v>
+        <v>112080972</v>
       </c>
       <c r="B60" t="n">
-        <v>95693</v>
+        <v>86371</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6615,25 +6609,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>221941</v>
+        <v>4412</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6643,10 +6637,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>837847</v>
+        <v>838237</v>
       </c>
       <c r="R60" t="n">
-        <v>7446312</v>
+        <v>7446403</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6673,12 +6667,12 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -6705,10 +6699,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112081045</v>
+        <v>112081001</v>
       </c>
       <c r="B61" t="n">
-        <v>90792</v>
+        <v>90858</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -6721,21 +6715,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6745,10 +6739,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>837916</v>
+        <v>837844</v>
       </c>
       <c r="R61" t="n">
-        <v>7446236</v>
+        <v>7446325</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6775,12 +6769,12 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -6807,10 +6801,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112081028</v>
+        <v>112081050</v>
       </c>
       <c r="B62" t="n">
-        <v>90812</v>
+        <v>78747</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -6823,21 +6817,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4366</v>
+        <v>6464</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -6847,10 +6841,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>837840</v>
+        <v>838195</v>
       </c>
       <c r="R62" t="n">
-        <v>7446337</v>
+        <v>7446426</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6877,12 +6871,12 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -6909,10 +6903,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112081012</v>
+        <v>112081055</v>
       </c>
       <c r="B63" t="n">
-        <v>78726</v>
+        <v>89549</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -6921,25 +6915,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6462</v>
+        <v>1108</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -6949,10 +6943,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>838034</v>
+        <v>837801</v>
       </c>
       <c r="R63" t="n">
-        <v>7446280</v>
+        <v>7446411</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6979,12 +6973,12 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7011,10 +7005,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112081020</v>
+        <v>112081070</v>
       </c>
       <c r="B64" t="n">
-        <v>78633</v>
+        <v>81385</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7023,25 +7017,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6456</v>
+        <v>1312</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7051,10 +7045,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>838023</v>
+        <v>838037</v>
       </c>
       <c r="R64" t="n">
-        <v>7446298</v>
+        <v>7446422</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7095,6 +7089,7 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -7113,10 +7108,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112081041</v>
+        <v>112081069</v>
       </c>
       <c r="B65" t="n">
-        <v>95693</v>
+        <v>81385</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7125,25 +7120,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>221941</v>
+        <v>1312</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7153,10 +7148,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>837955</v>
+        <v>838125</v>
       </c>
       <c r="R65" t="n">
-        <v>7446342</v>
+        <v>7446412</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7183,12 +7178,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7197,6 +7192,7 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -7215,10 +7211,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112081046</v>
+        <v>112081063</v>
       </c>
       <c r="B66" t="n">
-        <v>90792</v>
+        <v>88180</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7227,25 +7223,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7255,10 +7251,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>837922</v>
+        <v>837894</v>
       </c>
       <c r="R66" t="n">
-        <v>7446268</v>
+        <v>7446193</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7285,12 +7281,12 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7299,6 +7295,7 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
+      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -7317,10 +7314,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112080967</v>
+        <v>112081087</v>
       </c>
       <c r="B67" t="n">
-        <v>86357</v>
+        <v>90808</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7333,21 +7330,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4412</v>
+        <v>4362</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7357,10 +7354,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>838146</v>
+        <v>837865</v>
       </c>
       <c r="R67" t="n">
-        <v>7446346</v>
+        <v>7446238</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7387,12 +7384,12 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7419,10 +7416,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112081076</v>
+        <v>112081077</v>
       </c>
       <c r="B68" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7459,10 +7456,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>837900</v>
+        <v>837975</v>
       </c>
       <c r="R68" t="n">
-        <v>7446196</v>
+        <v>7446376</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7489,12 +7486,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7521,10 +7518,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112081067</v>
+        <v>112080970</v>
       </c>
       <c r="B69" t="n">
-        <v>77636</v>
+        <v>86371</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7537,21 +7534,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>4412</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7561,10 +7558,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>838039</v>
+        <v>838256</v>
       </c>
       <c r="R69" t="n">
-        <v>7446399</v>
+        <v>7446410</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7623,10 +7620,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112080980</v>
+        <v>112081039</v>
       </c>
       <c r="B70" t="n">
-        <v>86357</v>
+        <v>95707</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -7635,25 +7632,25 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4412</v>
+        <v>221941</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7663,10 +7660,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>837988</v>
+        <v>837882</v>
       </c>
       <c r="R70" t="n">
-        <v>7446497</v>
+        <v>7446247</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -7693,12 +7690,12 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -7725,10 +7722,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112081085</v>
+        <v>112081017</v>
       </c>
       <c r="B71" t="n">
-        <v>90794</v>
+        <v>56446</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -7741,21 +7738,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4362</v>
+        <v>100049</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7765,10 +7762,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>837853</v>
+        <v>837978</v>
       </c>
       <c r="R71" t="n">
-        <v>7446288</v>
+        <v>7446392</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7827,10 +7824,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112080993</v>
+        <v>112081011</v>
       </c>
       <c r="B72" t="n">
-        <v>56575</v>
+        <v>78740</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -7839,25 +7836,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>103021</v>
+        <v>6462</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -7867,10 +7864,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>837802</v>
+        <v>838034</v>
       </c>
       <c r="R72" t="n">
-        <v>7446284</v>
+        <v>7446280</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7897,12 +7894,12 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -7929,10 +7926,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112081039</v>
+        <v>112080995</v>
       </c>
       <c r="B73" t="n">
-        <v>95693</v>
+        <v>90800</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -7941,25 +7938,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -7969,10 +7966,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>837882</v>
+        <v>837932</v>
       </c>
       <c r="R73" t="n">
-        <v>7446247</v>
+        <v>7446337</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7999,12 +7996,12 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8031,10 +8028,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112081072</v>
+        <v>112081047</v>
       </c>
       <c r="B74" t="n">
-        <v>90800</v>
+        <v>90806</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8043,25 +8040,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8071,10 +8068,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>837935</v>
+        <v>837882</v>
       </c>
       <c r="R74" t="n">
-        <v>7446225</v>
+        <v>7446387</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8101,12 +8098,12 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8133,10 +8130,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112081055</v>
+        <v>112080975</v>
       </c>
       <c r="B75" t="n">
-        <v>89535</v>
+        <v>86371</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8149,21 +8146,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1108</v>
+        <v>4412</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8173,10 +8170,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>837801</v>
+        <v>838204</v>
       </c>
       <c r="R75" t="n">
-        <v>7446411</v>
+        <v>7446431</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8203,12 +8200,12 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8238,7 +8235,7 @@
         <v>112081027</v>
       </c>
       <c r="B76" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8337,7 +8334,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112080994</v>
+        <v>112080991</v>
       </c>
       <c r="B77" t="n">
         <v>56575</v>
@@ -8377,10 +8374,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>837771</v>
+        <v>837924</v>
       </c>
       <c r="R77" t="n">
-        <v>7446393</v>
+        <v>7446271</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8439,10 +8436,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112081074</v>
+        <v>112080973</v>
       </c>
       <c r="B78" t="n">
-        <v>90800</v>
+        <v>86371</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8451,25 +8448,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4364</v>
+        <v>4412</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -8479,10 +8476,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>837920</v>
+        <v>838236</v>
       </c>
       <c r="R78" t="n">
-        <v>7446236</v>
+        <v>7446398</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8541,10 +8538,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112081064</v>
+        <v>112081083</v>
       </c>
       <c r="B79" t="n">
-        <v>88166</v>
+        <v>90808</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -8553,25 +8550,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -8581,10 +8578,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>837869</v>
+        <v>837881</v>
       </c>
       <c r="R79" t="n">
-        <v>7446455</v>
+        <v>7446204</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8611,12 +8608,12 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -8625,7 +8622,6 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
       </c>
@@ -8644,10 +8640,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112081044</v>
+        <v>112081071</v>
       </c>
       <c r="B80" t="n">
-        <v>95694</v>
+        <v>90814</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -8660,19 +8656,23 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>224358</v>
+        <v>4364</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
@@ -8680,10 +8680,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>837845</v>
+        <v>837916</v>
       </c>
       <c r="R80" t="n">
-        <v>7446349</v>
+        <v>7446236</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -8710,12 +8710,12 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -8724,7 +8724,6 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -8743,10 +8742,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112081029</v>
+        <v>112081025</v>
       </c>
       <c r="B81" t="n">
-        <v>90812</v>
+        <v>90826</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -8783,10 +8782,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>837875</v>
+        <v>837898</v>
       </c>
       <c r="R81" t="n">
-        <v>7446208</v>
+        <v>7446209</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8813,12 +8812,12 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -8845,10 +8844,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112081087</v>
+        <v>112081019</v>
       </c>
       <c r="B82" t="n">
-        <v>90794</v>
+        <v>78647</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -8857,25 +8856,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4362</v>
+        <v>6456</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -8885,10 +8884,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>837865</v>
+        <v>838202</v>
       </c>
       <c r="R82" t="n">
-        <v>7446238</v>
+        <v>7446426</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -8915,12 +8914,12 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -8947,10 +8946,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112081001</v>
+        <v>112081064</v>
       </c>
       <c r="B83" t="n">
-        <v>90844</v>
+        <v>88180</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -8959,25 +8958,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5449</v>
+        <v>6276</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -8987,10 +8986,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>837844</v>
+        <v>837869</v>
       </c>
       <c r="R83" t="n">
-        <v>7446325</v>
+        <v>7446455</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9031,6 +9030,7 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
+      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
@@ -9049,10 +9049,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112081049</v>
+        <v>112081057</v>
       </c>
       <c r="B84" t="n">
-        <v>90792</v>
+        <v>89571</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9065,21 +9065,21 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>4361</v>
+        <v>5432</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9089,10 +9089,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>837873</v>
+        <v>837757</v>
       </c>
       <c r="R84" t="n">
-        <v>7446194</v>
+        <v>7446355</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9151,10 +9151,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112081015</v>
+        <v>112080974</v>
       </c>
       <c r="B85" t="n">
-        <v>56446</v>
+        <v>86371</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9167,21 +9167,21 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>100049</v>
+        <v>4412</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9191,10 +9191,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>838267</v>
+        <v>838233</v>
       </c>
       <c r="R85" t="n">
-        <v>7446460</v>
+        <v>7446396</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9253,10 +9253,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112080983</v>
+        <v>112081003</v>
       </c>
       <c r="B86" t="n">
-        <v>86357</v>
+        <v>90858</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9269,21 +9269,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4412</v>
+        <v>5449</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9293,10 +9293,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>837800</v>
+        <v>837859</v>
       </c>
       <c r="R86" t="n">
-        <v>7446445</v>
+        <v>7446271</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9355,10 +9355,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112081077</v>
+        <v>112081041</v>
       </c>
       <c r="B87" t="n">
-        <v>90800</v>
+        <v>95707</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9371,21 +9371,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4364</v>
+        <v>221941</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9395,10 +9395,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>837975</v>
+        <v>837955</v>
       </c>
       <c r="R87" t="n">
-        <v>7446376</v>
+        <v>7446342</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9457,10 +9457,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112081017</v>
+        <v>112081085</v>
       </c>
       <c r="B88" t="n">
-        <v>56446</v>
+        <v>90808</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -9473,21 +9473,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100049</v>
+        <v>4362</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9497,10 +9497,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>837978</v>
+        <v>837853</v>
       </c>
       <c r="R88" t="n">
-        <v>7446392</v>
+        <v>7446288</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9559,10 +9559,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112081000</v>
+        <v>112081074</v>
       </c>
       <c r="B89" t="n">
-        <v>90844</v>
+        <v>90814</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -9571,25 +9571,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5449</v>
+        <v>4364</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9599,10 +9599,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>837877</v>
+        <v>837920</v>
       </c>
       <c r="R89" t="n">
-        <v>7446276</v>
+        <v>7446236</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9629,12 +9629,12 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD89" t="b">

--- a/artfynd/A 32706-2023.xlsx
+++ b/artfynd/A 32706-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112081010</v>
+        <v>112080984</v>
       </c>
       <c r="B2" t="n">
-        <v>78740</v>
+        <v>78242</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6462</v>
+        <v>6453</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>838039</v>
+        <v>838021</v>
       </c>
       <c r="R2" t="n">
-        <v>7446300</v>
+        <v>7446305</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112080965</v>
+        <v>112081067</v>
       </c>
       <c r="B4" t="n">
-        <v>86371</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -900,21 +900,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4412</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -924,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>837871</v>
+        <v>838039</v>
       </c>
       <c r="R4" t="n">
-        <v>7446256</v>
+        <v>7446399</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -986,10 +986,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112081046</v>
+        <v>112080966</v>
       </c>
       <c r="B5" t="n">
-        <v>90806</v>
+        <v>86371</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1002,21 +1002,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>4412</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>837922</v>
+        <v>838113</v>
       </c>
       <c r="R5" t="n">
-        <v>7446268</v>
+        <v>7446333</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1088,10 +1088,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112081004</v>
+        <v>112081085</v>
       </c>
       <c r="B6" t="n">
-        <v>90858</v>
+        <v>90808</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1104,21 +1104,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>837870</v>
+        <v>837853</v>
       </c>
       <c r="R6" t="n">
-        <v>7446259</v>
+        <v>7446288</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1190,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112081002</v>
+        <v>112081029</v>
       </c>
       <c r="B7" t="n">
-        <v>90858</v>
+        <v>90826</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1202,25 +1202,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5449</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1230,10 +1230,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>837852</v>
+        <v>837875</v>
       </c>
       <c r="R7" t="n">
-        <v>7446286</v>
+        <v>7446208</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112081021</v>
+        <v>112081072</v>
       </c>
       <c r="B8" t="n">
-        <v>78647</v>
+        <v>90814</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1308,21 +1308,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6456</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>837759</v>
+        <v>837935</v>
       </c>
       <c r="R8" t="n">
-        <v>7446455</v>
+        <v>7446225</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1362,12 +1362,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1394,10 +1394,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112080978</v>
+        <v>112081075</v>
       </c>
       <c r="B9" t="n">
-        <v>86371</v>
+        <v>90814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1406,25 +1406,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4412</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>838100</v>
+        <v>837916</v>
       </c>
       <c r="R9" t="n">
-        <v>7446330</v>
+        <v>7446262</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1496,10 +1496,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112081044</v>
+        <v>112080970</v>
       </c>
       <c r="B10" t="n">
-        <v>95708</v>
+        <v>86371</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1508,23 +1508,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>224358</v>
+        <v>4412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vanlig plattlummer</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum subsp. complanatum</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>Hygrophorus karstenii</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sacc. &amp; Cub.</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1532,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>837845</v>
+        <v>838256</v>
       </c>
       <c r="R10" t="n">
-        <v>7446349</v>
+        <v>7446410</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1562,12 +1566,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1576,7 +1580,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1595,10 +1598,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112081024</v>
+        <v>112081047</v>
       </c>
       <c r="B11" t="n">
-        <v>90826</v>
+        <v>90806</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1607,25 +1610,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1635,10 +1638,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>837897</v>
+        <v>837882</v>
       </c>
       <c r="R11" t="n">
-        <v>7446209</v>
+        <v>7446387</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1665,12 +1668,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1697,10 +1700,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112081020</v>
+        <v>112081000</v>
       </c>
       <c r="B12" t="n">
-        <v>78647</v>
+        <v>90858</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1709,25 +1712,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6456</v>
+        <v>5449</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1737,10 +1740,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>838023</v>
+        <v>837877</v>
       </c>
       <c r="R12" t="n">
-        <v>7446298</v>
+        <v>7446276</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1767,12 +1770,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1799,10 +1802,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112081015</v>
+        <v>112080990</v>
       </c>
       <c r="B13" t="n">
-        <v>56446</v>
+        <v>89573</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1815,21 +1818,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>5442</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1839,10 +1842,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>838267</v>
+        <v>837871</v>
       </c>
       <c r="R13" t="n">
-        <v>7446460</v>
+        <v>7446492</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1869,12 +1872,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1883,6 +1886,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -1901,10 +1905,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112080968</v>
+        <v>112081071</v>
       </c>
       <c r="B14" t="n">
-        <v>86371</v>
+        <v>90814</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1913,25 +1917,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4412</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1941,10 +1945,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>838164</v>
+        <v>837916</v>
       </c>
       <c r="R14" t="n">
-        <v>7446361</v>
+        <v>7446236</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2003,10 +2007,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112081076</v>
+        <v>112081070</v>
       </c>
       <c r="B15" t="n">
-        <v>90814</v>
+        <v>81385</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2015,25 +2019,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>1312</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2043,10 +2047,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>837900</v>
+        <v>838037</v>
       </c>
       <c r="R15" t="n">
-        <v>7446196</v>
+        <v>7446422</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2087,6 +2091,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2105,10 +2110,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112081089</v>
+        <v>112081024</v>
       </c>
       <c r="B16" t="n">
-        <v>90808</v>
+        <v>90826</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2117,25 +2122,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2145,10 +2150,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>837863</v>
+        <v>837897</v>
       </c>
       <c r="R16" t="n">
-        <v>7446235</v>
+        <v>7446209</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2175,12 +2180,12 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2207,10 +2212,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112081040</v>
+        <v>112081019</v>
       </c>
       <c r="B17" t="n">
-        <v>95707</v>
+        <v>78647</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2223,21 +2228,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221941</v>
+        <v>6456</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2247,10 +2252,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>837935</v>
+        <v>838202</v>
       </c>
       <c r="R17" t="n">
-        <v>7446271</v>
+        <v>7446426</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2309,10 +2314,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112081022</v>
+        <v>112081074</v>
       </c>
       <c r="B18" t="n">
-        <v>90826</v>
+        <v>90814</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2325,21 +2330,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2349,10 +2354,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>837917</v>
+        <v>837920</v>
       </c>
       <c r="R18" t="n">
-        <v>7446306</v>
+        <v>7446236</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2411,10 +2416,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112081042</v>
+        <v>112081076</v>
       </c>
       <c r="B19" t="n">
-        <v>95707</v>
+        <v>90814</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2427,21 +2432,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2451,10 +2456,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>837882</v>
+        <v>837900</v>
       </c>
       <c r="R19" t="n">
-        <v>7446390</v>
+        <v>7446196</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2481,12 +2486,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2513,10 +2518,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112080993</v>
+        <v>112081078</v>
       </c>
       <c r="B20" t="n">
-        <v>56575</v>
+        <v>78746</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2525,25 +2530,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>6463</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2553,10 +2558,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>837802</v>
+        <v>838039</v>
       </c>
       <c r="R20" t="n">
-        <v>7446284</v>
+        <v>7446300</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2583,12 +2588,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2615,10 +2620,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112081014</v>
+        <v>112080994</v>
       </c>
       <c r="B21" t="n">
-        <v>56446</v>
+        <v>56575</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2631,21 +2636,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2655,10 +2660,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>838280</v>
+        <v>837771</v>
       </c>
       <c r="R21" t="n">
-        <v>7446479</v>
+        <v>7446393</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2685,12 +2690,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2717,7 +2722,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112081023</v>
+        <v>112081022</v>
       </c>
       <c r="B22" t="n">
         <v>90826</v>
@@ -2757,10 +2762,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>837916</v>
+        <v>837917</v>
       </c>
       <c r="R22" t="n">
-        <v>7446293</v>
+        <v>7446306</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2819,10 +2824,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112080999</v>
+        <v>112081056</v>
       </c>
       <c r="B23" t="n">
-        <v>90857</v>
+        <v>89571</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2835,21 +2840,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5448</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2859,10 +2864,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>837852</v>
+        <v>838091</v>
       </c>
       <c r="R23" t="n">
-        <v>7446307</v>
+        <v>7446392</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2889,12 +2894,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2921,10 +2926,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112080977</v>
+        <v>112081017</v>
       </c>
       <c r="B24" t="n">
-        <v>86371</v>
+        <v>56446</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -2937,21 +2942,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4412</v>
+        <v>100049</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2961,10 +2966,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>838169</v>
+        <v>837978</v>
       </c>
       <c r="R24" t="n">
-        <v>7446375</v>
+        <v>7446392</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2991,12 +2996,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3023,10 +3028,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112081075</v>
+        <v>112081026</v>
       </c>
       <c r="B25" t="n">
-        <v>90814</v>
+        <v>90826</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3039,21 +3044,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3063,10 +3068,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>837916</v>
+        <v>837897</v>
       </c>
       <c r="R25" t="n">
-        <v>7446262</v>
+        <v>7446288</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3093,12 +3098,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3125,10 +3130,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112080994</v>
+        <v>112081015</v>
       </c>
       <c r="B26" t="n">
-        <v>56575</v>
+        <v>56446</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3141,21 +3146,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3165,10 +3170,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>837771</v>
+        <v>838267</v>
       </c>
       <c r="R26" t="n">
-        <v>7446393</v>
+        <v>7446460</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3195,12 +3200,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3227,10 +3232,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112080984</v>
+        <v>112080968</v>
       </c>
       <c r="B27" t="n">
-        <v>78242</v>
+        <v>86371</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3243,21 +3248,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6453</v>
+        <v>4412</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3267,10 +3272,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>838021</v>
+        <v>838164</v>
       </c>
       <c r="R27" t="n">
-        <v>7446305</v>
+        <v>7446361</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3329,10 +3334,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112080990</v>
+        <v>112081045</v>
       </c>
       <c r="B28" t="n">
-        <v>89573</v>
+        <v>90806</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3345,21 +3350,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5442</v>
+        <v>4361</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3369,10 +3374,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>837871</v>
+        <v>837916</v>
       </c>
       <c r="R28" t="n">
-        <v>7446492</v>
+        <v>7446236</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3399,12 +3404,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3413,7 +3418,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3432,10 +3436,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112080998</v>
+        <v>112081046</v>
       </c>
       <c r="B29" t="n">
-        <v>90857</v>
+        <v>90806</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3448,21 +3452,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5448</v>
+        <v>4361</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3472,10 +3476,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>837839</v>
+        <v>837922</v>
       </c>
       <c r="R29" t="n">
-        <v>7446242</v>
+        <v>7446268</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3502,12 +3506,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3534,10 +3538,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112081054</v>
+        <v>112080975</v>
       </c>
       <c r="B30" t="n">
-        <v>55643</v>
+        <v>86371</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3550,21 +3554,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>102612</v>
+        <v>4412</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3574,10 +3578,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>837801</v>
+        <v>838204</v>
       </c>
       <c r="R30" t="n">
-        <v>7446348</v>
+        <v>7446431</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3604,12 +3608,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3636,10 +3640,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112081086</v>
+        <v>112081021</v>
       </c>
       <c r="B31" t="n">
-        <v>90808</v>
+        <v>78647</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3648,25 +3652,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4362</v>
+        <v>6456</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3676,10 +3680,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>837869</v>
+        <v>837759</v>
       </c>
       <c r="R31" t="n">
-        <v>7446254</v>
+        <v>7446455</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3738,10 +3742,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112081029</v>
+        <v>112080972</v>
       </c>
       <c r="B32" t="n">
-        <v>90826</v>
+        <v>86371</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3750,25 +3754,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3778,10 +3782,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>837875</v>
+        <v>838237</v>
       </c>
       <c r="R32" t="n">
-        <v>7446208</v>
+        <v>7446403</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3808,12 +3812,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3840,10 +3844,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112081049</v>
+        <v>112081002</v>
       </c>
       <c r="B33" t="n">
-        <v>90806</v>
+        <v>90858</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3856,21 +3860,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -3880,10 +3884,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>837873</v>
+        <v>837852</v>
       </c>
       <c r="R33" t="n">
-        <v>7446194</v>
+        <v>7446286</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3942,10 +3946,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112080983</v>
+        <v>112081023</v>
       </c>
       <c r="B34" t="n">
-        <v>86371</v>
+        <v>90826</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -3954,25 +3958,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4412</v>
+        <v>4366</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -3982,10 +3986,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>837800</v>
+        <v>837916</v>
       </c>
       <c r="R34" t="n">
-        <v>7446445</v>
+        <v>7446293</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4012,12 +4016,12 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4044,10 +4048,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112081078</v>
+        <v>112081064</v>
       </c>
       <c r="B35" t="n">
-        <v>78746</v>
+        <v>88180</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4056,25 +4060,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6463</v>
+        <v>6276</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4084,10 +4088,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>838039</v>
+        <v>837869</v>
       </c>
       <c r="R35" t="n">
-        <v>7446300</v>
+        <v>7446455</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4114,12 +4118,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4128,6 +4132,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4146,10 +4151,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112081067</v>
+        <v>112081086</v>
       </c>
       <c r="B36" t="n">
-        <v>77650</v>
+        <v>90808</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4162,21 +4167,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4186,10 +4191,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>838039</v>
+        <v>837869</v>
       </c>
       <c r="R36" t="n">
-        <v>7446399</v>
+        <v>7446254</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4216,12 +4221,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4248,10 +4253,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112081045</v>
+        <v>112081001</v>
       </c>
       <c r="B37" t="n">
-        <v>90806</v>
+        <v>90858</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4264,21 +4269,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4288,10 +4293,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>837916</v>
+        <v>837844</v>
       </c>
       <c r="R37" t="n">
-        <v>7446236</v>
+        <v>7446325</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4318,12 +4323,12 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4350,10 +4355,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112080971</v>
+        <v>112081044</v>
       </c>
       <c r="B38" t="n">
-        <v>86371</v>
+        <v>95708</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4362,27 +4367,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4412</v>
+        <v>224358</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Vanlig plattlummer</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Sacc. &amp; Cub.</t>
-        </is>
-      </c>
+          <t>Lycopodium complanatum subsp. complanatum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4390,10 +4391,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>838248</v>
+        <v>837845</v>
       </c>
       <c r="R38" t="n">
-        <v>7446446</v>
+        <v>7446349</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4420,12 +4421,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4434,6 +4435,7 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -4452,10 +4454,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112081043</v>
+        <v>112081020</v>
       </c>
       <c r="B39" t="n">
-        <v>95707</v>
+        <v>78647</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4468,21 +4470,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221941</v>
+        <v>6456</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4492,10 +4494,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>837847</v>
+        <v>838023</v>
       </c>
       <c r="R39" t="n">
-        <v>7446312</v>
+        <v>7446298</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4522,12 +4524,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4554,10 +4556,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112081026</v>
+        <v>112080991</v>
       </c>
       <c r="B40" t="n">
-        <v>90826</v>
+        <v>56575</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4566,25 +4568,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4366</v>
+        <v>103021</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4594,10 +4596,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>837897</v>
+        <v>837924</v>
       </c>
       <c r="R40" t="n">
-        <v>7446288</v>
+        <v>7446271</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4656,10 +4658,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112080966</v>
+        <v>112081089</v>
       </c>
       <c r="B41" t="n">
-        <v>86371</v>
+        <v>90808</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4672,21 +4674,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4412</v>
+        <v>4362</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4696,10 +4698,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>838113</v>
+        <v>837863</v>
       </c>
       <c r="R41" t="n">
-        <v>7446333</v>
+        <v>7446235</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4726,12 +4728,12 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -4758,10 +4760,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112081056</v>
+        <v>112081063</v>
       </c>
       <c r="B42" t="n">
-        <v>89571</v>
+        <v>88180</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4770,25 +4772,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>6276</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4798,10 +4800,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>838091</v>
+        <v>837894</v>
       </c>
       <c r="R42" t="n">
-        <v>7446392</v>
+        <v>7446193</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4842,6 +4844,7 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -4860,10 +4863,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112081059</v>
+        <v>112081083</v>
       </c>
       <c r="B43" t="n">
-        <v>88180</v>
+        <v>90808</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -4872,25 +4875,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6276</v>
+        <v>4362</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -4900,10 +4903,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>837913</v>
+        <v>837881</v>
       </c>
       <c r="R43" t="n">
-        <v>7446234</v>
+        <v>7446204</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -4944,7 +4947,6 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
-      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
@@ -4963,10 +4965,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112081068</v>
+        <v>112080982</v>
       </c>
       <c r="B44" t="n">
-        <v>77650</v>
+        <v>86371</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -4979,21 +4981,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6425</v>
+        <v>4412</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5003,10 +5005,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>837977</v>
+        <v>837795</v>
       </c>
       <c r="R44" t="n">
-        <v>7446400</v>
+        <v>7446283</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5065,10 +5067,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112081072</v>
+        <v>112081011</v>
       </c>
       <c r="B45" t="n">
-        <v>90814</v>
+        <v>78740</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5081,21 +5083,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4364</v>
+        <v>6462</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5105,10 +5107,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>837935</v>
+        <v>838034</v>
       </c>
       <c r="R45" t="n">
-        <v>7446225</v>
+        <v>7446280</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5167,7 +5169,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112080976</v>
+        <v>112080967</v>
       </c>
       <c r="B46" t="n">
         <v>86371</v>
@@ -5207,10 +5209,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>838178</v>
+        <v>838146</v>
       </c>
       <c r="R46" t="n">
-        <v>7446451</v>
+        <v>7446346</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5269,10 +5271,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112080967</v>
+        <v>112080985</v>
       </c>
       <c r="B47" t="n">
-        <v>86371</v>
+        <v>89813</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5285,21 +5287,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4412</v>
+        <v>73</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Veckticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Flavidoporia pulvinascens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Pilát) Audet</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5309,10 +5311,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>838146</v>
+        <v>838200</v>
       </c>
       <c r="R47" t="n">
-        <v>7446346</v>
+        <v>7446423</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5371,10 +5373,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112080980</v>
+        <v>112081040</v>
       </c>
       <c r="B48" t="n">
-        <v>86371</v>
+        <v>95707</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5383,25 +5385,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4412</v>
+        <v>221941</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5411,10 +5413,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>837988</v>
+        <v>837935</v>
       </c>
       <c r="R48" t="n">
-        <v>7446497</v>
+        <v>7446271</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5441,12 +5443,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5473,10 +5475,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112081000</v>
+        <v>112081087</v>
       </c>
       <c r="B49" t="n">
-        <v>90858</v>
+        <v>90808</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5489,21 +5491,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5449</v>
+        <v>4362</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5513,10 +5515,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>837877</v>
+        <v>837865</v>
       </c>
       <c r="R49" t="n">
-        <v>7446276</v>
+        <v>7446238</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5575,7 +5577,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112080979</v>
+        <v>112080971</v>
       </c>
       <c r="B50" t="n">
         <v>86371</v>
@@ -5615,10 +5617,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>837843</v>
+        <v>838248</v>
       </c>
       <c r="R50" t="n">
-        <v>7446274</v>
+        <v>7446446</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5645,12 +5647,12 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5677,10 +5679,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112081028</v>
+        <v>112081042</v>
       </c>
       <c r="B51" t="n">
-        <v>90826</v>
+        <v>95707</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5693,21 +5695,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4366</v>
+        <v>221941</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5717,10 +5719,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>837840</v>
+        <v>837882</v>
       </c>
       <c r="R51" t="n">
-        <v>7446337</v>
+        <v>7446390</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5779,10 +5781,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>112080985</v>
+        <v>112080999</v>
       </c>
       <c r="B52" t="n">
-        <v>89813</v>
+        <v>90857</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -5795,21 +5797,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>73</v>
+        <v>5448</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Veckticka</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Flavidoporia pulvinascens</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Pilát) Audet</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -5819,10 +5821,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>838200</v>
+        <v>837852</v>
       </c>
       <c r="R52" t="n">
-        <v>7446423</v>
+        <v>7446307</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -5849,12 +5851,12 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5881,10 +5883,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>112081084</v>
+        <v>112081057</v>
       </c>
       <c r="B53" t="n">
-        <v>90808</v>
+        <v>89571</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -5897,21 +5899,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4362</v>
+        <v>5432</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -5921,10 +5923,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>837946</v>
+        <v>837757</v>
       </c>
       <c r="R53" t="n">
-        <v>7446352</v>
+        <v>7446355</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5983,10 +5985,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>112081061</v>
+        <v>112080976</v>
       </c>
       <c r="B54" t="n">
-        <v>88180</v>
+        <v>86371</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -5995,25 +5997,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6276</v>
+        <v>4412</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6023,10 +6025,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>837896</v>
+        <v>838178</v>
       </c>
       <c r="R54" t="n">
-        <v>7446211</v>
+        <v>7446451</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6067,7 +6069,6 @@
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6086,10 +6087,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>112081073</v>
+        <v>112080973</v>
       </c>
       <c r="B55" t="n">
-        <v>90814</v>
+        <v>86371</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6098,25 +6099,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4364</v>
+        <v>4412</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6126,10 +6127,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>837934</v>
+        <v>838236</v>
       </c>
       <c r="R55" t="n">
-        <v>7446224</v>
+        <v>7446398</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6188,10 +6189,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>112081091</v>
+        <v>112081014</v>
       </c>
       <c r="B56" t="n">
-        <v>90826</v>
+        <v>56446</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6200,25 +6201,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4366</v>
+        <v>100049</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6228,10 +6229,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>838215</v>
+        <v>838280</v>
       </c>
       <c r="R56" t="n">
-        <v>7446394</v>
+        <v>7446479</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6272,7 +6273,6 @@
       <c r="AE56" t="b">
         <v>0</v>
       </c>
-      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -6291,10 +6291,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>112081048</v>
+        <v>112081003</v>
       </c>
       <c r="B57" t="n">
-        <v>90806</v>
+        <v>90858</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6307,21 +6307,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4361</v>
+        <v>5449</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6331,10 +6331,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>837846</v>
+        <v>837859</v>
       </c>
       <c r="R57" t="n">
-        <v>7446313</v>
+        <v>7446271</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6393,10 +6393,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>112080969</v>
+        <v>112080993</v>
       </c>
       <c r="B58" t="n">
-        <v>86371</v>
+        <v>56575</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6409,21 +6409,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4412</v>
+        <v>103021</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>838168</v>
+        <v>837802</v>
       </c>
       <c r="R58" t="n">
-        <v>7446363</v>
+        <v>7446284</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6463,12 +6463,12 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6495,10 +6495,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>112080982</v>
+        <v>112081010</v>
       </c>
       <c r="B59" t="n">
-        <v>86371</v>
+        <v>78740</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6507,25 +6507,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4412</v>
+        <v>6462</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6535,10 +6535,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>837795</v>
+        <v>838039</v>
       </c>
       <c r="R59" t="n">
-        <v>7446283</v>
+        <v>7446300</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6565,12 +6565,12 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -6597,7 +6597,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>112080972</v>
+        <v>112080965</v>
       </c>
       <c r="B60" t="n">
         <v>86371</v>
@@ -6637,10 +6637,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>838237</v>
+        <v>837871</v>
       </c>
       <c r="R60" t="n">
-        <v>7446403</v>
+        <v>7446256</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -6699,10 +6699,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>112081001</v>
+        <v>112080974</v>
       </c>
       <c r="B61" t="n">
-        <v>90858</v>
+        <v>86371</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -6715,21 +6715,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5449</v>
+        <v>4412</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -6739,10 +6739,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>837844</v>
+        <v>838233</v>
       </c>
       <c r="R61" t="n">
-        <v>7446325</v>
+        <v>7446396</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -6769,12 +6769,12 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -6801,10 +6801,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>112081050</v>
+        <v>112081048</v>
       </c>
       <c r="B62" t="n">
-        <v>78747</v>
+        <v>90806</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -6813,25 +6813,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6464</v>
+        <v>4361</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -6841,10 +6841,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>838195</v>
+        <v>837846</v>
       </c>
       <c r="R62" t="n">
-        <v>7446426</v>
+        <v>7446313</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -6871,12 +6871,12 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -6903,10 +6903,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>112081055</v>
+        <v>112081025</v>
       </c>
       <c r="B63" t="n">
-        <v>89549</v>
+        <v>90826</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -6915,25 +6915,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1108</v>
+        <v>4366</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -6943,10 +6943,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>837801</v>
+        <v>837898</v>
       </c>
       <c r="R63" t="n">
-        <v>7446411</v>
+        <v>7446209</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -6973,12 +6973,12 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7005,10 +7005,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>112081070</v>
+        <v>112080998</v>
       </c>
       <c r="B64" t="n">
-        <v>81385</v>
+        <v>90857</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7021,21 +7021,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1312</v>
+        <v>5448</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7045,10 +7045,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>838037</v>
+        <v>837839</v>
       </c>
       <c r="R64" t="n">
-        <v>7446422</v>
+        <v>7446242</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7089,7 +7089,6 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -7108,10 +7107,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>112081069</v>
+        <v>112081043</v>
       </c>
       <c r="B65" t="n">
-        <v>81385</v>
+        <v>95707</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7120,25 +7119,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1312</v>
+        <v>221941</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7148,10 +7147,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>838125</v>
+        <v>837847</v>
       </c>
       <c r="R65" t="n">
-        <v>7446412</v>
+        <v>7446312</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7178,12 +7177,12 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7192,7 +7191,6 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -7211,10 +7209,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>112081063</v>
+        <v>112081055</v>
       </c>
       <c r="B66" t="n">
-        <v>88180</v>
+        <v>89549</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7223,25 +7221,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6276</v>
+        <v>1108</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7251,10 +7249,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>837894</v>
+        <v>837801</v>
       </c>
       <c r="R66" t="n">
-        <v>7446193</v>
+        <v>7446411</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7281,12 +7279,12 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7295,7 +7293,6 @@
       <c r="AE66" t="b">
         <v>0</v>
       </c>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="b">
         <v>0</v>
       </c>
@@ -7314,10 +7311,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>112081087</v>
+        <v>112081028</v>
       </c>
       <c r="B67" t="n">
-        <v>90808</v>
+        <v>90826</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7326,25 +7323,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -7354,10 +7351,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>837865</v>
+        <v>837840</v>
       </c>
       <c r="R67" t="n">
-        <v>7446238</v>
+        <v>7446337</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7416,10 +7413,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>112081077</v>
+        <v>112081069</v>
       </c>
       <c r="B68" t="n">
-        <v>90814</v>
+        <v>81385</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7428,25 +7425,25 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4364</v>
+        <v>1312</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -7456,10 +7453,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>837975</v>
+        <v>838125</v>
       </c>
       <c r="R68" t="n">
-        <v>7446376</v>
+        <v>7446412</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7486,12 +7483,12 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -7500,6 +7497,7 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
+      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
@@ -7518,10 +7516,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>112080970</v>
+        <v>112081050</v>
       </c>
       <c r="B69" t="n">
-        <v>86371</v>
+        <v>78747</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7530,25 +7528,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4412</v>
+        <v>6464</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7558,10 +7556,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>838256</v>
+        <v>838195</v>
       </c>
       <c r="R69" t="n">
-        <v>7446410</v>
+        <v>7446426</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7620,10 +7618,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>112081039</v>
+        <v>112081027</v>
       </c>
       <c r="B70" t="n">
-        <v>95707</v>
+        <v>90826</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -7636,21 +7634,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>221941</v>
+        <v>4366</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7660,10 +7658,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>837882</v>
+        <v>837917</v>
       </c>
       <c r="R70" t="n">
-        <v>7446247</v>
+        <v>7446271</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -7690,12 +7688,12 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -7722,10 +7720,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>112081017</v>
+        <v>112081084</v>
       </c>
       <c r="B71" t="n">
-        <v>56446</v>
+        <v>90808</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -7738,21 +7736,21 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100049</v>
+        <v>4362</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -7762,10 +7760,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>837978</v>
+        <v>837946</v>
       </c>
       <c r="R71" t="n">
-        <v>7446392</v>
+        <v>7446352</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -7824,10 +7822,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>112081011</v>
+        <v>112081041</v>
       </c>
       <c r="B72" t="n">
-        <v>78740</v>
+        <v>95707</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -7840,21 +7838,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6462</v>
+        <v>221941</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -7864,10 +7862,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>838034</v>
+        <v>837955</v>
       </c>
       <c r="R72" t="n">
-        <v>7446280</v>
+        <v>7446342</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7894,12 +7892,12 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -7926,10 +7924,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>112080995</v>
+        <v>112081077</v>
       </c>
       <c r="B73" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -7938,25 +7936,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -7966,10 +7964,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>837932</v>
+        <v>837975</v>
       </c>
       <c r="R73" t="n">
-        <v>7446337</v>
+        <v>7446376</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8028,10 +8026,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>112081047</v>
+        <v>112080979</v>
       </c>
       <c r="B74" t="n">
-        <v>90806</v>
+        <v>86371</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8044,21 +8042,21 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4361</v>
+        <v>4412</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8068,10 +8066,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>837882</v>
+        <v>837843</v>
       </c>
       <c r="R74" t="n">
-        <v>7446387</v>
+        <v>7446274</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8130,10 +8128,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>112080975</v>
+        <v>112081061</v>
       </c>
       <c r="B75" t="n">
-        <v>86371</v>
+        <v>88180</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8142,25 +8140,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4412</v>
+        <v>6276</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8170,10 +8168,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>838204</v>
+        <v>837896</v>
       </c>
       <c r="R75" t="n">
-        <v>7446431</v>
+        <v>7446211</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8214,6 +8212,7 @@
       <c r="AE75" t="b">
         <v>0</v>
       </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="b">
         <v>0</v>
       </c>
@@ -8232,10 +8231,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>112081027</v>
+        <v>112080977</v>
       </c>
       <c r="B76" t="n">
-        <v>90826</v>
+        <v>86371</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8244,25 +8243,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4366</v>
+        <v>4412</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -8272,10 +8271,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>837917</v>
+        <v>838169</v>
       </c>
       <c r="R76" t="n">
-        <v>7446271</v>
+        <v>7446375</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8302,12 +8301,12 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8334,10 +8333,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112080991</v>
+        <v>112081004</v>
       </c>
       <c r="B77" t="n">
-        <v>56575</v>
+        <v>90858</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8350,21 +8349,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>103021</v>
+        <v>5449</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8374,10 +8373,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>837924</v>
+        <v>837870</v>
       </c>
       <c r="R77" t="n">
-        <v>7446271</v>
+        <v>7446259</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8436,7 +8435,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>112080973</v>
+        <v>112080969</v>
       </c>
       <c r="B78" t="n">
         <v>86371</v>
@@ -8476,10 +8475,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>838236</v>
+        <v>838168</v>
       </c>
       <c r="R78" t="n">
-        <v>7446398</v>
+        <v>7446363</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8538,10 +8537,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>112081083</v>
+        <v>112080980</v>
       </c>
       <c r="B79" t="n">
-        <v>90808</v>
+        <v>86371</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -8554,21 +8553,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4362</v>
+        <v>4412</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -8578,10 +8577,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>837881</v>
+        <v>837988</v>
       </c>
       <c r="R79" t="n">
-        <v>7446204</v>
+        <v>7446497</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -8608,12 +8607,12 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -8640,7 +8639,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112081071</v>
+        <v>112081073</v>
       </c>
       <c r="B80" t="n">
         <v>90814</v>
@@ -8680,10 +8679,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>837916</v>
+        <v>837934</v>
       </c>
       <c r="R80" t="n">
-        <v>7446236</v>
+        <v>7446224</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -8742,10 +8741,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112081025</v>
+        <v>112081049</v>
       </c>
       <c r="B81" t="n">
-        <v>90826</v>
+        <v>90806</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -8754,25 +8753,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -8782,10 +8781,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>837898</v>
+        <v>837873</v>
       </c>
       <c r="R81" t="n">
-        <v>7446209</v>
+        <v>7446194</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8812,12 +8811,12 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -8844,10 +8843,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>112081019</v>
+        <v>112081054</v>
       </c>
       <c r="B82" t="n">
-        <v>78647</v>
+        <v>55643</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -8856,25 +8855,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6456</v>
+        <v>102612</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -8884,10 +8883,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>838202</v>
+        <v>837801</v>
       </c>
       <c r="R82" t="n">
-        <v>7446426</v>
+        <v>7446348</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -8914,12 +8913,12 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -8946,10 +8945,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>112081064</v>
+        <v>112080978</v>
       </c>
       <c r="B83" t="n">
-        <v>88180</v>
+        <v>86371</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -8958,25 +8957,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6276</v>
+        <v>4412</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -8986,10 +8985,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>837869</v>
+        <v>838100</v>
       </c>
       <c r="R83" t="n">
-        <v>7446455</v>
+        <v>7446330</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9016,12 +9015,12 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9030,7 +9029,6 @@
       <c r="AE83" t="b">
         <v>0</v>
       </c>
-      <c r="AF83" t="inlineStr"/>
       <c r="AG83" t="b">
         <v>0</v>
       </c>
@@ -9049,10 +9047,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>112081057</v>
+        <v>112081039</v>
       </c>
       <c r="B84" t="n">
-        <v>89571</v>
+        <v>95707</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9061,25 +9059,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5432</v>
+        <v>221941</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9089,10 +9087,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>837757</v>
+        <v>837882</v>
       </c>
       <c r="R84" t="n">
-        <v>7446355</v>
+        <v>7446247</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9119,12 +9117,12 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9151,10 +9149,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>112080974</v>
+        <v>112081059</v>
       </c>
       <c r="B85" t="n">
-        <v>86371</v>
+        <v>88180</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9163,25 +9161,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4412</v>
+        <v>6276</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -9191,10 +9189,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>838233</v>
+        <v>837913</v>
       </c>
       <c r="R85" t="n">
-        <v>7446396</v>
+        <v>7446234</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9235,6 +9233,7 @@
       <c r="AE85" t="b">
         <v>0</v>
       </c>
+      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
       </c>
@@ -9253,10 +9252,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>112081003</v>
+        <v>112081068</v>
       </c>
       <c r="B86" t="n">
-        <v>90858</v>
+        <v>77650</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9269,21 +9268,21 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5449</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9293,10 +9292,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>837859</v>
+        <v>837977</v>
       </c>
       <c r="R86" t="n">
-        <v>7446271</v>
+        <v>7446400</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9355,10 +9354,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>112081041</v>
+        <v>112080995</v>
       </c>
       <c r="B87" t="n">
-        <v>95707</v>
+        <v>90800</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9367,25 +9366,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9395,10 +9394,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>837955</v>
+        <v>837932</v>
       </c>
       <c r="R87" t="n">
-        <v>7446342</v>
+        <v>7446337</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9457,10 +9456,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>112081085</v>
+        <v>112081091</v>
       </c>
       <c r="B88" t="n">
-        <v>90808</v>
+        <v>90826</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -9469,25 +9468,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9497,10 +9496,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>837853</v>
+        <v>838215</v>
       </c>
       <c r="R88" t="n">
-        <v>7446288</v>
+        <v>7446394</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9527,12 +9526,12 @@
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -9541,6 +9540,7 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
+      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -9559,10 +9559,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>112081074</v>
+        <v>112080983</v>
       </c>
       <c r="B89" t="n">
-        <v>90814</v>
+        <v>86371</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -9571,25 +9571,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4364</v>
+        <v>4412</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9599,10 +9599,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>837920</v>
+        <v>837800</v>
       </c>
       <c r="R89" t="n">
-        <v>7446236</v>
+        <v>7446445</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9629,12 +9629,12 @@
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD89" t="b">

--- a/artfynd/A 32706-2023.xlsx
+++ b/artfynd/A 32706-2023.xlsx
@@ -8333,10 +8333,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>112081004</v>
+        <v>112081049</v>
       </c>
       <c r="B77" t="n">
-        <v>90858</v>
+        <v>90806</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8349,21 +8349,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5449</v>
+        <v>4361</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellodon niger</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8373,10 +8373,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>837870</v>
+        <v>837873</v>
       </c>
       <c r="R77" t="n">
-        <v>7446259</v>
+        <v>7446194</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8639,10 +8639,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>112081073</v>
+        <v>112081004</v>
       </c>
       <c r="B80" t="n">
-        <v>90814</v>
+        <v>90858</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -8651,25 +8651,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>4364</v>
+        <v>5449</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon niger</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -8679,10 +8679,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>837934</v>
+        <v>837870</v>
       </c>
       <c r="R80" t="n">
-        <v>7446224</v>
+        <v>7446259</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -8709,12 +8709,12 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -8741,10 +8741,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>112081049</v>
+        <v>112081073</v>
       </c>
       <c r="B81" t="n">
-        <v>90806</v>
+        <v>90814</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -8753,25 +8753,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -8781,10 +8781,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>837873</v>
+        <v>837934</v>
       </c>
       <c r="R81" t="n">
-        <v>7446194</v>
+        <v>7446224</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -8811,12 +8811,12 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>2023-08-31</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AD81" t="b">
